--- a/Template Data v4.xlsx
+++ b/Template Data v4.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2032" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2442" uniqueCount="746">
   <si>
     <t>Nama</t>
   </si>
@@ -1876,6 +1876,396 @@
   </si>
   <si>
     <t>tambahan makanan</t>
+  </si>
+  <si>
+    <t>express special 1 (nasi goreng rainbow)</t>
+  </si>
+  <si>
+    <t>express special 2 (kwetiau goreng rainbow)</t>
+  </si>
+  <si>
+    <t>express special 3 (mie goreng rainbow)</t>
+  </si>
+  <si>
+    <t>express special 4 (capcay + nasi sweet hot/ice rainbow tea</t>
+  </si>
+  <si>
+    <t>express special 5 (nasi + chicken crispy + capcay + clear soup bakso polos (2pcs) sweet hot/ice rainbow tea</t>
+  </si>
+  <si>
+    <t>bakpao ayam</t>
+  </si>
+  <si>
+    <t>kaki ayam</t>
+  </si>
+  <si>
+    <t>hakau</t>
+  </si>
+  <si>
+    <t>siomay special</t>
+  </si>
+  <si>
+    <t>enoki crispy</t>
+  </si>
+  <si>
+    <t>kulit ayam crispy</t>
+  </si>
+  <si>
+    <t>chicken karaage</t>
+  </si>
+  <si>
+    <t>deep fried gyoza</t>
+  </si>
+  <si>
+    <t>pan fried gyoza</t>
+  </si>
+  <si>
+    <t>chicken katsu</t>
+  </si>
+  <si>
+    <t>chicken teriyaki</t>
+  </si>
+  <si>
+    <t>beef teriyaki</t>
+  </si>
+  <si>
+    <t>fish katsu</t>
+  </si>
+  <si>
+    <t>tempura moriawase</t>
+  </si>
+  <si>
+    <t>gohan</t>
+  </si>
+  <si>
+    <t>chicken chasiu</t>
+  </si>
+  <si>
+    <t>chicken katsu don</t>
+  </si>
+  <si>
+    <t>fish katsu don</t>
+  </si>
+  <si>
+    <t>sunny don</t>
+  </si>
+  <si>
+    <t>spicy chicken don</t>
+  </si>
+  <si>
+    <t>chasiu don</t>
+  </si>
+  <si>
+    <t>chicken kaarage don</t>
+  </si>
+  <si>
+    <t>chicken teriyaki don</t>
+  </si>
+  <si>
+    <t>beef teriyaki don</t>
+  </si>
+  <si>
+    <t>chicken kaarage set</t>
+  </si>
+  <si>
+    <t>chicken katsu set</t>
+  </si>
+  <si>
+    <t>chicken teriyaki set</t>
+  </si>
+  <si>
+    <t>beef teriyaki set</t>
+  </si>
+  <si>
+    <t>fish katsu set</t>
+  </si>
+  <si>
+    <t>calamari set</t>
+  </si>
+  <si>
+    <t>tempura moriawase set</t>
+  </si>
+  <si>
+    <t>hot plate beef teriyaki</t>
+  </si>
+  <si>
+    <t>hotplate seafood</t>
+  </si>
+  <si>
+    <t>hot plate chicken teriyaki</t>
+  </si>
+  <si>
+    <t>hot plate spicy chicken</t>
+  </si>
+  <si>
+    <t>ebi tempura ramen</t>
+  </si>
+  <si>
+    <t>basic ramen</t>
+  </si>
+  <si>
+    <t>vegetable ramen</t>
+  </si>
+  <si>
+    <t>kani ramen</t>
+  </si>
+  <si>
+    <t>chicken teriyaki ramen</t>
+  </si>
+  <si>
+    <t>beef patty ramen</t>
+  </si>
+  <si>
+    <t>chicken patty ramen</t>
+  </si>
+  <si>
+    <t>tenderloin teriyaki ramen</t>
+  </si>
+  <si>
+    <t>chicken chasiu ramen</t>
+  </si>
+  <si>
+    <t>gyoza ramen</t>
+  </si>
+  <si>
+    <t>sunny ramen</t>
+  </si>
+  <si>
+    <t>agadashi tofu ramen</t>
+  </si>
+  <si>
+    <t>spicy chicken ramen</t>
+  </si>
+  <si>
+    <t>chicken katsu ramen</t>
+  </si>
+  <si>
+    <t>chicken karaage ramen</t>
+  </si>
+  <si>
+    <t>beef patty</t>
+  </si>
+  <si>
+    <t>chicken patty</t>
+  </si>
+  <si>
+    <t>spicy katsu maki</t>
+  </si>
+  <si>
+    <t>california maki</t>
+  </si>
+  <si>
+    <t>tenderloin maki</t>
+  </si>
+  <si>
+    <t>tori kushi no maki</t>
+  </si>
+  <si>
+    <t>kyuri maki</t>
+  </si>
+  <si>
+    <t>tori kani maki</t>
+  </si>
+  <si>
+    <t>kani maki</t>
+  </si>
+  <si>
+    <t>set A (tropical maki, chicken dynamite, spicy katsu maki)</t>
+  </si>
+  <si>
+    <t>set B (california maki, tenderloin maki, tori kushi no maki)</t>
+  </si>
+  <si>
+    <t>tropical maki</t>
+  </si>
+  <si>
+    <t>avocado maki</t>
+  </si>
+  <si>
+    <t>chicken dynamite maki</t>
+  </si>
+  <si>
+    <t>beef dynamite maki</t>
+  </si>
+  <si>
+    <t>yellow taxi</t>
+  </si>
+  <si>
+    <t>red cross</t>
+  </si>
+  <si>
+    <t>marcheepan</t>
+  </si>
+  <si>
+    <t>tropical forest</t>
+  </si>
+  <si>
+    <t>passion fusion</t>
+  </si>
+  <si>
+    <t>cold ocha</t>
+  </si>
+  <si>
+    <t>coca-cola</t>
+  </si>
+  <si>
+    <t>fanta</t>
+  </si>
+  <si>
+    <t>ice chocolate</t>
+  </si>
+  <si>
+    <t>lime squash</t>
+  </si>
+  <si>
+    <t>hot ocha</t>
+  </si>
+  <si>
+    <t>paket A (Beef Patty Donburi + Ramen Salad + Ocha)</t>
+  </si>
+  <si>
+    <t>paket b (kroket donburi + yasaiitame + salad + clear soup + ocha)</t>
+  </si>
+  <si>
+    <t>paket c (chicken patty donburi + agedashi tofu + tekanako maki +  salad  + ocha )</t>
+  </si>
+  <si>
+    <t>paket d (chicken katsu donburi + yasaiitame +  salad + clear soup + Ocha)</t>
+  </si>
+  <si>
+    <t>rotigal</t>
+  </si>
+  <si>
+    <t>tehkotak</t>
+  </si>
+  <si>
+    <t>nu milk tea</t>
+  </si>
+  <si>
+    <t>nu green tea</t>
+  </si>
+  <si>
+    <t>nescafe</t>
+  </si>
+  <si>
+    <t>beef bowl original (regular)</t>
+  </si>
+  <si>
+    <t>beef bowl original (large)</t>
+  </si>
+  <si>
+    <t>beef bowl yakiniku (regular)</t>
+  </si>
+  <si>
+    <t>beef bowl yakiniku (large)</t>
+  </si>
+  <si>
+    <t>beef bowl original egg mayo (regular)</t>
+  </si>
+  <si>
+    <t>beef bowl original egg mayo (large)</t>
+  </si>
+  <si>
+    <t>beef bowl orginal red hot chili (regular)</t>
+  </si>
+  <si>
+    <t>beef bowl original red hot chili (large)</t>
+  </si>
+  <si>
+    <t>beef bowl yakiniku red hot chili (regular)</t>
+  </si>
+  <si>
+    <t>beef bowl yakiniku red hot chili (large)</t>
+  </si>
+  <si>
+    <t>beef bowl original creamy (regular)</t>
+  </si>
+  <si>
+    <t>beef bowl original creamy (large)</t>
+  </si>
+  <si>
+    <t>beef bowl original crispy spinach (regular)</t>
+  </si>
+  <si>
+    <t>beef bowl yakiniku crispy spinach (large)</t>
+  </si>
+  <si>
+    <t>extra topping for beef bowl</t>
+  </si>
+  <si>
+    <t>egg mayo</t>
+  </si>
+  <si>
+    <t>red hot chili</t>
+  </si>
+  <si>
+    <t>creamy</t>
+  </si>
+  <si>
+    <t>crispy spinach</t>
+  </si>
+  <si>
+    <t>veggie beef bowl (reguler)</t>
+  </si>
+  <si>
+    <t>veggie beef bowl (large)</t>
+  </si>
+  <si>
+    <t>teriyaki chicken bowl</t>
+  </si>
+  <si>
+    <t>shrimp bowl</t>
+  </si>
+  <si>
+    <t>ebi fry</t>
+  </si>
+  <si>
+    <t>kaarage</t>
+  </si>
+  <si>
+    <t>crispy ebi</t>
+  </si>
+  <si>
+    <t>shumai</t>
+  </si>
+  <si>
+    <t>katsu</t>
+  </si>
+  <si>
+    <t>shrimp cutlet</t>
+  </si>
+  <si>
+    <t>egg roll</t>
+  </si>
+  <si>
+    <t>beef only (original/yakiniku)</t>
+  </si>
+  <si>
+    <t>teriyaki chicken only</t>
+  </si>
+  <si>
+    <t>vegetable only</t>
+  </si>
+  <si>
+    <t>miso soup</t>
+  </si>
+  <si>
+    <t>paket puas! A (original beef + 2 pcs katsu, 2 pcs shumai atau 1 pcs ebi fry, 1 pcs egg roll, 1 pcs shumai )</t>
+  </si>
+  <si>
+    <t>paket puas! B (yakiniku beef + 2 pcs katsu, 2 pcs shumai atau 1 pcs ebi fry, 1 pcs egg roll, 1 pcs shumai)</t>
+  </si>
+  <si>
+    <t>paket puas! C (veggie beef + 2 pcs katsu, 2 pcs shumai atau 1 pcs ebi fry, 1 pcs egg roll, 1 pcs shumai)</t>
+  </si>
+  <si>
+    <t>paket puas! D (teriyaki chicken + 2 pcs katsu, 2 pcs shumai atau 1 pcs ebi fry, 1 pcs egg roll, 1 pcs shumai)</t>
+  </si>
+  <si>
+    <t>crispy set (4 pcs karage + nasi)</t>
+  </si>
+  <si>
+    <t>Combo (original / yakiniku beef bowl + teriyaki chicken)</t>
   </si>
 </sst>
 </file>
@@ -2010,7 +2400,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2091,6 +2481,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -3109,8 +3506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O723"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A537" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A553" sqref="A553"/>
+    <sheetView tabSelected="1" topLeftCell="A644" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G663" sqref="G663"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3185,7 +3582,7 @@
         <v>27273</v>
       </c>
       <c r="D2" s="3"/>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -3207,7 +3604,7 @@
         <v>31818</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -3229,7 +3626,7 @@
         <v>29091</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -3251,7 +3648,7 @@
         <v>31818</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -3273,7 +3670,7 @@
         <v>33363</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -3295,7 +3692,7 @@
         <v>30000</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -3317,7 +3714,7 @@
         <v>33363</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
@@ -3336,7 +3733,7 @@
         <v>35455</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>1</v>
       </c>
       <c r="F9" s="2" t="s">
@@ -3358,7 +3755,7 @@
         <v>27272</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>1</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -3380,7 +3777,7 @@
         <v>27273</v>
       </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>1</v>
       </c>
       <c r="F11" s="2" t="s">
@@ -3402,7 +3799,7 @@
         <v>27273</v>
       </c>
       <c r="D12" s="3"/>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>1</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -3424,7 +3821,7 @@
         <v>27273</v>
       </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>1</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -3446,7 +3843,7 @@
         <v>31818</v>
       </c>
       <c r="D14" s="3"/>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>1</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -3470,7 +3867,7 @@
         <v>22500</v>
       </c>
       <c r="D15" s="3"/>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>1</v>
       </c>
       <c r="F15" s="2" t="s">
@@ -3492,7 +3889,7 @@
         <v>17500</v>
       </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>1</v>
       </c>
       <c r="F16" s="2" t="s">
@@ -3515,7 +3912,7 @@
         <v>30000</v>
       </c>
       <c r="D17" s="3"/>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
@@ -3535,7 +3932,7 @@
         <v>24500</v>
       </c>
       <c r="D18" s="3"/>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <v>1</v>
       </c>
       <c r="F18" s="2" t="s">
@@ -3554,7 +3951,7 @@
         <v>19500</v>
       </c>
       <c r="D19" s="3"/>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
         <v>1</v>
       </c>
       <c r="F19" s="2" t="s">
@@ -3573,7 +3970,7 @@
         <v>30000</v>
       </c>
       <c r="D20" s="3"/>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <v>1</v>
       </c>
       <c r="F20" s="2" t="s">
@@ -3592,7 +3989,7 @@
         <v>25000</v>
       </c>
       <c r="D21" s="3"/>
-      <c r="E21" s="3">
+      <c r="E21" s="2">
         <v>1</v>
       </c>
       <c r="F21" s="2" t="s">
@@ -3611,7 +4008,7 @@
         <v>20000</v>
       </c>
       <c r="D22" s="3"/>
-      <c r="E22" s="3">
+      <c r="E22" s="2">
         <v>1</v>
       </c>
       <c r="F22" s="2" t="s">
@@ -3630,7 +4027,7 @@
         <v>24500</v>
       </c>
       <c r="D23" s="3"/>
-      <c r="E23" s="3">
+      <c r="E23" s="2">
         <v>1</v>
       </c>
       <c r="F23" s="2" t="s">
@@ -3649,7 +4046,7 @@
         <v>19500</v>
       </c>
       <c r="D24" s="3"/>
-      <c r="E24" s="3">
+      <c r="E24" s="2">
         <v>1</v>
       </c>
       <c r="F24" s="2" t="s">
@@ -3668,7 +4065,7 @@
         <v>27000</v>
       </c>
       <c r="D25" s="3"/>
-      <c r="E25" s="3">
+      <c r="E25" s="2">
         <v>1</v>
       </c>
       <c r="F25" s="2" t="s">
@@ -3687,7 +4084,7 @@
         <v>22000</v>
       </c>
       <c r="D26" s="3"/>
-      <c r="E26" s="3">
+      <c r="E26" s="2">
         <v>1</v>
       </c>
       <c r="F26" s="2" t="s">
@@ -3706,7 +4103,7 @@
         <v>22500</v>
       </c>
       <c r="D27" s="3"/>
-      <c r="E27" s="3">
+      <c r="E27" s="2">
         <v>1</v>
       </c>
       <c r="F27" s="2" t="s">
@@ -3725,7 +4122,7 @@
         <v>27500</v>
       </c>
       <c r="D28" s="3"/>
-      <c r="E28" s="3">
+      <c r="E28" s="2">
         <v>1</v>
       </c>
       <c r="F28" s="2" t="s">
@@ -3744,7 +4141,7 @@
         <v>30000</v>
       </c>
       <c r="D29" s="3"/>
-      <c r="E29" s="3">
+      <c r="E29" s="2">
         <v>1</v>
       </c>
       <c r="F29" s="2" t="s">
@@ -3763,7 +4160,7 @@
         <v>27000</v>
       </c>
       <c r="D30" s="3"/>
-      <c r="E30" s="3">
+      <c r="E30" s="2">
         <v>1</v>
       </c>
       <c r="F30" s="2" t="s">
@@ -3782,7 +4179,7 @@
         <v>22000</v>
       </c>
       <c r="D31" s="3"/>
-      <c r="E31" s="3">
+      <c r="E31" s="2">
         <v>1</v>
       </c>
       <c r="F31" s="2" t="s">
@@ -3801,7 +4198,7 @@
         <v>24500</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="3">
+      <c r="E32" s="2">
         <v>1</v>
       </c>
       <c r="F32" s="2" t="s">
@@ -3820,7 +4217,7 @@
         <v>19500</v>
       </c>
       <c r="D33" s="3"/>
-      <c r="E33" s="3">
+      <c r="E33" s="2">
         <v>1</v>
       </c>
       <c r="F33" s="2" t="s">
@@ -3839,7 +4236,7 @@
         <v>30000</v>
       </c>
       <c r="D34" s="3"/>
-      <c r="E34" s="3">
+      <c r="E34" s="2">
         <v>1</v>
       </c>
       <c r="F34" s="2" t="s">
@@ -3858,7 +4255,7 @@
         <v>24500</v>
       </c>
       <c r="D35" s="3"/>
-      <c r="E35" s="3">
+      <c r="E35" s="2">
         <v>1</v>
       </c>
       <c r="F35" s="2" t="s">
@@ -3877,7 +4274,7 @@
         <v>19500</v>
       </c>
       <c r="D36" s="3"/>
-      <c r="E36" s="3">
+      <c r="E36" s="2">
         <v>1</v>
       </c>
       <c r="F36" s="2" t="s">
@@ -3896,7 +4293,7 @@
         <v>27500</v>
       </c>
       <c r="D37" s="3"/>
-      <c r="E37" s="3">
+      <c r="E37" s="2">
         <v>1</v>
       </c>
       <c r="F37" s="2" t="s">
@@ -3915,7 +4312,7 @@
         <v>22500</v>
       </c>
       <c r="D38" s="3"/>
-      <c r="E38" s="3">
+      <c r="E38" s="2">
         <v>1</v>
       </c>
       <c r="F38" s="2" t="s">
@@ -3934,7 +4331,7 @@
         <v>27500</v>
       </c>
       <c r="D39" s="3"/>
-      <c r="E39" s="3">
+      <c r="E39" s="2">
         <v>1</v>
       </c>
       <c r="F39" s="2" t="s">
@@ -3953,7 +4350,7 @@
         <v>22500</v>
       </c>
       <c r="D40" s="3"/>
-      <c r="E40" s="3">
+      <c r="E40" s="2">
         <v>1</v>
       </c>
       <c r="F40" s="2" t="s">
@@ -3972,7 +4369,7 @@
         <v>25000</v>
       </c>
       <c r="D41" s="3"/>
-      <c r="E41" s="3">
+      <c r="E41" s="2">
         <v>1</v>
       </c>
       <c r="F41" s="2" t="s">
@@ -3991,7 +4388,7 @@
         <v>20000</v>
       </c>
       <c r="D42" s="3"/>
-      <c r="E42" s="3">
+      <c r="E42" s="2">
         <v>1</v>
       </c>
       <c r="F42" s="2" t="s">
@@ -4010,7 +4407,7 @@
         <v>30000</v>
       </c>
       <c r="D43" s="3"/>
-      <c r="E43" s="3">
+      <c r="E43" s="2">
         <v>1</v>
       </c>
       <c r="F43" s="2" t="s">
@@ -4029,7 +4426,7 @@
         <v>25000</v>
       </c>
       <c r="D44" s="3"/>
-      <c r="E44" s="3">
+      <c r="E44" s="2">
         <v>1</v>
       </c>
       <c r="F44" s="2" t="s">
@@ -4048,7 +4445,7 @@
         <v>20000</v>
       </c>
       <c r="D45" s="3"/>
-      <c r="E45" s="3">
+      <c r="E45" s="2">
         <v>1</v>
       </c>
       <c r="F45" s="2" t="s">
@@ -4067,7 +4464,7 @@
         <v>30000</v>
       </c>
       <c r="D46" s="3"/>
-      <c r="E46" s="3">
+      <c r="E46" s="2">
         <v>1</v>
       </c>
       <c r="F46" s="2" t="s">
@@ -4086,7 +4483,7 @@
         <v>20000</v>
       </c>
       <c r="D47" s="3"/>
-      <c r="E47" s="3">
+      <c r="E47" s="2">
         <v>1</v>
       </c>
       <c r="F47" s="2" t="s">
@@ -4105,7 +4502,7 @@
         <v>25000</v>
       </c>
       <c r="D48" s="3"/>
-      <c r="E48" s="3">
+      <c r="E48" s="2">
         <v>1</v>
       </c>
       <c r="F48" s="2" t="s">
@@ -4124,7 +4521,7 @@
         <v>30000</v>
       </c>
       <c r="D49" s="3"/>
-      <c r="E49" s="3">
+      <c r="E49" s="2">
         <v>1</v>
       </c>
       <c r="F49" s="2" t="s">
@@ -4143,7 +4540,7 @@
         <v>20000</v>
       </c>
       <c r="D50" s="3"/>
-      <c r="E50" s="3">
+      <c r="E50" s="2">
         <v>1</v>
       </c>
       <c r="F50" s="2" t="s">
@@ -4162,7 +4559,7 @@
         <v>25000</v>
       </c>
       <c r="D51" s="3"/>
-      <c r="E51" s="3">
+      <c r="E51" s="2">
         <v>1</v>
       </c>
       <c r="F51" s="2" t="s">
@@ -4181,7 +4578,7 @@
         <v>30000</v>
       </c>
       <c r="D52" s="3"/>
-      <c r="E52" s="3">
+      <c r="E52" s="2">
         <v>1</v>
       </c>
       <c r="F52" s="2" t="s">
@@ -4200,7 +4597,7 @@
         <v>20000</v>
       </c>
       <c r="D53" s="3"/>
-      <c r="E53" s="3">
+      <c r="E53" s="2">
         <v>1</v>
       </c>
       <c r="F53" s="2" t="s">
@@ -13676,1182 +14073,2830 @@
       </c>
     </row>
     <row r="553" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A553" s="17"/>
-      <c r="B553"/>
-      <c r="C553" s="11"/>
+      <c r="A553" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B553" t="s">
+        <v>616</v>
+      </c>
+      <c r="C553">
+        <v>22000</v>
+      </c>
       <c r="D553"/>
-      <c r="E553"/>
-      <c r="G553"/>
+      <c r="E553">
+        <v>1</v>
+      </c>
+      <c r="F553" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G553" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="554" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A554" s="17"/>
-      <c r="B554"/>
-      <c r="C554" s="11"/>
+      <c r="B554" t="s">
+        <v>617</v>
+      </c>
+      <c r="C554">
+        <v>22000</v>
+      </c>
       <c r="D554"/>
-      <c r="E554"/>
-      <c r="G554"/>
+      <c r="E554">
+        <v>1</v>
+      </c>
+      <c r="F554" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G554" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="555" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A555" s="17"/>
-      <c r="B555"/>
-      <c r="C555" s="11"/>
+      <c r="B555" t="s">
+        <v>618</v>
+      </c>
+      <c r="C555">
+        <v>22000</v>
+      </c>
       <c r="D555"/>
-      <c r="E555"/>
-      <c r="G555"/>
+      <c r="E555">
+        <v>1</v>
+      </c>
+      <c r="F555" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G555" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="556" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A556" s="17"/>
-      <c r="B556"/>
-      <c r="C556" s="11"/>
+      <c r="B556" t="s">
+        <v>619</v>
+      </c>
+      <c r="C556">
+        <v>25000</v>
+      </c>
       <c r="D556"/>
-      <c r="E556"/>
-      <c r="G556"/>
+      <c r="E556">
+        <v>1</v>
+      </c>
+      <c r="F556" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G556" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="557" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A557" s="17"/>
-      <c r="B557"/>
-      <c r="C557" s="11"/>
+      <c r="B557" t="s">
+        <v>620</v>
+      </c>
+      <c r="C557">
+        <v>25000</v>
+      </c>
       <c r="D557"/>
-      <c r="E557"/>
-      <c r="G557"/>
+      <c r="E557">
+        <v>1</v>
+      </c>
+      <c r="F557" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G557" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="558" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A558" s="17"/>
-      <c r="B558"/>
-      <c r="C558" s="11"/>
+      <c r="B558" t="s">
+        <v>621</v>
+      </c>
+      <c r="C558">
+        <v>12000</v>
+      </c>
       <c r="D558"/>
-      <c r="E558"/>
-      <c r="G558"/>
+      <c r="E558">
+        <v>1</v>
+      </c>
+      <c r="F558" t="s">
+        <v>60</v>
+      </c>
+      <c r="G558" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="559" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A559" s="17"/>
-      <c r="B559"/>
-      <c r="C559" s="11"/>
+      <c r="B559" t="s">
+        <v>622</v>
+      </c>
+      <c r="C559">
+        <v>12000</v>
+      </c>
       <c r="D559"/>
-      <c r="E559"/>
-      <c r="G559"/>
+      <c r="E559">
+        <v>1</v>
+      </c>
+      <c r="F559" t="s">
+        <v>60</v>
+      </c>
+      <c r="G559" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="560" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A560" s="17"/>
-      <c r="B560"/>
-      <c r="C560" s="11"/>
+      <c r="B560" t="s">
+        <v>623</v>
+      </c>
+      <c r="C560">
+        <v>12000</v>
+      </c>
       <c r="D560"/>
-      <c r="E560"/>
-    </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E560">
+        <v>1</v>
+      </c>
+      <c r="F560" t="s">
+        <v>60</v>
+      </c>
+      <c r="G560" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A561" s="17"/>
-      <c r="B561"/>
-      <c r="C561" s="11"/>
+      <c r="B561" t="s">
+        <v>624</v>
+      </c>
+      <c r="C561">
+        <v>12000</v>
+      </c>
       <c r="D561"/>
-      <c r="E561"/>
-    </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E561">
+        <v>1</v>
+      </c>
+      <c r="F561" t="s">
+        <v>60</v>
+      </c>
+      <c r="G561" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="562" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A562" s="17"/>
-      <c r="B562"/>
-      <c r="C562" s="11"/>
+      <c r="B562" t="s">
+        <v>625</v>
+      </c>
+      <c r="C562">
+        <v>15000</v>
+      </c>
       <c r="D562"/>
-      <c r="E562"/>
-    </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E562">
+        <v>1</v>
+      </c>
+      <c r="F562" t="s">
+        <v>60</v>
+      </c>
+      <c r="G562" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="563" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A563" s="17"/>
-      <c r="B563"/>
-      <c r="C563" s="11"/>
+      <c r="B563" t="s">
+        <v>626</v>
+      </c>
+      <c r="C563">
+        <v>12000</v>
+      </c>
       <c r="D563"/>
-      <c r="E563"/>
-    </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A564" s="17"/>
-      <c r="B564"/>
-      <c r="C564" s="11"/>
+      <c r="E563">
+        <v>1</v>
+      </c>
+      <c r="F563" t="s">
+        <v>60</v>
+      </c>
+      <c r="G563" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="564" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A564" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B564" t="s">
+        <v>627</v>
+      </c>
+      <c r="C564">
+        <v>27800</v>
+      </c>
       <c r="D564"/>
-      <c r="E564"/>
-    </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E564">
+        <v>1</v>
+      </c>
+      <c r="F564" t="s">
+        <v>14</v>
+      </c>
+      <c r="G564" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="565" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A565" s="17"/>
-      <c r="B565"/>
-      <c r="C565" s="11"/>
+      <c r="B565" t="s">
+        <v>628</v>
+      </c>
+      <c r="C565">
+        <v>22800</v>
+      </c>
       <c r="D565"/>
-      <c r="E565"/>
-    </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E565">
+        <v>1</v>
+      </c>
+      <c r="F565" t="s">
+        <v>14</v>
+      </c>
+      <c r="G565" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="566" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A566" s="17"/>
-      <c r="B566"/>
-      <c r="C566" s="11"/>
+      <c r="B566" t="s">
+        <v>629</v>
+      </c>
+      <c r="C566">
+        <v>22800</v>
+      </c>
       <c r="D566"/>
-      <c r="E566"/>
-    </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E566">
+        <v>1</v>
+      </c>
+      <c r="F566" t="s">
+        <v>14</v>
+      </c>
+      <c r="G566" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="567" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A567" s="17"/>
-      <c r="B567"/>
-      <c r="C567" s="11"/>
+      <c r="B567" t="s">
+        <v>630</v>
+      </c>
+      <c r="C567">
+        <v>26800</v>
+      </c>
       <c r="D567"/>
-      <c r="E567"/>
-    </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E567">
+        <v>1</v>
+      </c>
+      <c r="F567" t="s">
+        <v>14</v>
+      </c>
+      <c r="G567" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="568" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A568" s="17"/>
-      <c r="B568"/>
-      <c r="C568" s="11"/>
+      <c r="B568" t="s">
+        <v>631</v>
+      </c>
+      <c r="C568">
+        <v>28800</v>
+      </c>
       <c r="D568"/>
-      <c r="E568"/>
-    </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E568">
+        <v>1</v>
+      </c>
+      <c r="F568" t="s">
+        <v>14</v>
+      </c>
+      <c r="G568" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="569" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A569" s="17"/>
-      <c r="B569"/>
-      <c r="C569" s="11"/>
+      <c r="B569" t="s">
+        <v>632</v>
+      </c>
+      <c r="C569">
+        <v>39800</v>
+      </c>
       <c r="D569"/>
-      <c r="E569"/>
-    </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E569">
+        <v>1</v>
+      </c>
+      <c r="F569" t="s">
+        <v>14</v>
+      </c>
+      <c r="G569" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="570" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A570" s="17"/>
-      <c r="B570"/>
-      <c r="C570" s="11"/>
+      <c r="B570" t="s">
+        <v>633</v>
+      </c>
+      <c r="C570">
+        <v>29800</v>
+      </c>
       <c r="D570"/>
-      <c r="E570"/>
-    </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E570">
+        <v>1</v>
+      </c>
+      <c r="F570" t="s">
+        <v>14</v>
+      </c>
+      <c r="G570" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A571" s="17"/>
-      <c r="B571"/>
-      <c r="C571" s="11"/>
+      <c r="B571" t="s">
+        <v>634</v>
+      </c>
+      <c r="C571">
+        <v>32800</v>
+      </c>
       <c r="D571"/>
-      <c r="E571"/>
-    </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E571">
+        <v>1</v>
+      </c>
+      <c r="F571" t="s">
+        <v>14</v>
+      </c>
+      <c r="G571" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="572" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A572" s="17"/>
-      <c r="B572"/>
-      <c r="C572" s="11"/>
+      <c r="B572" t="s">
+        <v>635</v>
+      </c>
+      <c r="C572">
+        <v>8800</v>
+      </c>
       <c r="D572"/>
-      <c r="E572"/>
-    </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E572">
+        <v>1</v>
+      </c>
+      <c r="F572" t="s">
+        <v>14</v>
+      </c>
+      <c r="G572" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="573" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A573" s="17"/>
-      <c r="B573"/>
-      <c r="C573" s="11"/>
+      <c r="B573" t="s">
+        <v>636</v>
+      </c>
+      <c r="C573">
+        <v>39800</v>
+      </c>
       <c r="D573"/>
-      <c r="E573"/>
-    </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E573">
+        <v>1</v>
+      </c>
+      <c r="F573" t="s">
+        <v>14</v>
+      </c>
+      <c r="G573" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="574" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A574" s="17"/>
-      <c r="B574"/>
-      <c r="C574" s="11"/>
+      <c r="B574" t="s">
+        <v>637</v>
+      </c>
+      <c r="C574">
+        <v>25800</v>
+      </c>
       <c r="D574"/>
-      <c r="E574"/>
-    </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E574">
+        <v>1</v>
+      </c>
+      <c r="F574" t="s">
+        <v>14</v>
+      </c>
+      <c r="G574" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="575" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A575" s="17"/>
-      <c r="B575"/>
-      <c r="C575" s="11"/>
+      <c r="B575" t="s">
+        <v>638</v>
+      </c>
+      <c r="C575">
+        <v>25800</v>
+      </c>
       <c r="D575"/>
-      <c r="E575"/>
-    </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E575">
+        <v>1</v>
+      </c>
+      <c r="F575" t="s">
+        <v>14</v>
+      </c>
+      <c r="G575" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="576" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A576" s="17"/>
-      <c r="B576"/>
-      <c r="C576" s="11"/>
+      <c r="B576" t="s">
+        <v>639</v>
+      </c>
+      <c r="C576">
+        <v>19800</v>
+      </c>
       <c r="D576"/>
-      <c r="E576"/>
-    </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E576">
+        <v>1</v>
+      </c>
+      <c r="F576" t="s">
+        <v>14</v>
+      </c>
+      <c r="G576" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="577" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A577" s="17"/>
-      <c r="B577"/>
-      <c r="C577" s="11"/>
+      <c r="B577" t="s">
+        <v>640</v>
+      </c>
+      <c r="C577">
+        <v>25800</v>
+      </c>
       <c r="D577"/>
-      <c r="E577"/>
-    </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E577">
+        <v>1</v>
+      </c>
+      <c r="F577" t="s">
+        <v>14</v>
+      </c>
+      <c r="G577" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="578" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A578" s="17"/>
-      <c r="B578"/>
-      <c r="C578" s="11"/>
+      <c r="B578" t="s">
+        <v>641</v>
+      </c>
+      <c r="C578">
+        <v>39800</v>
+      </c>
       <c r="D578"/>
-      <c r="E578"/>
-    </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E578">
+        <v>1</v>
+      </c>
+      <c r="F578" t="s">
+        <v>14</v>
+      </c>
+      <c r="G578" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="579" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A579" s="17"/>
-      <c r="B579"/>
-      <c r="C579" s="11"/>
+      <c r="B579" t="s">
+        <v>642</v>
+      </c>
+      <c r="C579">
+        <v>25800</v>
+      </c>
       <c r="D579"/>
-      <c r="E579"/>
-    </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E579">
+        <v>1</v>
+      </c>
+      <c r="F579" t="s">
+        <v>14</v>
+      </c>
+      <c r="G579" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="580" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A580" s="17"/>
-      <c r="B580"/>
-      <c r="C580" s="11"/>
+      <c r="B580" t="s">
+        <v>643</v>
+      </c>
+      <c r="C580">
+        <v>25800</v>
+      </c>
       <c r="D580"/>
-      <c r="E580"/>
-    </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E580">
+        <v>1</v>
+      </c>
+      <c r="F580" t="s">
+        <v>14</v>
+      </c>
+      <c r="G580" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="581" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A581" s="17"/>
-      <c r="B581"/>
-      <c r="C581" s="11"/>
+      <c r="B581" t="s">
+        <v>644</v>
+      </c>
+      <c r="C581">
+        <v>33800</v>
+      </c>
       <c r="D581"/>
-      <c r="E581"/>
-    </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E581">
+        <v>1</v>
+      </c>
+      <c r="F581" t="s">
+        <v>14</v>
+      </c>
+      <c r="G581" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="582" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A582" s="17"/>
-      <c r="B582"/>
-      <c r="C582" s="11"/>
+      <c r="B582" t="s">
+        <v>645</v>
+      </c>
+      <c r="C582">
+        <v>28800</v>
+      </c>
       <c r="D582"/>
-      <c r="E582"/>
-    </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E582">
+        <v>1</v>
+      </c>
+      <c r="F582" t="s">
+        <v>14</v>
+      </c>
+      <c r="G582" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="583" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A583" s="17"/>
-      <c r="B583"/>
-      <c r="C583" s="11"/>
+      <c r="B583" t="s">
+        <v>646</v>
+      </c>
+      <c r="C583">
+        <v>29800</v>
+      </c>
       <c r="D583"/>
-      <c r="E583"/>
-    </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E583">
+        <v>1</v>
+      </c>
+      <c r="F583" t="s">
+        <v>14</v>
+      </c>
+      <c r="G583" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="584" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A584" s="17"/>
-      <c r="B584"/>
-      <c r="C584" s="11"/>
+      <c r="B584" t="s">
+        <v>647</v>
+      </c>
+      <c r="C584">
+        <v>29800</v>
+      </c>
       <c r="D584"/>
-      <c r="E584"/>
-    </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E584">
+        <v>1</v>
+      </c>
+      <c r="F584" t="s">
+        <v>14</v>
+      </c>
+      <c r="G584" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="585" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A585" s="17"/>
-      <c r="B585"/>
-      <c r="C585" s="11"/>
+      <c r="B585" t="s">
+        <v>648</v>
+      </c>
+      <c r="C585">
+        <v>43800</v>
+      </c>
       <c r="D585"/>
-      <c r="E585"/>
-    </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E585">
+        <v>1</v>
+      </c>
+      <c r="F585" t="s">
+        <v>14</v>
+      </c>
+      <c r="G585" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="586" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A586" s="17"/>
-      <c r="B586"/>
-      <c r="C586" s="11"/>
+      <c r="B586" t="s">
+        <v>649</v>
+      </c>
+      <c r="C586">
+        <v>29800</v>
+      </c>
       <c r="D586"/>
-      <c r="E586"/>
-    </row>
-    <row r="587" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E586">
+        <v>1</v>
+      </c>
+      <c r="F586" t="s">
+        <v>14</v>
+      </c>
+      <c r="G586" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="587" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A587" s="17"/>
-      <c r="B587"/>
-      <c r="C587" s="11"/>
+      <c r="B587" t="s">
+        <v>650</v>
+      </c>
+      <c r="C587">
+        <v>32800</v>
+      </c>
       <c r="D587"/>
-      <c r="E587"/>
-    </row>
-    <row r="588" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E587">
+        <v>1</v>
+      </c>
+      <c r="F587" t="s">
+        <v>14</v>
+      </c>
+      <c r="G587" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="588" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A588" s="17"/>
-      <c r="B588"/>
-      <c r="C588" s="11"/>
+      <c r="B588" t="s">
+        <v>651</v>
+      </c>
+      <c r="C588">
+        <v>42800</v>
+      </c>
       <c r="D588"/>
-      <c r="E588"/>
-    </row>
-    <row r="589" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E588">
+        <v>1</v>
+      </c>
+      <c r="F588" t="s">
+        <v>14</v>
+      </c>
+      <c r="G588" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="589" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A589" s="17"/>
-      <c r="B589"/>
-      <c r="C589" s="11"/>
+      <c r="B589" t="s">
+        <v>652</v>
+      </c>
+      <c r="C589">
+        <v>43800</v>
+      </c>
       <c r="D589"/>
-      <c r="E589"/>
-    </row>
-    <row r="590" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E589">
+        <v>1</v>
+      </c>
+      <c r="F589" t="s">
+        <v>14</v>
+      </c>
+      <c r="G589" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="590" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A590" s="17"/>
-      <c r="B590"/>
-      <c r="C590" s="11"/>
+      <c r="B590" t="s">
+        <v>653</v>
+      </c>
+      <c r="C590">
+        <v>39800</v>
+      </c>
       <c r="D590"/>
-      <c r="E590"/>
-    </row>
-    <row r="591" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E590">
+        <v>1</v>
+      </c>
+      <c r="F590" t="s">
+        <v>14</v>
+      </c>
+      <c r="G590" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="591" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A591" s="17"/>
-      <c r="B591"/>
-      <c r="C591" s="11"/>
+      <c r="B591" t="s">
+        <v>654</v>
+      </c>
+      <c r="C591">
+        <v>29800</v>
+      </c>
       <c r="D591"/>
-      <c r="E591"/>
-    </row>
-    <row r="592" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E591">
+        <v>1</v>
+      </c>
+      <c r="F591" t="s">
+        <v>14</v>
+      </c>
+      <c r="G591" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="592" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A592" s="17"/>
-      <c r="B592"/>
-      <c r="C592" s="11"/>
+      <c r="B592" t="s">
+        <v>655</v>
+      </c>
+      <c r="C592">
+        <v>26800</v>
+      </c>
       <c r="D592"/>
-      <c r="E592"/>
-    </row>
-    <row r="593" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E592">
+        <v>1</v>
+      </c>
+      <c r="F592" t="s">
+        <v>14</v>
+      </c>
+      <c r="G592" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="593" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A593" s="17"/>
-      <c r="B593"/>
-      <c r="C593" s="11"/>
+      <c r="B593" t="s">
+        <v>656</v>
+      </c>
+      <c r="C593">
+        <v>44800</v>
+      </c>
       <c r="D593"/>
-      <c r="E593"/>
-    </row>
-    <row r="594" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E593">
+        <v>1</v>
+      </c>
+      <c r="F593" t="s">
+        <v>14</v>
+      </c>
+      <c r="G593" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="594" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A594" s="17"/>
-      <c r="B594"/>
-      <c r="C594" s="11"/>
+      <c r="B594" t="s">
+        <v>657</v>
+      </c>
+      <c r="C594">
+        <v>23800</v>
+      </c>
       <c r="D594"/>
-      <c r="E594"/>
-    </row>
-    <row r="595" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E594">
+        <v>1</v>
+      </c>
+      <c r="F594" t="s">
+        <v>14</v>
+      </c>
+      <c r="G594" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="595" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A595" s="17"/>
-      <c r="B595"/>
-      <c r="C595" s="11"/>
+      <c r="B595" t="s">
+        <v>658</v>
+      </c>
+      <c r="C595">
+        <v>27800</v>
+      </c>
       <c r="D595"/>
-      <c r="E595"/>
-    </row>
-    <row r="596" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E595">
+        <v>1</v>
+      </c>
+      <c r="F595" t="s">
+        <v>14</v>
+      </c>
+      <c r="G595" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="596" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A596" s="17"/>
-      <c r="B596"/>
-      <c r="C596" s="11"/>
+      <c r="B596" t="s">
+        <v>659</v>
+      </c>
+      <c r="C596">
+        <v>27800</v>
+      </c>
       <c r="D596"/>
-      <c r="E596"/>
-    </row>
-    <row r="597" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E596">
+        <v>1</v>
+      </c>
+      <c r="F596" t="s">
+        <v>14</v>
+      </c>
+      <c r="G596" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="597" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A597" s="17"/>
-      <c r="B597"/>
-      <c r="C597" s="11"/>
+      <c r="B597" t="s">
+        <v>660</v>
+      </c>
+      <c r="C597">
+        <v>33800</v>
+      </c>
       <c r="D597"/>
-      <c r="E597"/>
-    </row>
-    <row r="598" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E597">
+        <v>1</v>
+      </c>
+      <c r="F597" t="s">
+        <v>14</v>
+      </c>
+      <c r="G597" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="598" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A598" s="17"/>
-      <c r="B598"/>
-      <c r="C598" s="11"/>
+      <c r="B598" t="s">
+        <v>661</v>
+      </c>
+      <c r="C598">
+        <v>34800</v>
+      </c>
       <c r="D598"/>
-      <c r="E598"/>
-    </row>
-    <row r="599" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E598">
+        <v>1</v>
+      </c>
+      <c r="F598" t="s">
+        <v>14</v>
+      </c>
+      <c r="G598" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="599" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A599" s="17"/>
-      <c r="B599"/>
-      <c r="C599" s="11"/>
+      <c r="B599" t="s">
+        <v>662</v>
+      </c>
+      <c r="C599">
+        <v>29800</v>
+      </c>
       <c r="D599"/>
-      <c r="E599"/>
-    </row>
-    <row r="600" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E599">
+        <v>1</v>
+      </c>
+      <c r="F599" t="s">
+        <v>14</v>
+      </c>
+      <c r="G599" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="600" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A600" s="17"/>
-      <c r="B600"/>
-      <c r="C600" s="11"/>
+      <c r="B600" t="s">
+        <v>663</v>
+      </c>
+      <c r="C600">
+        <v>41800</v>
+      </c>
       <c r="D600"/>
-      <c r="E600"/>
-    </row>
-    <row r="601" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E600">
+        <v>1</v>
+      </c>
+      <c r="F600" t="s">
+        <v>14</v>
+      </c>
+      <c r="G600" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="601" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A601" s="17"/>
-      <c r="B601"/>
-      <c r="C601" s="11"/>
+      <c r="B601" t="s">
+        <v>664</v>
+      </c>
+      <c r="C601">
+        <v>36800</v>
+      </c>
       <c r="D601"/>
-      <c r="E601"/>
-    </row>
-    <row r="602" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E601">
+        <v>1</v>
+      </c>
+      <c r="F601" t="s">
+        <v>14</v>
+      </c>
+      <c r="G601" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="602" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A602" s="17"/>
-      <c r="B602"/>
-      <c r="C602" s="11"/>
+      <c r="B602" t="s">
+        <v>665</v>
+      </c>
+      <c r="C602">
+        <v>30800</v>
+      </c>
       <c r="D602"/>
-      <c r="E602"/>
-    </row>
-    <row r="603" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E602">
+        <v>1</v>
+      </c>
+      <c r="F602" t="s">
+        <v>14</v>
+      </c>
+      <c r="G602" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="603" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A603" s="17"/>
-      <c r="B603"/>
-      <c r="C603" s="11"/>
+      <c r="B603" t="s">
+        <v>666</v>
+      </c>
+      <c r="C603">
+        <v>27800</v>
+      </c>
       <c r="D603"/>
-      <c r="E603"/>
-    </row>
-    <row r="604" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E603">
+        <v>1</v>
+      </c>
+      <c r="F603" t="s">
+        <v>14</v>
+      </c>
+      <c r="G603" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="604" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A604" s="17"/>
-      <c r="B604"/>
-      <c r="C604" s="11"/>
+      <c r="B604" t="s">
+        <v>667</v>
+      </c>
+      <c r="C604">
+        <v>30800</v>
+      </c>
       <c r="D604"/>
-      <c r="E604"/>
-    </row>
-    <row r="605" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E604">
+        <v>1</v>
+      </c>
+      <c r="F604" t="s">
+        <v>14</v>
+      </c>
+      <c r="G604" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="605" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A605" s="17"/>
-      <c r="B605"/>
-      <c r="C605" s="11"/>
+      <c r="B605" t="s">
+        <v>668</v>
+      </c>
+      <c r="C605">
+        <v>35800</v>
+      </c>
       <c r="D605"/>
-      <c r="E605"/>
-    </row>
-    <row r="606" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E605">
+        <v>1</v>
+      </c>
+      <c r="F605" t="s">
+        <v>14</v>
+      </c>
+      <c r="G605" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="606" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A606" s="17"/>
-      <c r="B606"/>
-      <c r="C606" s="11"/>
+      <c r="B606" t="s">
+        <v>669</v>
+      </c>
+      <c r="C606">
+        <v>33800</v>
+      </c>
       <c r="D606"/>
-      <c r="E606"/>
-    </row>
-    <row r="607" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E606">
+        <v>1</v>
+      </c>
+      <c r="F606" t="s">
+        <v>14</v>
+      </c>
+      <c r="G606" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="607" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A607" s="17"/>
-      <c r="B607"/>
-      <c r="C607" s="11"/>
+      <c r="B607" t="s">
+        <v>670</v>
+      </c>
+      <c r="C607">
+        <v>33800</v>
+      </c>
       <c r="D607"/>
-      <c r="E607"/>
-    </row>
-    <row r="608" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E607">
+        <v>1</v>
+      </c>
+      <c r="F607" t="s">
+        <v>14</v>
+      </c>
+      <c r="G607" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="608" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A608" s="17"/>
-      <c r="B608"/>
-      <c r="C608" s="11"/>
+      <c r="B608" t="s">
+        <v>671</v>
+      </c>
+      <c r="C608">
+        <v>21800</v>
+      </c>
       <c r="D608"/>
-      <c r="E608"/>
-    </row>
-    <row r="609" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E608">
+        <v>1</v>
+      </c>
+      <c r="F608" t="s">
+        <v>14</v>
+      </c>
+      <c r="G608" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="609" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A609" s="17"/>
-      <c r="B609"/>
-      <c r="C609" s="11"/>
+      <c r="B609" t="s">
+        <v>672</v>
+      </c>
+      <c r="C609">
+        <v>18800</v>
+      </c>
       <c r="D609"/>
-      <c r="E609"/>
-    </row>
-    <row r="610" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E609">
+        <v>1</v>
+      </c>
+      <c r="F609" t="s">
+        <v>14</v>
+      </c>
+      <c r="G609" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="610" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A610" s="17"/>
-      <c r="B610"/>
-      <c r="C610" s="11"/>
+      <c r="B610" t="s">
+        <v>630</v>
+      </c>
+      <c r="C610">
+        <v>28800</v>
+      </c>
       <c r="D610"/>
-      <c r="E610"/>
-    </row>
-    <row r="611" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E610">
+        <v>1</v>
+      </c>
+      <c r="F610" t="s">
+        <v>14</v>
+      </c>
+      <c r="G610" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="611" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A611" s="17"/>
-      <c r="B611"/>
-      <c r="C611" s="11"/>
+      <c r="B611" t="s">
+        <v>673</v>
+      </c>
+      <c r="C611">
+        <v>23800</v>
+      </c>
       <c r="D611"/>
-      <c r="E611"/>
-    </row>
-    <row r="612" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E611">
+        <v>1</v>
+      </c>
+      <c r="F611" t="s">
+        <v>14</v>
+      </c>
+      <c r="G611" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="612" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A612" s="17"/>
-      <c r="B612"/>
-      <c r="C612" s="11"/>
+      <c r="B612" t="s">
+        <v>674</v>
+      </c>
+      <c r="C612">
+        <v>23800</v>
+      </c>
       <c r="D612"/>
-      <c r="E612"/>
-    </row>
-    <row r="613" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E612">
+        <v>1</v>
+      </c>
+      <c r="F612" t="s">
+        <v>14</v>
+      </c>
+      <c r="G612" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="613" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A613" s="17"/>
-      <c r="B613"/>
-      <c r="C613" s="11"/>
+      <c r="B613" t="s">
+        <v>675</v>
+      </c>
+      <c r="C613">
+        <v>26800</v>
+      </c>
       <c r="D613"/>
-      <c r="E613"/>
-    </row>
-    <row r="614" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E613">
+        <v>1</v>
+      </c>
+      <c r="F613" t="s">
+        <v>14</v>
+      </c>
+      <c r="G613" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="614" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A614" s="17"/>
-      <c r="B614"/>
-      <c r="C614" s="11"/>
+      <c r="B614" t="s">
+        <v>676</v>
+      </c>
+      <c r="C614">
+        <v>25800</v>
+      </c>
       <c r="D614"/>
-      <c r="E614"/>
-    </row>
-    <row r="615" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E614">
+        <v>1</v>
+      </c>
+      <c r="F614" t="s">
+        <v>14</v>
+      </c>
+      <c r="G614" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="615" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A615" s="17"/>
-      <c r="B615"/>
-      <c r="C615" s="11"/>
+      <c r="B615" t="s">
+        <v>677</v>
+      </c>
+      <c r="C615">
+        <v>16800</v>
+      </c>
       <c r="D615"/>
-      <c r="E615"/>
-    </row>
-    <row r="616" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E615">
+        <v>1</v>
+      </c>
+      <c r="F615" t="s">
+        <v>14</v>
+      </c>
+      <c r="G615" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="616" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A616" s="17"/>
-      <c r="B616"/>
-      <c r="C616" s="11"/>
+      <c r="B616" t="s">
+        <v>678</v>
+      </c>
+      <c r="C616">
+        <v>25800</v>
+      </c>
       <c r="D616"/>
-      <c r="E616"/>
-    </row>
-    <row r="617" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E616">
+        <v>1</v>
+      </c>
+      <c r="F616" t="s">
+        <v>14</v>
+      </c>
+      <c r="G616" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="617" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A617" s="17"/>
-      <c r="B617"/>
-      <c r="C617" s="11"/>
+      <c r="B617" t="s">
+        <v>679</v>
+      </c>
+      <c r="C617">
+        <v>16800</v>
+      </c>
       <c r="D617"/>
-      <c r="E617"/>
-    </row>
-    <row r="618" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E617">
+        <v>1</v>
+      </c>
+      <c r="F617" t="s">
+        <v>14</v>
+      </c>
+      <c r="G617" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="618" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A618" s="17"/>
-      <c r="B618"/>
-      <c r="C618" s="11"/>
+      <c r="B618" t="s">
+        <v>680</v>
+      </c>
+      <c r="C618">
+        <v>53800</v>
+      </c>
       <c r="D618"/>
-      <c r="E618"/>
-    </row>
-    <row r="619" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E618">
+        <v>1</v>
+      </c>
+      <c r="F618" t="s">
+        <v>14</v>
+      </c>
+      <c r="G618" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="619" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A619" s="17"/>
-      <c r="B619"/>
-      <c r="C619" s="11"/>
+      <c r="B619" t="s">
+        <v>681</v>
+      </c>
+      <c r="C619">
+        <v>53800</v>
+      </c>
       <c r="D619"/>
-      <c r="E619"/>
-    </row>
-    <row r="620" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E619">
+        <v>1</v>
+      </c>
+      <c r="F619" t="s">
+        <v>14</v>
+      </c>
+      <c r="G619" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="620" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A620" s="17"/>
-      <c r="B620"/>
-      <c r="C620" s="11"/>
+      <c r="B620" t="s">
+        <v>682</v>
+      </c>
+      <c r="C620">
+        <v>21800</v>
+      </c>
       <c r="D620"/>
-      <c r="E620"/>
-    </row>
-    <row r="621" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E620">
+        <v>1</v>
+      </c>
+      <c r="F620" t="s">
+        <v>14</v>
+      </c>
+      <c r="G620" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="621" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A621" s="17"/>
-      <c r="B621"/>
-      <c r="C621" s="11"/>
+      <c r="B621" t="s">
+        <v>683</v>
+      </c>
+      <c r="C621">
+        <v>22800</v>
+      </c>
       <c r="D621"/>
-      <c r="E621"/>
-    </row>
-    <row r="622" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E621">
+        <v>1</v>
+      </c>
+      <c r="F621" t="s">
+        <v>14</v>
+      </c>
+      <c r="G621" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="622" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A622" s="17"/>
-      <c r="B622"/>
-      <c r="C622" s="11"/>
+      <c r="B622" t="s">
+        <v>684</v>
+      </c>
+      <c r="C622">
+        <v>27800</v>
+      </c>
       <c r="D622"/>
-      <c r="E622"/>
-    </row>
-    <row r="623" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E622">
+        <v>1</v>
+      </c>
+      <c r="F622" t="s">
+        <v>14</v>
+      </c>
+      <c r="G622" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="623" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A623" s="17"/>
-      <c r="B623"/>
-      <c r="C623" s="11"/>
+      <c r="B623" t="s">
+        <v>685</v>
+      </c>
+      <c r="C623">
+        <v>29800</v>
+      </c>
       <c r="D623"/>
-      <c r="E623"/>
-    </row>
-    <row r="624" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E623">
+        <v>1</v>
+      </c>
+      <c r="F623" t="s">
+        <v>14</v>
+      </c>
+      <c r="G623" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="624" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A624" s="17"/>
-      <c r="B624"/>
-      <c r="C624" s="11"/>
+      <c r="B624" s="29" t="s">
+        <v>697</v>
+      </c>
+      <c r="C624">
+        <v>25800</v>
+      </c>
       <c r="D624"/>
-      <c r="E624"/>
-    </row>
-    <row r="625" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E624">
+        <v>1</v>
+      </c>
+      <c r="F624" t="s">
+        <v>14</v>
+      </c>
+      <c r="G624" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="625" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A625" s="17"/>
-      <c r="B625"/>
-      <c r="C625" s="11"/>
+      <c r="B625" s="29" t="s">
+        <v>698</v>
+      </c>
+      <c r="C625">
+        <v>25800</v>
+      </c>
       <c r="D625"/>
-      <c r="E625"/>
-    </row>
-    <row r="626" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E625">
+        <v>1</v>
+      </c>
+      <c r="F625" t="s">
+        <v>14</v>
+      </c>
+      <c r="G625" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="626" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A626" s="17"/>
-      <c r="B626"/>
-      <c r="C626" s="11"/>
+      <c r="B626" s="29" t="s">
+        <v>699</v>
+      </c>
+      <c r="C626">
+        <v>25800</v>
+      </c>
       <c r="D626"/>
-      <c r="E626"/>
-    </row>
-    <row r="627" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E626">
+        <v>1</v>
+      </c>
+      <c r="F626" t="s">
+        <v>14</v>
+      </c>
+      <c r="G626" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="627" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A627" s="17"/>
-      <c r="B627"/>
-      <c r="C627" s="11"/>
+      <c r="B627" s="29" t="s">
+        <v>700</v>
+      </c>
+      <c r="C627">
+        <v>25800</v>
+      </c>
       <c r="D627"/>
-      <c r="E627"/>
-    </row>
-    <row r="628" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E627">
+        <v>1</v>
+      </c>
+      <c r="F627" t="s">
+        <v>14</v>
+      </c>
+      <c r="G627" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="628" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A628" s="17"/>
-      <c r="B628"/>
-      <c r="C628" s="11"/>
+      <c r="B628" t="s">
+        <v>686</v>
+      </c>
+      <c r="C628">
+        <v>26800</v>
+      </c>
       <c r="D628"/>
-      <c r="E628"/>
-    </row>
-    <row r="629" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E628">
+        <v>1</v>
+      </c>
+      <c r="F628" t="s">
+        <v>61</v>
+      </c>
+      <c r="G628" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="629" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A629" s="17"/>
-      <c r="B629"/>
-      <c r="C629" s="11"/>
+      <c r="B629" t="s">
+        <v>687</v>
+      </c>
+      <c r="C629">
+        <v>26800</v>
+      </c>
       <c r="D629"/>
-      <c r="E629"/>
-    </row>
-    <row r="630" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E629">
+        <v>1</v>
+      </c>
+      <c r="F629" t="s">
+        <v>61</v>
+      </c>
+      <c r="G629" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="630" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A630" s="17"/>
-      <c r="B630"/>
-      <c r="C630" s="11"/>
+      <c r="B630" t="s">
+        <v>688</v>
+      </c>
+      <c r="C630">
+        <v>26800</v>
+      </c>
       <c r="D630"/>
-      <c r="E630"/>
-    </row>
-    <row r="631" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E630">
+        <v>1</v>
+      </c>
+      <c r="F630" t="s">
+        <v>61</v>
+      </c>
+      <c r="G630" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="631" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A631" s="17"/>
-      <c r="B631"/>
-      <c r="C631" s="11"/>
+      <c r="B631" t="s">
+        <v>689</v>
+      </c>
+      <c r="C631">
+        <v>31800</v>
+      </c>
       <c r="D631"/>
-      <c r="E631"/>
-    </row>
-    <row r="632" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E631">
+        <v>2</v>
+      </c>
+      <c r="F631" t="s">
+        <v>61</v>
+      </c>
+      <c r="G631" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="632" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A632" s="17"/>
-      <c r="B632"/>
-      <c r="C632" s="11"/>
+      <c r="B632" t="s">
+        <v>690</v>
+      </c>
+      <c r="C632">
+        <v>26800</v>
+      </c>
       <c r="D632"/>
-      <c r="E632"/>
-    </row>
-    <row r="633" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E632">
+        <v>1</v>
+      </c>
+      <c r="F632" t="s">
+        <v>61</v>
+      </c>
+      <c r="G632" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="633" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A633" s="17"/>
-      <c r="B633"/>
-      <c r="C633" s="11"/>
+      <c r="B633" t="s">
+        <v>691</v>
+      </c>
+      <c r="C633">
+        <v>8800</v>
+      </c>
       <c r="D633"/>
-      <c r="E633"/>
-    </row>
-    <row r="634" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E633">
+        <v>1</v>
+      </c>
+      <c r="F633" t="s">
+        <v>61</v>
+      </c>
+      <c r="G633" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="634" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A634" s="17"/>
-      <c r="B634"/>
-      <c r="C634" s="11"/>
+      <c r="B634" t="s">
+        <v>595</v>
+      </c>
+      <c r="C634">
+        <v>13800</v>
+      </c>
       <c r="D634"/>
-      <c r="E634"/>
-    </row>
-    <row r="635" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E634">
+        <v>1</v>
+      </c>
+      <c r="F634" t="s">
+        <v>61</v>
+      </c>
+      <c r="G634" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="635" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A635" s="17"/>
-      <c r="B635"/>
-      <c r="C635" s="11"/>
+      <c r="B635" t="s">
+        <v>692</v>
+      </c>
+      <c r="C635">
+        <v>13800</v>
+      </c>
       <c r="D635"/>
-      <c r="E635"/>
-    </row>
-    <row r="636" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E635">
+        <v>1</v>
+      </c>
+      <c r="F635" t="s">
+        <v>61</v>
+      </c>
+      <c r="G635" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="636" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A636" s="17"/>
-      <c r="B636"/>
-      <c r="C636" s="11"/>
+      <c r="B636" t="s">
+        <v>693</v>
+      </c>
+      <c r="C636">
+        <v>13800</v>
+      </c>
       <c r="D636"/>
-      <c r="E636"/>
-    </row>
-    <row r="637" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E636">
+        <v>1</v>
+      </c>
+      <c r="F636" t="s">
+        <v>61</v>
+      </c>
+      <c r="G636" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="637" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A637" s="17"/>
-      <c r="B637"/>
-      <c r="C637" s="11"/>
+      <c r="B637" t="s">
+        <v>694</v>
+      </c>
+      <c r="C637">
+        <v>14800</v>
+      </c>
       <c r="D637"/>
-      <c r="E637"/>
-    </row>
-    <row r="638" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E637">
+        <v>1</v>
+      </c>
+      <c r="F637" t="s">
+        <v>61</v>
+      </c>
+      <c r="G637" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="638" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A638" s="17"/>
-      <c r="B638"/>
-      <c r="C638" s="11"/>
+      <c r="B638" t="s">
+        <v>331</v>
+      </c>
+      <c r="C638">
+        <v>11800</v>
+      </c>
       <c r="D638"/>
-      <c r="E638"/>
-    </row>
-    <row r="639" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E638">
+        <v>1</v>
+      </c>
+      <c r="F638" t="s">
+        <v>61</v>
+      </c>
+      <c r="G638" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="639" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A639" s="17"/>
-      <c r="B639"/>
-      <c r="C639" s="11"/>
+      <c r="B639" t="s">
+        <v>695</v>
+      </c>
+      <c r="C639">
+        <v>11800</v>
+      </c>
       <c r="D639"/>
-      <c r="E639"/>
-    </row>
-    <row r="640" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E639">
+        <v>1</v>
+      </c>
+      <c r="F639" t="s">
+        <v>61</v>
+      </c>
+      <c r="G639" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="640" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A640" s="17"/>
-      <c r="B640"/>
-      <c r="C640" s="11"/>
+      <c r="B640" t="s">
+        <v>349</v>
+      </c>
+      <c r="C640">
+        <v>7800</v>
+      </c>
       <c r="D640"/>
-      <c r="E640"/>
-    </row>
-    <row r="641" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E640">
+        <v>1</v>
+      </c>
+      <c r="F640" t="s">
+        <v>61</v>
+      </c>
+      <c r="G640" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="641" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A641" s="17"/>
-      <c r="B641"/>
-      <c r="C641" s="11"/>
+      <c r="B641" t="s">
+        <v>696</v>
+      </c>
+      <c r="C641">
+        <v>8800</v>
+      </c>
       <c r="D641"/>
-      <c r="E641"/>
-    </row>
-    <row r="642" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A642" s="17"/>
-      <c r="B642"/>
-      <c r="C642" s="11"/>
+      <c r="E641">
+        <v>1</v>
+      </c>
+      <c r="F641" t="s">
+        <v>61</v>
+      </c>
+      <c r="G641" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="642" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A642" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B642" t="s">
+        <v>69</v>
+      </c>
+      <c r="C642">
+        <v>9500</v>
+      </c>
       <c r="D642"/>
-      <c r="E642"/>
-    </row>
-    <row r="643" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E642">
+        <v>1</v>
+      </c>
+      <c r="F642" t="s">
+        <v>14</v>
+      </c>
+      <c r="G642" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="643" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A643" s="17"/>
-      <c r="B643"/>
-      <c r="C643" s="11"/>
+      <c r="B643" t="s">
+        <v>701</v>
+      </c>
+      <c r="C643">
+        <v>9500</v>
+      </c>
       <c r="D643"/>
-      <c r="E643"/>
-    </row>
-    <row r="644" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E643">
+        <v>1</v>
+      </c>
+      <c r="F643" t="s">
+        <v>14</v>
+      </c>
+      <c r="G643" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="644" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A644" s="17"/>
-      <c r="B644"/>
-      <c r="C644" s="11"/>
+      <c r="B644" t="s">
+        <v>597</v>
+      </c>
+      <c r="C644">
+        <v>6000</v>
+      </c>
       <c r="D644"/>
-      <c r="E644"/>
-    </row>
-    <row r="645" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E644">
+        <v>1</v>
+      </c>
+      <c r="F644" t="s">
+        <v>61</v>
+      </c>
+      <c r="G644" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="645" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A645" s="17"/>
-      <c r="B645"/>
-      <c r="C645" s="11"/>
+      <c r="B645" t="s">
+        <v>702</v>
+      </c>
+      <c r="C645">
+        <v>5000</v>
+      </c>
       <c r="D645"/>
-      <c r="E645"/>
-    </row>
-    <row r="646" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E645">
+        <v>1</v>
+      </c>
+      <c r="F645" t="s">
+        <v>61</v>
+      </c>
+      <c r="G645" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="646" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A646" s="17"/>
-      <c r="B646"/>
-      <c r="C646" s="11"/>
+      <c r="B646" t="s">
+        <v>703</v>
+      </c>
+      <c r="C646">
+        <v>8000</v>
+      </c>
       <c r="D646"/>
-      <c r="E646"/>
-    </row>
-    <row r="647" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E646">
+        <v>1</v>
+      </c>
+      <c r="F646" t="s">
+        <v>61</v>
+      </c>
+      <c r="G646" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="647" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A647" s="17"/>
-      <c r="B647"/>
-      <c r="C647" s="11"/>
+      <c r="B647" t="s">
+        <v>704</v>
+      </c>
+      <c r="C647">
+        <v>8000</v>
+      </c>
       <c r="D647"/>
-      <c r="E647"/>
-    </row>
-    <row r="648" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E647">
+        <v>1</v>
+      </c>
+      <c r="F647" t="s">
+        <v>61</v>
+      </c>
+      <c r="G647" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="648" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A648" s="17"/>
-      <c r="B648"/>
-      <c r="C648" s="11"/>
+      <c r="B648" t="s">
+        <v>705</v>
+      </c>
+      <c r="C648">
+        <v>9000</v>
+      </c>
       <c r="D648"/>
-      <c r="E648"/>
-    </row>
-    <row r="649" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A649" s="17"/>
-      <c r="B649"/>
-      <c r="C649" s="11"/>
+      <c r="E648">
+        <v>1</v>
+      </c>
+      <c r="F648" t="s">
+        <v>61</v>
+      </c>
+      <c r="G648" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="649" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A649" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B649" t="s">
+        <v>706</v>
+      </c>
+      <c r="C649">
+        <v>31818</v>
+      </c>
       <c r="D649"/>
-      <c r="E649"/>
-    </row>
-    <row r="650" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E649">
+        <v>1</v>
+      </c>
+      <c r="F649" t="s">
+        <v>14</v>
+      </c>
+      <c r="G649" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="650" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A650" s="17"/>
-      <c r="B650"/>
-      <c r="C650" s="11"/>
+      <c r="B650" t="s">
+        <v>707</v>
+      </c>
+      <c r="C650">
+        <v>39090</v>
+      </c>
       <c r="D650"/>
-      <c r="E650"/>
-    </row>
-    <row r="651" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E650">
+        <v>1</v>
+      </c>
+      <c r="F650" t="s">
+        <v>14</v>
+      </c>
+      <c r="G650" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="651" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A651" s="17"/>
-      <c r="B651"/>
-      <c r="C651" s="11"/>
+      <c r="B651" t="s">
+        <v>708</v>
+      </c>
+      <c r="C651">
+        <v>31818</v>
+      </c>
       <c r="D651"/>
-      <c r="E651"/>
-    </row>
-    <row r="652" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E651">
+        <v>1</v>
+      </c>
+      <c r="F651" t="s">
+        <v>14</v>
+      </c>
+      <c r="G651" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="652" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A652" s="17"/>
-      <c r="B652"/>
-      <c r="C652" s="11"/>
+      <c r="B652" t="s">
+        <v>709</v>
+      </c>
+      <c r="C652">
+        <v>39090</v>
+      </c>
       <c r="D652"/>
-      <c r="E652"/>
-    </row>
-    <row r="653" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E652">
+        <v>1</v>
+      </c>
+      <c r="F652" t="s">
+        <v>14</v>
+      </c>
+      <c r="G652" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="653" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A653" s="17"/>
-      <c r="B653"/>
-      <c r="C653" s="11"/>
+      <c r="B653" t="s">
+        <v>710</v>
+      </c>
+      <c r="C653">
+        <v>35454</v>
+      </c>
       <c r="D653"/>
-      <c r="E653"/>
-    </row>
-    <row r="654" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E653">
+        <v>1</v>
+      </c>
+      <c r="F653" t="s">
+        <v>14</v>
+      </c>
+      <c r="G653" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="654" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A654" s="17"/>
-      <c r="B654"/>
-      <c r="C654" s="11"/>
+      <c r="B654" t="s">
+        <v>711</v>
+      </c>
+      <c r="C654">
+        <v>42727</v>
+      </c>
       <c r="D654"/>
-      <c r="E654"/>
-    </row>
-    <row r="655" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E654">
+        <v>1</v>
+      </c>
+      <c r="F654" t="s">
+        <v>14</v>
+      </c>
+      <c r="G654" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="655" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A655" s="17"/>
-      <c r="B655"/>
-      <c r="C655" s="11"/>
+      <c r="B655" t="s">
+        <v>712</v>
+      </c>
+      <c r="C655">
+        <v>35454</v>
+      </c>
       <c r="D655"/>
-      <c r="E655"/>
-    </row>
-    <row r="656" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E655">
+        <v>1</v>
+      </c>
+      <c r="F655" t="s">
+        <v>14</v>
+      </c>
+      <c r="G655" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="656" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A656" s="17"/>
-      <c r="B656"/>
-      <c r="C656" s="11"/>
+      <c r="B656" t="s">
+        <v>713</v>
+      </c>
+      <c r="C656">
+        <v>42727</v>
+      </c>
       <c r="D656"/>
-      <c r="E656"/>
-    </row>
-    <row r="657" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E656">
+        <v>1</v>
+      </c>
+      <c r="F656" t="s">
+        <v>14</v>
+      </c>
+      <c r="G656" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="657" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A657" s="17"/>
-      <c r="B657"/>
-      <c r="C657" s="11"/>
+      <c r="B657" t="s">
+        <v>714</v>
+      </c>
+      <c r="C657">
+        <v>35454</v>
+      </c>
       <c r="D657"/>
-      <c r="E657"/>
-    </row>
-    <row r="658" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E657">
+        <v>1</v>
+      </c>
+      <c r="F657" t="s">
+        <v>14</v>
+      </c>
+      <c r="G657" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="658" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A658" s="17"/>
-      <c r="B658"/>
-      <c r="C658" s="11"/>
+      <c r="B658" t="s">
+        <v>715</v>
+      </c>
+      <c r="C658">
+        <v>42727</v>
+      </c>
       <c r="D658"/>
-      <c r="E658"/>
-    </row>
-    <row r="659" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E658">
+        <v>1</v>
+      </c>
+      <c r="F658" t="s">
+        <v>14</v>
+      </c>
+      <c r="G658" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="659" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A659" s="17"/>
-      <c r="B659"/>
-      <c r="C659" s="11"/>
+      <c r="B659" t="s">
+        <v>716</v>
+      </c>
+      <c r="C659">
+        <v>35454</v>
+      </c>
       <c r="D659"/>
-      <c r="E659"/>
-    </row>
-    <row r="660" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E659">
+        <v>1</v>
+      </c>
+      <c r="F659" t="s">
+        <v>14</v>
+      </c>
+      <c r="G659" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="660" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A660" s="17"/>
-      <c r="B660"/>
-      <c r="C660" s="11"/>
+      <c r="B660" t="s">
+        <v>717</v>
+      </c>
+      <c r="C660">
+        <v>42727</v>
+      </c>
       <c r="D660"/>
-      <c r="E660"/>
-    </row>
-    <row r="661" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E660">
+        <v>1</v>
+      </c>
+      <c r="F660" t="s">
+        <v>14</v>
+      </c>
+      <c r="G660" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="661" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A661" s="17"/>
-      <c r="B661"/>
-      <c r="C661" s="11"/>
+      <c r="B661" t="s">
+        <v>718</v>
+      </c>
+      <c r="C661">
+        <v>35454</v>
+      </c>
       <c r="D661"/>
-      <c r="E661"/>
-    </row>
-    <row r="662" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E661">
+        <v>1</v>
+      </c>
+      <c r="F661" t="s">
+        <v>14</v>
+      </c>
+      <c r="G661" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="662" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A662" s="17"/>
-      <c r="B662"/>
-      <c r="C662" s="11"/>
+      <c r="B662" t="s">
+        <v>719</v>
+      </c>
+      <c r="C662">
+        <v>42727</v>
+      </c>
       <c r="D662"/>
-      <c r="E662"/>
-    </row>
-    <row r="663" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E662">
+        <v>1</v>
+      </c>
+      <c r="F662" t="s">
+        <v>14</v>
+      </c>
+      <c r="G662" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="663" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A663" s="17"/>
-      <c r="B663"/>
-      <c r="C663" s="11"/>
+      <c r="B663" s="33" t="s">
+        <v>720</v>
+      </c>
+      <c r="C663" s="31"/>
       <c r="D663"/>
-      <c r="E663"/>
-    </row>
-    <row r="664" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E663" s="31"/>
+      <c r="F663" s="31"/>
+    </row>
+    <row r="664" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A664" s="17"/>
-      <c r="B664"/>
-      <c r="C664" s="11"/>
+      <c r="B664" s="31" t="s">
+        <v>721</v>
+      </c>
+      <c r="C664" s="31">
+        <v>5454</v>
+      </c>
       <c r="D664"/>
-      <c r="E664"/>
-    </row>
-    <row r="665" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E664" s="31">
+        <v>1</v>
+      </c>
+      <c r="F664" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="G664" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="665" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A665" s="17"/>
-      <c r="B665"/>
-      <c r="C665" s="11"/>
+      <c r="B665" s="31" t="s">
+        <v>722</v>
+      </c>
+      <c r="C665" s="31">
+        <v>5454</v>
+      </c>
       <c r="D665"/>
-      <c r="E665"/>
-    </row>
-    <row r="666" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E665" s="31">
+        <v>1</v>
+      </c>
+      <c r="F665" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="G665" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="666" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A666" s="17"/>
-      <c r="B666"/>
-      <c r="C666" s="11"/>
+      <c r="B666" s="31" t="s">
+        <v>723</v>
+      </c>
+      <c r="C666" s="31">
+        <v>5454</v>
+      </c>
       <c r="D666"/>
-      <c r="E666"/>
-    </row>
-    <row r="667" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E666" s="31">
+        <v>1</v>
+      </c>
+      <c r="F666" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="G666" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="667" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A667" s="17"/>
-      <c r="B667"/>
-      <c r="C667" s="11"/>
+      <c r="B667" s="31" t="s">
+        <v>724</v>
+      </c>
+      <c r="C667" s="31">
+        <v>5454</v>
+      </c>
       <c r="D667"/>
-      <c r="E667"/>
-    </row>
-    <row r="668" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E667" s="31">
+        <v>1</v>
+      </c>
+      <c r="F667" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="G667" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="668" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A668" s="17"/>
-      <c r="B668"/>
-      <c r="C668" s="11"/>
+      <c r="B668" s="33" t="s">
+        <v>740</v>
+      </c>
+      <c r="C668" s="32">
+        <v>44545</v>
+      </c>
       <c r="D668"/>
-      <c r="E668"/>
-    </row>
-    <row r="669" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E668" s="32">
+        <v>1</v>
+      </c>
+      <c r="F668" t="s">
+        <v>14</v>
+      </c>
+      <c r="G668" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="669" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A669" s="17"/>
-      <c r="B669"/>
-      <c r="C669" s="11"/>
+      <c r="B669" s="33" t="s">
+        <v>741</v>
+      </c>
+      <c r="C669" s="32">
+        <v>44545</v>
+      </c>
       <c r="D669"/>
-      <c r="E669"/>
-    </row>
-    <row r="670" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E669" s="32">
+        <v>1</v>
+      </c>
+      <c r="F669" t="s">
+        <v>14</v>
+      </c>
+      <c r="G669" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="670" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A670" s="17"/>
-      <c r="B670"/>
-      <c r="C670" s="11"/>
+      <c r="B670" s="33" t="s">
+        <v>742</v>
+      </c>
+      <c r="C670" s="32">
+        <v>44545</v>
+      </c>
       <c r="D670"/>
-      <c r="E670"/>
-    </row>
-    <row r="671" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E670" s="32">
+        <v>1</v>
+      </c>
+      <c r="F670" t="s">
+        <v>14</v>
+      </c>
+      <c r="G670" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="671" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A671" s="17"/>
-      <c r="B671"/>
-      <c r="C671" s="11"/>
+      <c r="B671" s="33" t="s">
+        <v>743</v>
+      </c>
+      <c r="C671" s="32">
+        <v>44545</v>
+      </c>
       <c r="D671"/>
-      <c r="E671"/>
-    </row>
-    <row r="672" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E671" s="32">
+        <v>1</v>
+      </c>
+      <c r="F671" t="s">
+        <v>14</v>
+      </c>
+      <c r="G671" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="672" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A672" s="17"/>
-      <c r="B672"/>
-      <c r="C672" s="11"/>
+      <c r="B672" s="34" t="s">
+        <v>744</v>
+      </c>
+      <c r="C672" s="31">
+        <v>20909</v>
+      </c>
       <c r="D672"/>
-      <c r="E672"/>
-    </row>
-    <row r="673" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E672" s="32">
+        <v>1</v>
+      </c>
+      <c r="F672" t="s">
+        <v>14</v>
+      </c>
+      <c r="G672" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="673" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A673" s="17"/>
-      <c r="B673"/>
-      <c r="C673" s="11"/>
+      <c r="B673" s="32" t="s">
+        <v>725</v>
+      </c>
+      <c r="C673" s="31">
+        <v>31818</v>
+      </c>
       <c r="D673"/>
-      <c r="E673"/>
-    </row>
-    <row r="674" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E673" s="32">
+        <v>1</v>
+      </c>
+      <c r="F673" t="s">
+        <v>14</v>
+      </c>
+      <c r="G673" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="674" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A674" s="17"/>
-      <c r="B674"/>
-      <c r="C674" s="11"/>
+      <c r="B674" s="32" t="s">
+        <v>726</v>
+      </c>
+      <c r="C674" s="31">
+        <v>39090</v>
+      </c>
       <c r="D674"/>
-      <c r="E674"/>
-    </row>
-    <row r="675" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E674" s="32">
+        <v>1</v>
+      </c>
+      <c r="F674" t="s">
+        <v>14</v>
+      </c>
+      <c r="G674" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="675" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A675" s="17"/>
-      <c r="B675"/>
-      <c r="C675" s="11"/>
+      <c r="B675" s="32" t="s">
+        <v>727</v>
+      </c>
+      <c r="C675" s="31">
+        <v>27272</v>
+      </c>
       <c r="D675"/>
-      <c r="E675"/>
-    </row>
-    <row r="676" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E675" s="32">
+        <v>1</v>
+      </c>
+      <c r="F675" t="s">
+        <v>14</v>
+      </c>
+      <c r="G675" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="676" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A676" s="17"/>
-      <c r="B676"/>
-      <c r="C676" s="11"/>
+      <c r="B676" s="32" t="s">
+        <v>728</v>
+      </c>
+      <c r="C676" s="31">
+        <v>32727</v>
+      </c>
       <c r="D676"/>
-      <c r="E676"/>
-    </row>
-    <row r="677" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E676" s="32">
+        <v>1</v>
+      </c>
+      <c r="F676" t="s">
+        <v>14</v>
+      </c>
+      <c r="G676" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="677" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A677" s="17"/>
-      <c r="B677"/>
-      <c r="C677" s="11"/>
+      <c r="B677" s="34" t="s">
+        <v>745</v>
+      </c>
+      <c r="C677" s="31">
+        <v>49090</v>
+      </c>
       <c r="D677"/>
-      <c r="E677"/>
-    </row>
-    <row r="678" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E677" s="32">
+        <v>1</v>
+      </c>
+      <c r="F677" t="s">
+        <v>14</v>
+      </c>
+      <c r="G677" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="678" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A678" s="17"/>
-      <c r="B678"/>
-      <c r="C678" s="11"/>
+      <c r="B678" s="32" t="s">
+        <v>729</v>
+      </c>
+      <c r="C678" s="32">
+        <v>26363</v>
+      </c>
       <c r="D678"/>
-      <c r="E678"/>
-    </row>
-    <row r="679" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E678" s="32">
+        <v>1</v>
+      </c>
+      <c r="F678" t="s">
+        <v>14</v>
+      </c>
+      <c r="G678" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="679" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A679" s="17"/>
-      <c r="B679"/>
-      <c r="C679" s="11"/>
+      <c r="B679" s="32" t="s">
+        <v>730</v>
+      </c>
+      <c r="C679" s="32">
+        <v>16363</v>
+      </c>
       <c r="D679"/>
-      <c r="E679"/>
-    </row>
-    <row r="680" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E679" s="32">
+        <v>1</v>
+      </c>
+      <c r="F679" t="s">
+        <v>14</v>
+      </c>
+      <c r="G679" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="680" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A680" s="17"/>
-      <c r="B680"/>
-      <c r="C680" s="11"/>
+      <c r="B680" s="32" t="s">
+        <v>731</v>
+      </c>
+      <c r="C680" s="32">
+        <v>26363</v>
+      </c>
       <c r="D680"/>
-      <c r="E680"/>
-    </row>
-    <row r="681" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E680" s="32">
+        <v>1</v>
+      </c>
+      <c r="F680" t="s">
+        <v>14</v>
+      </c>
+      <c r="G680" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="681" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A681" s="17"/>
-      <c r="B681"/>
-      <c r="C681" s="11"/>
+      <c r="B681" s="32" t="s">
+        <v>732</v>
+      </c>
+      <c r="C681" s="32">
+        <v>15454</v>
+      </c>
       <c r="D681"/>
-      <c r="E681"/>
-    </row>
-    <row r="682" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E681" s="32">
+        <v>1</v>
+      </c>
+      <c r="F681" t="s">
+        <v>14</v>
+      </c>
+      <c r="G681" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="682" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A682" s="17"/>
-      <c r="B682"/>
-      <c r="C682" s="11"/>
+      <c r="B682" s="32" t="s">
+        <v>733</v>
+      </c>
+      <c r="C682" s="32">
+        <v>15454</v>
+      </c>
       <c r="D682"/>
-      <c r="E682"/>
-    </row>
-    <row r="683" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E682" s="32">
+        <v>1</v>
+      </c>
+      <c r="F682" t="s">
+        <v>14</v>
+      </c>
+      <c r="G682" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="683" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A683" s="17"/>
-      <c r="B683"/>
-      <c r="C683" s="11"/>
+      <c r="B683" s="32" t="s">
+        <v>734</v>
+      </c>
+      <c r="C683" s="32">
+        <v>26363</v>
+      </c>
       <c r="D683"/>
-      <c r="E683"/>
-    </row>
-    <row r="684" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E683" s="32">
+        <v>1</v>
+      </c>
+      <c r="F683" t="s">
+        <v>14</v>
+      </c>
+      <c r="G683" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="684" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A684" s="17"/>
-      <c r="B684"/>
-      <c r="C684" s="11"/>
+      <c r="B684" s="32" t="s">
+        <v>735</v>
+      </c>
+      <c r="C684" s="32">
+        <v>16363</v>
+      </c>
       <c r="D684"/>
-      <c r="E684"/>
-    </row>
-    <row r="685" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E684" s="32">
+        <v>1</v>
+      </c>
+      <c r="F684" t="s">
+        <v>14</v>
+      </c>
+      <c r="G684" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="685" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A685" s="17"/>
-      <c r="B685"/>
-      <c r="C685" s="11"/>
+      <c r="B685" s="32" t="s">
+        <v>736</v>
+      </c>
+      <c r="C685" s="32">
+        <v>26363</v>
+      </c>
       <c r="D685"/>
-      <c r="E685"/>
-    </row>
-    <row r="686" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E685" s="32">
+        <v>1</v>
+      </c>
+      <c r="F685" t="s">
+        <v>14</v>
+      </c>
+      <c r="G685" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="686" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A686" s="17"/>
-      <c r="B686"/>
-      <c r="C686" s="11"/>
+      <c r="B686" s="32" t="s">
+        <v>737</v>
+      </c>
+      <c r="C686" s="32">
+        <v>22727</v>
+      </c>
       <c r="D686"/>
-      <c r="E686"/>
-    </row>
-    <row r="687" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E686" s="32">
+        <v>1</v>
+      </c>
+      <c r="F686" t="s">
+        <v>14</v>
+      </c>
+      <c r="G686" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="687" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A687" s="17"/>
-      <c r="B687"/>
-      <c r="C687" s="11"/>
+      <c r="B687" s="32" t="s">
+        <v>738</v>
+      </c>
+      <c r="C687" s="32">
+        <v>16363</v>
+      </c>
       <c r="D687"/>
-      <c r="E687"/>
-    </row>
-    <row r="688" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E687" s="32">
+        <v>1</v>
+      </c>
+      <c r="F687" t="s">
+        <v>14</v>
+      </c>
+      <c r="G687" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="688" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A688" s="17"/>
-      <c r="B688"/>
-      <c r="C688" s="11"/>
+      <c r="B688" s="32" t="s">
+        <v>739</v>
+      </c>
+      <c r="C688" s="32">
+        <v>9090</v>
+      </c>
       <c r="D688"/>
-      <c r="E688"/>
-    </row>
-    <row r="689" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E688" s="32">
+        <v>1</v>
+      </c>
+      <c r="F688" t="s">
+        <v>14</v>
+      </c>
+      <c r="G688" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="689" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A689" s="17"/>
-      <c r="B689"/>
-      <c r="C689" s="11"/>
+      <c r="B689" s="32"/>
+      <c r="C689" s="31"/>
       <c r="D689"/>
-      <c r="E689"/>
-    </row>
-    <row r="690" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E689" s="31"/>
+      <c r="F689" s="31"/>
+    </row>
+    <row r="690" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A690" s="17"/>
-      <c r="B690"/>
-      <c r="C690" s="11"/>
+      <c r="B690" s="4"/>
+      <c r="C690" s="30"/>
       <c r="D690"/>
-      <c r="E690"/>
-    </row>
-    <row r="691" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E690" s="32"/>
+      <c r="F690" s="32"/>
+    </row>
+    <row r="691" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A691" s="17"/>
-      <c r="B691"/>
-      <c r="C691" s="11"/>
+      <c r="B691" s="4"/>
+      <c r="C691" s="30"/>
       <c r="D691"/>
-      <c r="E691"/>
-    </row>
-    <row r="692" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E691" s="32"/>
+      <c r="F691" s="32"/>
+    </row>
+    <row r="692" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A692" s="17"/>
-      <c r="B692"/>
-      <c r="C692" s="11"/>
+      <c r="B692" s="4"/>
+      <c r="C692" s="30"/>
       <c r="D692"/>
-      <c r="E692"/>
-    </row>
-    <row r="693" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E692" s="32"/>
+      <c r="F692" s="32"/>
+    </row>
+    <row r="693" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A693" s="17"/>
-      <c r="B693"/>
-      <c r="C693" s="11"/>
+      <c r="B693" s="4"/>
+      <c r="C693" s="30"/>
       <c r="D693"/>
-      <c r="E693"/>
-    </row>
-    <row r="694" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E693" s="32"/>
+      <c r="F693" s="32"/>
+    </row>
+    <row r="694" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A694" s="17"/>
-      <c r="B694"/>
-      <c r="C694" s="11"/>
+      <c r="B694" s="4"/>
+      <c r="C694" s="30"/>
       <c r="D694"/>
-      <c r="E694"/>
-    </row>
-    <row r="695" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E694" s="32"/>
+      <c r="F694" s="32"/>
+    </row>
+    <row r="695" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A695" s="17"/>
-      <c r="B695"/>
-      <c r="C695" s="11"/>
+      <c r="B695" s="4"/>
+      <c r="C695" s="30"/>
       <c r="D695"/>
-      <c r="E695"/>
-    </row>
-    <row r="696" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E695" s="32"/>
+      <c r="F695" s="32"/>
+    </row>
+    <row r="696" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A696" s="17"/>
-      <c r="B696"/>
-      <c r="C696" s="11"/>
+      <c r="B696" s="4"/>
+      <c r="C696" s="30"/>
       <c r="D696"/>
-      <c r="E696"/>
-    </row>
-    <row r="697" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E696" s="32"/>
+      <c r="F696" s="32"/>
+    </row>
+    <row r="697" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A697" s="17"/>
-      <c r="B697"/>
-      <c r="C697" s="11"/>
+      <c r="B697" s="4"/>
+      <c r="C697" s="30"/>
       <c r="D697"/>
-      <c r="E697"/>
-    </row>
-    <row r="698" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E697" s="32"/>
+      <c r="F697" s="32"/>
+    </row>
+    <row r="698" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A698" s="17"/>
-      <c r="B698"/>
-      <c r="C698" s="11"/>
+      <c r="B698" s="4"/>
+      <c r="C698" s="30"/>
       <c r="D698"/>
-      <c r="E698"/>
-    </row>
-    <row r="699" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E698" s="32"/>
+      <c r="F698" s="32"/>
+    </row>
+    <row r="699" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A699" s="17"/>
-      <c r="B699"/>
-      <c r="C699" s="11"/>
+      <c r="B699" s="4"/>
+      <c r="C699" s="30"/>
       <c r="D699"/>
-      <c r="E699"/>
-    </row>
-    <row r="700" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E699" s="32"/>
+      <c r="F699" s="32"/>
+    </row>
+    <row r="700" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A700" s="17"/>
-      <c r="B700"/>
-      <c r="C700" s="11"/>
+      <c r="B700" s="4"/>
+      <c r="C700" s="30"/>
       <c r="D700"/>
-      <c r="E700"/>
-    </row>
-    <row r="701" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E700" s="32"/>
+      <c r="F700" s="32"/>
+    </row>
+    <row r="701" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A701" s="17"/>
       <c r="B701"/>
       <c r="C701" s="11"/>
       <c r="D701"/>
       <c r="E701"/>
-    </row>
-    <row r="702" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F701" s="12"/>
+    </row>
+    <row r="702" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A702" s="17"/>
       <c r="B702"/>
       <c r="C702" s="11"/>
       <c r="D702"/>
       <c r="E702"/>
-    </row>
-    <row r="703" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F702" s="12"/>
+    </row>
+    <row r="703" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A703" s="17"/>
       <c r="B703"/>
       <c r="C703" s="11"/>
       <c r="D703"/>
       <c r="E703"/>
-    </row>
-    <row r="704" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F703" s="12"/>
+    </row>
+    <row r="704" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A704" s="17"/>
       <c r="B704"/>
       <c r="C704" s="11"/>
       <c r="D704"/>
       <c r="E704"/>
-    </row>
-    <row r="705" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F704" s="12"/>
+    </row>
+    <row r="705" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A705" s="17"/>
       <c r="B705"/>
       <c r="C705" s="11"/>
       <c r="D705"/>
       <c r="E705"/>
-    </row>
-    <row r="706" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F705" s="12"/>
+    </row>
+    <row r="706" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A706" s="17"/>
       <c r="B706"/>
       <c r="C706" s="11"/>
       <c r="D706"/>
       <c r="E706"/>
-    </row>
-    <row r="707" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F706" s="12"/>
+    </row>
+    <row r="707" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A707" s="17"/>
       <c r="B707"/>
       <c r="C707" s="11"/>
       <c r="D707"/>
       <c r="E707"/>
-    </row>
-    <row r="708" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F707" s="12"/>
+    </row>
+    <row r="708" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A708" s="17"/>
       <c r="B708"/>
       <c r="C708" s="11"/>
       <c r="D708"/>
       <c r="E708"/>
-    </row>
-    <row r="709" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F708" s="12"/>
+    </row>
+    <row r="709" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A709" s="17"/>
       <c r="B709"/>
       <c r="C709" s="11"/>
       <c r="D709"/>
       <c r="E709"/>
-    </row>
-    <row r="710" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F709" s="12"/>
+    </row>
+    <row r="710" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A710" s="17"/>
       <c r="B710"/>
       <c r="C710" s="11"/>
       <c r="D710"/>
       <c r="E710"/>
-    </row>
-    <row r="711" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F710" s="12"/>
+    </row>
+    <row r="711" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A711" s="17"/>
       <c r="B711"/>
       <c r="C711" s="11"/>
       <c r="D711"/>
       <c r="E711"/>
-    </row>
-    <row r="712" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F711" s="12"/>
+    </row>
+    <row r="712" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A712" s="17"/>
       <c r="B712"/>
       <c r="C712" s="11"/>
       <c r="D712"/>
       <c r="E712"/>
-    </row>
-    <row r="713" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F712" s="12"/>
+    </row>
+    <row r="713" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A713" s="17"/>
       <c r="B713"/>
       <c r="C713" s="11"/>
       <c r="D713"/>
       <c r="E713"/>
     </row>
-    <row r="714" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A714" s="17"/>
       <c r="B714"/>
       <c r="C714" s="11"/>
       <c r="D714"/>
       <c r="E714"/>
     </row>
-    <row r="715" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A715" s="17"/>
       <c r="B715"/>
       <c r="C715" s="11"/>
       <c r="D715"/>
       <c r="E715"/>
     </row>
-    <row r="716" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A716" s="17"/>
       <c r="B716"/>
       <c r="C716" s="11"/>
       <c r="D716"/>
       <c r="E716"/>
     </row>
-    <row r="717" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A717" s="17"/>
       <c r="B717"/>
       <c r="C717" s="11"/>
       <c r="D717"/>
       <c r="E717"/>
     </row>
-    <row r="718" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A718" s="17"/>
       <c r="B718"/>
       <c r="C718" s="11"/>
       <c r="D718"/>
       <c r="E718"/>
     </row>
-    <row r="719" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A719" s="17"/>
       <c r="B719"/>
       <c r="C719" s="11"/>
       <c r="D719"/>
       <c r="E719"/>
     </row>
-    <row r="720" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A720" s="17"/>
       <c r="B720"/>
       <c r="C720" s="11"/>

--- a/Template Data v4.xlsx
+++ b/Template Data v4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9765" windowHeight="5280" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9765" windowHeight="5280" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Restoran" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2442" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2415" uniqueCount="765">
   <si>
     <t>Nama</t>
   </si>
@@ -186,9 +186,6 @@
     <t>Tempat Duduk</t>
   </si>
   <si>
-    <t>Pesan Antar</t>
-  </si>
-  <si>
     <t>Is_Paket_Tanpa_Menu</t>
   </si>
   <si>
@@ -2266,6 +2263,66 @@
   </si>
   <si>
     <t>Combo (original / yakiniku beef bowl + teriyaki chicken)</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>033</t>
+  </si>
+  <si>
+    <t>034</t>
+  </si>
+  <si>
+    <t>035</t>
+  </si>
+  <si>
+    <t>036</t>
+  </si>
+  <si>
+    <t>037</t>
+  </si>
+  <si>
+    <t>038</t>
+  </si>
+  <si>
+    <t>039</t>
+  </si>
+  <si>
+    <t>040</t>
+  </si>
+  <si>
+    <t>041</t>
+  </si>
+  <si>
+    <t>042</t>
   </si>
 </sst>
 </file>
@@ -2966,8 +3023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3007,12 +3064,14 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
+      <c r="A2" s="17" t="s">
+        <v>747</v>
+      </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>22</v>
@@ -3023,12 +3082,14 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
+      <c r="A3" s="17" t="s">
+        <v>748</v>
+      </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>23</v>
@@ -3039,12 +3100,14 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
+      <c r="A4" s="17" t="s">
+        <v>749</v>
+      </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>22</v>
@@ -3055,15 +3118,17 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
+      <c r="A5" s="17" t="s">
+        <v>750</v>
+      </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F5"/>
       <c r="G5" s="2">
@@ -3071,15 +3136,17 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
+      <c r="A6" s="17" t="s">
+        <v>751</v>
+      </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F6"/>
       <c r="G6" s="2">
@@ -3087,12 +3154,14 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
+      <c r="A7" s="17" t="s">
+        <v>752</v>
+      </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>22</v>
@@ -3103,12 +3172,14 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
+      <c r="A8" s="17" t="s">
+        <v>753</v>
+      </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>23</v>
@@ -3119,15 +3190,17 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
+      <c r="A9" s="17" t="s">
+        <v>754</v>
+      </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F9"/>
       <c r="G9" s="2">
@@ -3135,12 +3208,14 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
+      <c r="A10" s="17" t="s">
+        <v>746</v>
+      </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>22</v>
@@ -3151,12 +3226,14 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
+      <c r="A11" s="17" t="s">
+        <v>745</v>
+      </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>22</v>
@@ -3506,8 +3583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O723"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A644" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G663" sqref="G663"/>
+    <sheetView topLeftCell="A671" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B689" sqref="B689"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3565,18 +3642,18 @@
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C2" s="3">
         <v>27273</v>
@@ -3598,7 +3675,7 @@
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
       <c r="B3" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3" s="3">
         <v>31818</v>
@@ -3620,7 +3697,7 @@
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
       <c r="B4" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" s="3">
         <v>29091</v>
@@ -3642,7 +3719,7 @@
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" s="3">
         <v>31818</v>
@@ -3658,13 +3735,13 @@
         <v>16</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6" s="3">
         <v>33363</v>
@@ -3680,13 +3757,13 @@
         <v>16</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="17"/>
       <c r="B7" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7" s="3">
         <v>30000</v>
@@ -3708,7 +3785,7 @@
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
       <c r="B8" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C8" s="3">
         <v>33363</v>
@@ -3727,7 +3804,7 @@
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C9" s="3">
         <v>35455</v>
@@ -3749,7 +3826,7 @@
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="B10" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C10" s="3">
         <v>27272</v>
@@ -3771,7 +3848,7 @@
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="B11" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C11" s="3">
         <v>27273</v>
@@ -3793,7 +3870,7 @@
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="B12" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C12" s="3">
         <v>27273</v>
@@ -3815,7 +3892,7 @@
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C13" s="3">
         <v>27273</v>
@@ -3837,7 +3914,7 @@
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C14" s="3">
         <v>31818</v>
@@ -3858,10 +3935,10 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C15" s="3">
         <v>22500</v>
@@ -3883,7 +3960,7 @@
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="B16" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C16" s="3">
         <v>17500</v>
@@ -3906,7 +3983,7 @@
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C17" s="3">
         <v>30000</v>
@@ -3926,7 +4003,7 @@
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C18" s="3">
         <v>24500</v>
@@ -3945,7 +4022,7 @@
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C19" s="3">
         <v>19500</v>
@@ -3964,7 +4041,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
       <c r="B20" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C20" s="3">
         <v>30000</v>
@@ -3983,7 +4060,7 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
       <c r="B21" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C21" s="3">
         <v>25000</v>
@@ -4002,7 +4079,7 @@
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
       <c r="B22" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C22" s="3">
         <v>20000</v>
@@ -4021,7 +4098,7 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
       <c r="B23" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C23" s="3">
         <v>24500</v>
@@ -4040,7 +4117,7 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="17"/>
       <c r="B24" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C24" s="3">
         <v>19500</v>
@@ -4059,7 +4136,7 @@
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
       <c r="B25" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C25" s="3">
         <v>27000</v>
@@ -4078,7 +4155,7 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="17"/>
       <c r="B26" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C26" s="3">
         <v>22000</v>
@@ -4097,7 +4174,7 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="17"/>
       <c r="B27" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C27" s="3">
         <v>22500</v>
@@ -4116,7 +4193,7 @@
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="17"/>
       <c r="B28" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C28" s="3">
         <v>27500</v>
@@ -4135,7 +4212,7 @@
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="17"/>
       <c r="B29" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C29" s="3">
         <v>30000</v>
@@ -4154,7 +4231,7 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
       <c r="B30" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C30" s="3">
         <v>27000</v>
@@ -4173,7 +4250,7 @@
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="17"/>
       <c r="B31" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C31" s="3">
         <v>22000</v>
@@ -4192,7 +4269,7 @@
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="17"/>
       <c r="B32" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C32" s="3">
         <v>24500</v>
@@ -4211,7 +4288,7 @@
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="17"/>
       <c r="B33" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C33" s="3">
         <v>19500</v>
@@ -4230,7 +4307,7 @@
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="17"/>
       <c r="B34" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C34" s="3">
         <v>30000</v>
@@ -4249,7 +4326,7 @@
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="17"/>
       <c r="B35" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C35" s="3">
         <v>24500</v>
@@ -4268,7 +4345,7 @@
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="17"/>
       <c r="B36" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C36" s="3">
         <v>19500</v>
@@ -4287,7 +4364,7 @@
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="17"/>
       <c r="B37" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C37" s="3">
         <v>27500</v>
@@ -4306,7 +4383,7 @@
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="17"/>
       <c r="B38" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C38" s="3">
         <v>22500</v>
@@ -4325,7 +4402,7 @@
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="17"/>
       <c r="B39" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C39" s="3">
         <v>27500</v>
@@ -4344,7 +4421,7 @@
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="17"/>
       <c r="B40" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C40" s="3">
         <v>22500</v>
@@ -4363,7 +4440,7 @@
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="17"/>
       <c r="B41" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C41" s="3">
         <v>25000</v>
@@ -4382,7 +4459,7 @@
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="17"/>
       <c r="B42" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C42" s="3">
         <v>20000</v>
@@ -4401,7 +4478,7 @@
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="17"/>
       <c r="B43" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C43" s="3">
         <v>30000</v>
@@ -4420,7 +4497,7 @@
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="17"/>
       <c r="B44" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C44" s="3">
         <v>25000</v>
@@ -4439,7 +4516,7 @@
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="17"/>
       <c r="B45" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C45" s="3">
         <v>20000</v>
@@ -4458,7 +4535,7 @@
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="17"/>
       <c r="B46" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C46" s="3">
         <v>30000</v>
@@ -4477,7 +4554,7 @@
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="17"/>
       <c r="B47" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C47" s="3">
         <v>20000</v>
@@ -4496,7 +4573,7 @@
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="17"/>
       <c r="B48" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C48" s="3">
         <v>25000</v>
@@ -4515,7 +4592,7 @@
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="17"/>
       <c r="B49" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C49" s="3">
         <v>30000</v>
@@ -4534,7 +4611,7 @@
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="17"/>
       <c r="B50" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C50" s="3">
         <v>20000</v>
@@ -4553,7 +4630,7 @@
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="17"/>
       <c r="B51" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C51" s="3">
         <v>25000</v>
@@ -4572,7 +4649,7 @@
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="17"/>
       <c r="B52" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C52" s="3">
         <v>30000</v>
@@ -4591,7 +4668,7 @@
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="17"/>
       <c r="B53" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C53" s="3">
         <v>20000</v>
@@ -4610,7 +4687,7 @@
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="17"/>
       <c r="B54" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C54" s="3">
         <v>25000</v>
@@ -4629,7 +4706,7 @@
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="17"/>
       <c r="B55" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C55" s="3">
         <v>20000</v>
@@ -4648,7 +4725,7 @@
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="17"/>
       <c r="B56" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C56" s="3">
         <v>25000</v>
@@ -4667,7 +4744,7 @@
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="17"/>
       <c r="B57" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C57" s="3">
         <v>20000</v>
@@ -4686,7 +4763,7 @@
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="17"/>
       <c r="B58" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C58" s="3">
         <v>25000</v>
@@ -4705,7 +4782,7 @@
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="17"/>
       <c r="B59" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C59" s="3">
         <v>12000</v>
@@ -4724,7 +4801,7 @@
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="17"/>
       <c r="B60" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C60" s="3">
         <v>18500</v>
@@ -4743,7 +4820,7 @@
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="17"/>
       <c r="B61" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C61" s="3">
         <v>11000</v>
@@ -4753,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>16</v>
@@ -4762,7 +4839,7 @@
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="17"/>
       <c r="B62" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C62" s="3">
         <v>12000</v>
@@ -4781,7 +4858,7 @@
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="17"/>
       <c r="B63" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C63" s="3">
         <v>12000</v>
@@ -4800,7 +4877,7 @@
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="17"/>
       <c r="B64" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C64" s="3">
         <v>22000</v>
@@ -4819,7 +4896,7 @@
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="17"/>
       <c r="B65" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C65" s="3">
         <v>21000</v>
@@ -4838,7 +4915,7 @@
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="17"/>
       <c r="B66" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C66" s="3">
         <v>16500</v>
@@ -4856,10 +4933,10 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>147</v>
       </c>
       <c r="C67" s="24">
         <v>45000</v>
@@ -4869,7 +4946,7 @@
         <v>1</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>18</v>
@@ -4878,7 +4955,7 @@
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="17"/>
       <c r="B68" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C68" s="24">
         <v>65000</v>
@@ -4888,7 +4965,7 @@
         <v>1</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>18</v>
@@ -4897,7 +4974,7 @@
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="17"/>
       <c r="B69" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C69" s="24">
         <v>45000</v>
@@ -4907,7 +4984,7 @@
         <v>1</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>18</v>
@@ -4916,7 +4993,7 @@
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="17"/>
       <c r="B70" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C70" s="24">
         <v>49000</v>
@@ -4935,7 +5012,7 @@
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="17"/>
       <c r="B71" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C71" s="24">
         <v>45000</v>
@@ -4954,7 +5031,7 @@
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="17"/>
       <c r="B72" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C72" s="24">
         <v>45000</v>
@@ -4973,7 +5050,7 @@
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="17"/>
       <c r="B73" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C73" s="24">
         <v>79000</v>
@@ -4992,7 +5069,7 @@
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="17"/>
       <c r="B74" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C74" s="24">
         <v>45000</v>
@@ -5011,7 +5088,7 @@
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="17"/>
       <c r="B75" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C75" s="24">
         <v>79000</v>
@@ -5030,7 +5107,7 @@
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="17"/>
       <c r="B76" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C76" s="24">
         <v>49000</v>
@@ -5049,7 +5126,7 @@
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="17"/>
       <c r="B77" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C77" s="24">
         <v>89000</v>
@@ -5068,7 +5145,7 @@
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="17"/>
       <c r="B78" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C78" s="24">
         <v>45000</v>
@@ -5087,7 +5164,7 @@
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="17"/>
       <c r="B79" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C79" s="24">
         <v>79000</v>
@@ -5106,7 +5183,7 @@
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="17"/>
       <c r="B80" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C80" s="24">
         <v>45000</v>
@@ -5125,7 +5202,7 @@
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="17"/>
       <c r="B81" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C81" s="24">
         <v>79000</v>
@@ -5144,7 +5221,7 @@
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="17"/>
       <c r="B82" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C82" s="24">
         <v>49000</v>
@@ -5163,7 +5240,7 @@
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="17"/>
       <c r="B83" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C83" s="24">
         <v>52000</v>
@@ -5182,7 +5259,7 @@
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="17"/>
       <c r="B84" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C84" s="24">
         <v>35000</v>
@@ -5201,7 +5278,7 @@
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="17"/>
       <c r="B85" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C85" s="24">
         <v>49000</v>
@@ -5220,7 +5297,7 @@
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="17"/>
       <c r="B86" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C86" s="24">
         <v>55000</v>
@@ -5239,7 +5316,7 @@
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="17"/>
       <c r="B87" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C87" s="24">
         <v>55000</v>
@@ -5258,7 +5335,7 @@
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="17"/>
       <c r="B88" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C88" s="24">
         <v>55000</v>
@@ -5277,7 +5354,7 @@
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="17"/>
       <c r="B89" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C89" s="24">
         <v>49000</v>
@@ -5296,7 +5373,7 @@
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="17"/>
       <c r="B90" s="24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C90" s="24">
         <v>45000</v>
@@ -5315,7 +5392,7 @@
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="17"/>
       <c r="B91" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C91" s="24">
         <v>45000</v>
@@ -5334,7 +5411,7 @@
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="17"/>
       <c r="B92" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C92" s="24">
         <v>45000</v>
@@ -5353,7 +5430,7 @@
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="17"/>
       <c r="B93" s="24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C93" s="24">
         <v>49000</v>
@@ -5372,7 +5449,7 @@
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="17"/>
       <c r="B94" s="24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C94" s="24">
         <v>49000</v>
@@ -5391,7 +5468,7 @@
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="17"/>
       <c r="B95" s="24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C95" s="24">
         <v>49000</v>
@@ -5410,7 +5487,7 @@
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="17"/>
       <c r="B96" s="24" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C96" s="24">
         <v>45000</v>
@@ -5429,7 +5506,7 @@
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="17"/>
       <c r="B97" s="24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C97" s="24">
         <v>49000</v>
@@ -5448,7 +5525,7 @@
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="17"/>
       <c r="B98" s="24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C98" s="24">
         <v>49000</v>
@@ -5467,7 +5544,7 @@
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="17"/>
       <c r="B99" s="24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C99" s="24">
         <v>49000</v>
@@ -5486,7 +5563,7 @@
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="17"/>
       <c r="B100" s="24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C100" s="24">
         <v>49000</v>
@@ -5505,7 +5582,7 @@
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="17"/>
       <c r="B101" s="24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C101" s="24">
         <v>49000</v>
@@ -5524,7 +5601,7 @@
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="17"/>
       <c r="B102" s="24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C102" s="24">
         <v>49000</v>
@@ -5543,7 +5620,7 @@
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="17"/>
       <c r="B103" s="25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C103" s="25">
         <v>65000</v>
@@ -5562,7 +5639,7 @@
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="17"/>
       <c r="B104" s="25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C104" s="24">
         <v>65000</v>
@@ -5581,7 +5658,7 @@
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="17"/>
       <c r="B105" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C105" s="25">
         <v>69000</v>
@@ -5600,7 +5677,7 @@
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="17"/>
       <c r="B106" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C106" s="25">
         <v>69000</v>
@@ -5619,7 +5696,7 @@
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="17"/>
       <c r="B107" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C107" s="26">
         <v>79000</v>
@@ -5638,7 +5715,7 @@
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="17"/>
       <c r="B108" s="25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C108" s="26">
         <v>59000</v>
@@ -5657,7 +5734,7 @@
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="17"/>
       <c r="B109" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C109" s="26">
         <v>65000</v>
@@ -5676,7 +5753,7 @@
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="17"/>
       <c r="B110" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C110" s="26">
         <v>55000</v>
@@ -5695,7 +5772,7 @@
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="17"/>
       <c r="B111" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C111" s="26">
         <v>65000</v>
@@ -5714,7 +5791,7 @@
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="17"/>
       <c r="B112" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C112" s="26">
         <v>55000</v>
@@ -5733,7 +5810,7 @@
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="17"/>
       <c r="B113" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C113" s="26">
         <v>59000</v>
@@ -5752,7 +5829,7 @@
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="17"/>
       <c r="B114" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C114" s="26">
         <v>55000</v>
@@ -5771,7 +5848,7 @@
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="17"/>
       <c r="B115" s="25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C115" s="26">
         <v>65000</v>
@@ -5790,7 +5867,7 @@
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="17"/>
       <c r="B116" s="26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C116" s="26">
         <v>55000</v>
@@ -5809,7 +5886,7 @@
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="17"/>
       <c r="B117" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C117" s="26">
         <v>59000</v>
@@ -5828,7 +5905,7 @@
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="17"/>
       <c r="B118" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C118" s="26">
         <v>169000</v>
@@ -5847,7 +5924,7 @@
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="17"/>
       <c r="B119" s="26" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C119" s="26">
         <v>149000</v>
@@ -5866,7 +5943,7 @@
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="17"/>
       <c r="B120" s="26" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C120" s="26">
         <v>159000</v>
@@ -5885,7 +5962,7 @@
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="17"/>
       <c r="B121" s="25" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C121" s="26">
         <v>99000</v>
@@ -5904,7 +5981,7 @@
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="17"/>
       <c r="B122" s="25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C122" s="26">
         <v>45000</v>
@@ -5923,7 +6000,7 @@
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="17"/>
       <c r="B123" s="25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C123" s="26">
         <v>65000</v>
@@ -5942,7 +6019,7 @@
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="17"/>
       <c r="B124" s="25" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C124" s="26">
         <v>69000</v>
@@ -5961,7 +6038,7 @@
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="17"/>
       <c r="B125" s="26" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C125" s="26">
         <v>115000</v>
@@ -5980,7 +6057,7 @@
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="17"/>
       <c r="B126" s="26" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C126" s="26">
         <v>65000</v>
@@ -5999,7 +6076,7 @@
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="17"/>
       <c r="B127" s="26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C127" s="26">
         <v>75000</v>
@@ -6018,7 +6095,7 @@
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="17"/>
       <c r="B128" s="26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C128" s="26">
         <v>59000</v>
@@ -6037,7 +6114,7 @@
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="17"/>
       <c r="B129" s="26" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C129" s="26">
         <v>22000</v>
@@ -6047,7 +6124,7 @@
         <v>1</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G129" s="3" t="s">
         <v>16</v>
@@ -6056,7 +6133,7 @@
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="17"/>
       <c r="B130" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C130" s="26">
         <v>19000</v>
@@ -6066,7 +6143,7 @@
         <v>1</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G130" s="3" t="s">
         <v>16</v>
@@ -6075,7 +6152,7 @@
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="17"/>
       <c r="B131" s="26" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C131" s="26">
         <v>25000</v>
@@ -6085,7 +6162,7 @@
         <v>1</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G131" s="3" t="s">
         <v>16</v>
@@ -6094,7 +6171,7 @@
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="17"/>
       <c r="B132" s="26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C132" s="26">
         <v>32000</v>
@@ -6104,7 +6181,7 @@
         <v>1</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G132" s="3" t="s">
         <v>16</v>
@@ -6113,7 +6190,7 @@
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="17"/>
       <c r="B133" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C133" s="26">
         <v>35000</v>
@@ -6123,7 +6200,7 @@
         <v>1</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G133" s="3" t="s">
         <v>16</v>
@@ -6132,7 +6209,7 @@
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="17"/>
       <c r="B134" s="26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C134" s="26">
         <v>32000</v>
@@ -6142,7 +6219,7 @@
         <v>1</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G134" s="3" t="s">
         <v>16</v>
@@ -6151,7 +6228,7 @@
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="17"/>
       <c r="B135" s="26" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C135" s="26">
         <v>32000</v>
@@ -6161,7 +6238,7 @@
         <v>1</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G135" s="3" t="s">
         <v>16</v>
@@ -6170,7 +6247,7 @@
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="17"/>
       <c r="B136" s="26" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C136" s="26">
         <v>32000</v>
@@ -6180,7 +6257,7 @@
         <v>1</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G136" s="3" t="s">
         <v>16</v>
@@ -6189,7 +6266,7 @@
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="17"/>
       <c r="B137" s="26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C137" s="26">
         <v>45000</v>
@@ -6207,10 +6284,10 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B138" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C138">
         <v>17000</v>
@@ -6229,7 +6306,7 @@
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="17"/>
       <c r="B139" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C139">
         <v>17000</v>
@@ -6248,7 +6325,7 @@
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="17"/>
       <c r="B140" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C140">
         <v>18500</v>
@@ -6267,7 +6344,7 @@
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="17"/>
       <c r="B141" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C141">
         <v>20000</v>
@@ -6286,7 +6363,7 @@
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="17"/>
       <c r="B142" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C142">
         <v>18000</v>
@@ -6305,7 +6382,7 @@
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="17"/>
       <c r="B143" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C143">
         <v>17000</v>
@@ -6324,7 +6401,7 @@
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="17"/>
       <c r="B144" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C144">
         <v>17000</v>
@@ -6343,7 +6420,7 @@
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="17"/>
       <c r="B145" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C145">
         <v>18000</v>
@@ -6362,7 +6439,7 @@
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="17"/>
       <c r="B146" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C146">
         <v>18500</v>
@@ -6381,7 +6458,7 @@
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="17"/>
       <c r="B147" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C147">
         <v>15500</v>
@@ -6400,7 +6477,7 @@
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="17"/>
       <c r="B148" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C148">
         <v>17000</v>
@@ -6419,7 +6496,7 @@
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="17"/>
       <c r="B149" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C149">
         <v>14500</v>
@@ -6438,7 +6515,7 @@
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="17"/>
       <c r="B150" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C150">
         <v>17000</v>
@@ -6457,7 +6534,7 @@
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="17"/>
       <c r="B151" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C151">
         <v>17000</v>
@@ -6476,7 +6553,7 @@
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="17"/>
       <c r="B152" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C152">
         <v>15500</v>
@@ -6495,7 +6572,7 @@
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="17"/>
       <c r="B153" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C153">
         <v>17000</v>
@@ -6514,7 +6591,7 @@
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="17"/>
       <c r="B154" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C154">
         <v>16000</v>
@@ -6533,7 +6610,7 @@
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="17"/>
       <c r="B155" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C155">
         <v>17000</v>
@@ -6552,7 +6629,7 @@
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="17"/>
       <c r="B156" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C156">
         <v>17500</v>
@@ -6571,7 +6648,7 @@
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="17"/>
       <c r="B157" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C157">
         <v>14500</v>
@@ -6590,7 +6667,7 @@
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="17"/>
       <c r="B158" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C158">
         <v>21000</v>
@@ -6609,7 +6686,7 @@
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="17"/>
       <c r="B159" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C159">
         <v>17000</v>
@@ -6628,7 +6705,7 @@
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="17"/>
       <c r="B160" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C160">
         <v>17000</v>
@@ -6647,7 +6724,7 @@
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="17"/>
       <c r="B161" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C161">
         <v>17000</v>
@@ -6666,7 +6743,7 @@
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="17"/>
       <c r="B162" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C162">
         <v>18000</v>
@@ -6685,7 +6762,7 @@
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="17"/>
       <c r="B163" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C163">
         <v>20000</v>
@@ -6704,7 +6781,7 @@
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="17"/>
       <c r="B164" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C164">
         <v>16000</v>
@@ -6723,7 +6800,7 @@
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="17"/>
       <c r="B165" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C165">
         <v>20500</v>
@@ -6742,7 +6819,7 @@
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="17"/>
       <c r="B166" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C166">
         <v>19000</v>
@@ -6761,7 +6838,7 @@
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="17"/>
       <c r="B167" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C167">
         <v>17000</v>
@@ -6780,7 +6857,7 @@
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="17"/>
       <c r="B168" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C168">
         <v>17000</v>
@@ -6799,7 +6876,7 @@
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="17"/>
       <c r="B169" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C169">
         <v>19000</v>
@@ -6818,7 +6895,7 @@
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="17"/>
       <c r="B170" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C170">
         <v>15500</v>
@@ -6837,7 +6914,7 @@
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="17"/>
       <c r="B171" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C171">
         <v>19500</v>
@@ -6855,10 +6932,10 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B172" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C172" s="27">
         <v>25000</v>
@@ -6868,7 +6945,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G172" s="2" t="s">
         <v>16</v>
@@ -6877,7 +6954,7 @@
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="17"/>
       <c r="B173" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C173">
         <v>15000</v>
@@ -6887,7 +6964,7 @@
         <v>1</v>
       </c>
       <c r="F173" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G173" s="2" t="s">
         <v>16</v>
@@ -6896,7 +6973,7 @@
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="17"/>
       <c r="B174" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C174">
         <v>15000</v>
@@ -6906,7 +6983,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G174" s="2" t="s">
         <v>16</v>
@@ -6915,7 +6992,7 @@
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="17"/>
       <c r="B175" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C175">
         <v>25000</v>
@@ -6925,7 +7002,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G175" s="2" t="s">
         <v>16</v>
@@ -6934,7 +7011,7 @@
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="17"/>
       <c r="B176" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C176" s="28">
         <v>20000</v>
@@ -6944,7 +7021,7 @@
         <v>1</v>
       </c>
       <c r="F176" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G176" s="2" t="s">
         <v>16</v>
@@ -6953,7 +7030,7 @@
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="17"/>
       <c r="B177" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C177" s="28">
         <v>20000</v>
@@ -6963,7 +7040,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G177" s="2" t="s">
         <v>16</v>
@@ -6972,7 +7049,7 @@
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="17"/>
       <c r="B178" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C178" s="28">
         <v>20000</v>
@@ -6982,7 +7059,7 @@
         <v>1</v>
       </c>
       <c r="F178" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G178" s="2" t="s">
         <v>16</v>
@@ -6991,7 +7068,7 @@
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="17"/>
       <c r="B179" s="28" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C179" s="28">
         <v>27000</v>
@@ -7001,7 +7078,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G179" s="2" t="s">
         <v>16</v>
@@ -7010,7 +7087,7 @@
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="17"/>
       <c r="B180" s="28" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C180" s="28">
         <v>12000</v>
@@ -7020,7 +7097,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G180" s="2" t="s">
         <v>16</v>
@@ -7029,7 +7106,7 @@
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="17"/>
       <c r="B181" s="28" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C181" s="28">
         <v>20000</v>
@@ -7039,7 +7116,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G181" s="2" t="s">
         <v>16</v>
@@ -7048,7 +7125,7 @@
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="17"/>
       <c r="B182" s="28" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C182" s="28">
         <v>30000</v>
@@ -7067,7 +7144,7 @@
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="17"/>
       <c r="B183" s="28" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C183" s="28">
         <v>27000</v>
@@ -7086,7 +7163,7 @@
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="17"/>
       <c r="B184" s="28" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C184" s="28">
         <v>27000</v>
@@ -7105,7 +7182,7 @@
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="17"/>
       <c r="B185" s="28" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C185" s="28">
         <v>20000</v>
@@ -7124,7 +7201,7 @@
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="17"/>
       <c r="B186" s="28" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C186">
         <v>15000</v>
@@ -7143,7 +7220,7 @@
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="17"/>
       <c r="B187" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C187">
         <v>15000</v>
@@ -7162,7 +7239,7 @@
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="17"/>
       <c r="B188" s="28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C188" s="28">
         <v>27000</v>
@@ -7181,7 +7258,7 @@
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="17"/>
       <c r="B189" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C189" s="28">
         <v>25000</v>
@@ -7200,7 +7277,7 @@
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="17"/>
       <c r="B190" s="28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C190" s="28">
         <v>25000</v>
@@ -7219,7 +7296,7 @@
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="17"/>
       <c r="B191" s="28" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C191" s="28">
         <v>25000</v>
@@ -7238,7 +7315,7 @@
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="17"/>
       <c r="B192" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C192" s="28">
         <v>25000</v>
@@ -7257,7 +7334,7 @@
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="17"/>
       <c r="B193" s="28" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C193" s="28">
         <v>5000</v>
@@ -7276,7 +7353,7 @@
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="17"/>
       <c r="B194" s="28" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C194" s="28">
         <v>5000</v>
@@ -7295,7 +7372,7 @@
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="17"/>
       <c r="B195" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C195" s="28">
         <v>29000</v>
@@ -7314,7 +7391,7 @@
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="17"/>
       <c r="B196" s="28" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C196" s="28">
         <v>35000</v>
@@ -7333,7 +7410,7 @@
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="17"/>
       <c r="B197" s="28" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C197" s="28">
         <v>31000</v>
@@ -7352,7 +7429,7 @@
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="17"/>
       <c r="B198" s="28" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C198" s="28">
         <v>6000</v>
@@ -7371,7 +7448,7 @@
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="17"/>
       <c r="B199" s="28" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C199" s="28">
         <v>10000</v>
@@ -7390,7 +7467,7 @@
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="17"/>
       <c r="B200" s="28" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C200" s="28">
         <v>48000</v>
@@ -7409,7 +7486,7 @@
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="17"/>
       <c r="B201" s="28" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C201" s="28">
         <v>33000</v>
@@ -7428,7 +7505,7 @@
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="17"/>
       <c r="B202" s="28" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C202" s="28">
         <v>38000</v>
@@ -7447,7 +7524,7 @@
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="17"/>
       <c r="B203" s="28" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C203" s="28">
         <v>37000</v>
@@ -7466,7 +7543,7 @@
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="17"/>
       <c r="B204" s="28" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C204" s="28">
         <v>47000</v>
@@ -7485,7 +7562,7 @@
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="17"/>
       <c r="B205" s="28" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C205" s="28">
         <v>57000</v>
@@ -7504,7 +7581,7 @@
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="17"/>
       <c r="B206" s="28" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C206" s="28">
         <v>45000</v>
@@ -7523,7 +7600,7 @@
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="17"/>
       <c r="B207" s="28" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C207" s="28">
         <v>40000</v>
@@ -7542,7 +7619,7 @@
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="17"/>
       <c r="B208" s="28" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C208" s="28">
         <v>35000</v>
@@ -7561,7 +7638,7 @@
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="17"/>
       <c r="B209" s="28" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C209" s="28">
         <v>31000</v>
@@ -7580,7 +7657,7 @@
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="17"/>
       <c r="B210" s="28" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C210" s="28">
         <v>39000</v>
@@ -7599,7 +7676,7 @@
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="17"/>
       <c r="B211" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C211" s="28">
         <v>43000</v>
@@ -7618,7 +7695,7 @@
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="17"/>
       <c r="B212" s="28" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C212" s="28">
         <v>25000</v>
@@ -7637,7 +7714,7 @@
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="17"/>
       <c r="B213" s="28" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C213" s="28">
         <v>33000</v>
@@ -7656,7 +7733,7 @@
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="17"/>
       <c r="B214" s="28" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C214" s="28">
         <v>9000</v>
@@ -7675,7 +7752,7 @@
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="17"/>
       <c r="B215" s="28" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C215" s="28">
         <v>42000</v>
@@ -7694,7 +7771,7 @@
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="17"/>
       <c r="B216" s="28" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C216" s="28">
         <v>25000</v>
@@ -7713,7 +7790,7 @@
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="17"/>
       <c r="B217" s="28" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C217" s="28">
         <v>29000</v>
@@ -7732,7 +7809,7 @@
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="17"/>
       <c r="B218" s="28" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C218" s="28">
         <v>32000</v>
@@ -7751,7 +7828,7 @@
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="17"/>
       <c r="B219" s="28" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C219" s="28">
         <v>51000</v>
@@ -7770,7 +7847,7 @@
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="17"/>
       <c r="B220" s="28" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C220" s="28">
         <v>52000</v>
@@ -7789,7 +7866,7 @@
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="17"/>
       <c r="B221" s="28" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C221" s="28">
         <v>51000</v>
@@ -7808,7 +7885,7 @@
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="17"/>
       <c r="B222" s="28" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C222" s="28">
         <v>60000</v>
@@ -7827,7 +7904,7 @@
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="17"/>
       <c r="B223" s="28" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C223" s="28">
         <v>63000</v>
@@ -7846,7 +7923,7 @@
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="17"/>
       <c r="B224" s="28" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C224" s="28">
         <v>48000</v>
@@ -7865,7 +7942,7 @@
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="17"/>
       <c r="B225" s="28" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C225" s="28">
         <v>49000</v>
@@ -7884,7 +7961,7 @@
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="17"/>
       <c r="B226" s="28" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C226" s="28">
         <v>47000</v>
@@ -7903,7 +7980,7 @@
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="17"/>
       <c r="B227" s="28" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C227" s="28">
         <v>29000</v>
@@ -7922,7 +7999,7 @@
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="17"/>
       <c r="B228" s="28" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C228" s="28">
         <v>48000</v>
@@ -7941,7 +8018,7 @@
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="17"/>
       <c r="B229" s="28" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C229" s="28">
         <v>97000</v>
@@ -7960,7 +8037,7 @@
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="17"/>
       <c r="B230" s="28" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C230">
         <v>49000</v>
@@ -7979,7 +8056,7 @@
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="17"/>
       <c r="B231" s="28" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C231">
         <v>47000</v>
@@ -7998,7 +8075,7 @@
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="17"/>
       <c r="B232" s="28" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C232">
         <v>45000</v>
@@ -8017,7 +8094,7 @@
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="17"/>
       <c r="B233" s="28" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C233">
         <v>37000</v>
@@ -8036,7 +8113,7 @@
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="17"/>
       <c r="B234" s="28" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C234">
         <v>37000</v>
@@ -8055,7 +8132,7 @@
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="17"/>
       <c r="B235" s="28" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C235">
         <v>35000</v>
@@ -8074,7 +8151,7 @@
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="17"/>
       <c r="B236" s="28" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C236">
         <v>29000</v>
@@ -8093,7 +8170,7 @@
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="17"/>
       <c r="B237" s="28" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C237">
         <v>22000</v>
@@ -8112,7 +8189,7 @@
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="17"/>
       <c r="B238" s="28" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C238">
         <v>25000</v>
@@ -8131,7 +8208,7 @@
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="17"/>
       <c r="B239" s="28" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C239">
         <v>27000</v>
@@ -8150,7 +8227,7 @@
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="17"/>
       <c r="B240" s="28" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C240">
         <v>20000</v>
@@ -8169,7 +8246,7 @@
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="17"/>
       <c r="B241" s="28" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C241">
         <v>29000</v>
@@ -8188,7 +8265,7 @@
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="17"/>
       <c r="B242" s="28" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C242">
         <v>25000</v>
@@ -8207,7 +8284,7 @@
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="17"/>
       <c r="B243" s="28" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C243">
         <v>20000</v>
@@ -8226,7 +8303,7 @@
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="17"/>
       <c r="B244" s="28" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C244">
         <v>20000</v>
@@ -8245,7 +8322,7 @@
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="17"/>
       <c r="B245" s="28" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C245">
         <v>20000</v>
@@ -8264,7 +8341,7 @@
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="17"/>
       <c r="B246" s="28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C246">
         <v>22000</v>
@@ -8274,7 +8351,7 @@
         <v>1</v>
       </c>
       <c r="F246" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G246" s="2" t="s">
         <v>16</v>
@@ -8283,7 +8360,7 @@
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="17"/>
       <c r="B247" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C247">
         <v>25000</v>
@@ -8293,7 +8370,7 @@
         <v>1</v>
       </c>
       <c r="F247" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G247" s="2" t="s">
         <v>16</v>
@@ -8302,7 +8379,7 @@
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="17"/>
       <c r="B248" s="28" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C248">
         <v>25000</v>
@@ -8312,7 +8389,7 @@
         <v>1</v>
       </c>
       <c r="F248" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G248" s="2" t="s">
         <v>16</v>
@@ -8321,7 +8398,7 @@
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="17"/>
       <c r="B249" s="28" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C249">
         <v>25000</v>
@@ -8331,7 +8408,7 @@
         <v>1</v>
       </c>
       <c r="F249" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G249" s="2" t="s">
         <v>16</v>
@@ -8340,7 +8417,7 @@
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="17"/>
       <c r="B250" s="28" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C250">
         <v>25000</v>
@@ -8350,7 +8427,7 @@
         <v>1</v>
       </c>
       <c r="F250" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G250" s="2" t="s">
         <v>16</v>
@@ -8359,7 +8436,7 @@
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="17"/>
       <c r="B251" s="28" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C251">
         <v>25000</v>
@@ -8369,7 +8446,7 @@
         <v>1</v>
       </c>
       <c r="F251" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G251" s="2" t="s">
         <v>16</v>
@@ -8378,7 +8455,7 @@
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="17"/>
       <c r="B252" s="28" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C252">
         <v>20000</v>
@@ -8388,7 +8465,7 @@
         <v>1</v>
       </c>
       <c r="F252" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G252" s="2" t="s">
         <v>16</v>
@@ -8397,7 +8474,7 @@
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="17"/>
       <c r="B253" s="28" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C253">
         <v>20000</v>
@@ -8407,7 +8484,7 @@
         <v>1</v>
       </c>
       <c r="F253" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G253" s="2" t="s">
         <v>16</v>
@@ -8416,7 +8493,7 @@
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="17"/>
       <c r="B254" s="28" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C254">
         <v>20000</v>
@@ -8426,7 +8503,7 @@
         <v>1</v>
       </c>
       <c r="F254" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G254" s="2" t="s">
         <v>16</v>
@@ -8435,7 +8512,7 @@
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="17"/>
       <c r="B255" s="28" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C255">
         <v>17000</v>
@@ -8445,7 +8522,7 @@
         <v>1</v>
       </c>
       <c r="F255" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G255" s="2" t="s">
         <v>16</v>
@@ -8454,7 +8531,7 @@
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="17"/>
       <c r="B256" s="28" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C256">
         <v>12000</v>
@@ -8464,7 +8541,7 @@
         <v>1</v>
       </c>
       <c r="F256" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G256" s="2" t="s">
         <v>16</v>
@@ -8473,7 +8550,7 @@
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="17"/>
       <c r="B257" s="28" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C257">
         <v>7000</v>
@@ -8483,7 +8560,7 @@
         <v>1</v>
       </c>
       <c r="F257" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G257" s="2" t="s">
         <v>16</v>
@@ -8492,7 +8569,7 @@
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="17"/>
       <c r="B258" s="28" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C258">
         <v>25000</v>
@@ -8502,7 +8579,7 @@
         <v>1</v>
       </c>
       <c r="F258" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G258" s="2" t="s">
         <v>16</v>
@@ -8511,7 +8588,7 @@
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="17"/>
       <c r="B259" s="28" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C259">
         <v>22000</v>
@@ -8521,7 +8598,7 @@
         <v>1</v>
       </c>
       <c r="F259" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G259" s="2" t="s">
         <v>16</v>
@@ -8530,7 +8607,7 @@
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="17"/>
       <c r="B260" s="28" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C260">
         <v>25000</v>
@@ -8540,7 +8617,7 @@
         <v>1</v>
       </c>
       <c r="F260" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G260" s="2" t="s">
         <v>16</v>
@@ -8549,7 +8626,7 @@
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="17"/>
       <c r="B261" s="28" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C261">
         <v>20000</v>
@@ -8559,7 +8636,7 @@
         <v>1</v>
       </c>
       <c r="F261" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G261" s="2" t="s">
         <v>16</v>
@@ -8568,7 +8645,7 @@
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="17"/>
       <c r="B262" s="28" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C262">
         <v>27000</v>
@@ -8578,7 +8655,7 @@
         <v>1</v>
       </c>
       <c r="F262" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G262" s="2" t="s">
         <v>16</v>
@@ -8587,7 +8664,7 @@
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="17"/>
       <c r="B263" s="28" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C263">
         <v>23000</v>
@@ -8597,7 +8674,7 @@
         <v>1</v>
       </c>
       <c r="F263" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G263" s="2" t="s">
         <v>16</v>
@@ -8606,7 +8683,7 @@
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="17"/>
       <c r="B264" s="28" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C264">
         <v>25000</v>
@@ -8616,7 +8693,7 @@
         <v>1</v>
       </c>
       <c r="F264" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G264" s="2" t="s">
         <v>16</v>
@@ -8625,7 +8702,7 @@
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="17"/>
       <c r="B265" s="28" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C265">
         <v>23000</v>
@@ -8635,7 +8712,7 @@
         <v>1</v>
       </c>
       <c r="F265" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G265" s="2" t="s">
         <v>16</v>
@@ -8644,7 +8721,7 @@
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="17"/>
       <c r="B266" s="28" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C266">
         <v>22000</v>
@@ -8654,7 +8731,7 @@
         <v>1</v>
       </c>
       <c r="F266" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G266" s="2" t="s">
         <v>16</v>
@@ -8663,7 +8740,7 @@
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="17"/>
       <c r="B267" s="28" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C267">
         <v>23000</v>
@@ -8673,7 +8750,7 @@
         <v>1</v>
       </c>
       <c r="F267" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G267" s="2" t="s">
         <v>16</v>
@@ -8682,7 +8759,7 @@
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="17"/>
       <c r="B268" s="28" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C268">
         <v>20000</v>
@@ -8692,7 +8769,7 @@
         <v>1</v>
       </c>
       <c r="F268" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G268" s="2" t="s">
         <v>16</v>
@@ -8701,7 +8778,7 @@
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="17"/>
       <c r="B269" s="28" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C269">
         <v>15000</v>
@@ -8711,7 +8788,7 @@
         <v>1</v>
       </c>
       <c r="F269" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G269" s="2" t="s">
         <v>16</v>
@@ -8720,7 +8797,7 @@
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="17"/>
       <c r="B270" s="28" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C270">
         <v>10000</v>
@@ -8730,7 +8807,7 @@
         <v>1</v>
       </c>
       <c r="F270" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G270" s="2" t="s">
         <v>16</v>
@@ -8739,7 +8816,7 @@
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="17"/>
       <c r="B271" s="28" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C271">
         <v>12000</v>
@@ -8749,7 +8826,7 @@
         <v>1</v>
       </c>
       <c r="F271" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G271" s="2" t="s">
         <v>16</v>
@@ -8758,7 +8835,7 @@
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="17"/>
       <c r="B272" s="28" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C272">
         <v>27000</v>
@@ -8768,7 +8845,7 @@
         <v>1</v>
       </c>
       <c r="F272" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G272" s="2" t="s">
         <v>16</v>
@@ -8777,7 +8854,7 @@
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="17"/>
       <c r="B273" s="28" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C273">
         <v>15000</v>
@@ -8787,7 +8864,7 @@
         <v>1</v>
       </c>
       <c r="F273" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G273" s="2" t="s">
         <v>16</v>
@@ -8796,7 +8873,7 @@
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="17"/>
       <c r="B274" s="28" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C274">
         <v>9000</v>
@@ -8806,7 +8883,7 @@
         <v>1</v>
       </c>
       <c r="F274" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G274" s="2" t="s">
         <v>16</v>
@@ -8815,7 +8892,7 @@
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="17"/>
       <c r="B275" s="28" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C275">
         <v>25000</v>
@@ -8825,7 +8902,7 @@
         <v>1</v>
       </c>
       <c r="F275" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G275" s="2" t="s">
         <v>16</v>
@@ -8834,7 +8911,7 @@
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="17"/>
       <c r="B276" s="28" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C276">
         <v>48000</v>
@@ -8853,7 +8930,7 @@
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="17"/>
       <c r="B277" s="28" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C277">
         <v>33000</v>
@@ -8872,7 +8949,7 @@
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="17"/>
       <c r="B278" s="28" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C278">
         <v>33000</v>
@@ -8891,7 +8968,7 @@
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="17"/>
       <c r="B279" s="28" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C279">
         <v>33000</v>
@@ -8910,7 +8987,7 @@
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="17"/>
       <c r="B280" s="28" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C280">
         <v>33000</v>
@@ -8928,10 +9005,10 @@
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B281" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C281">
         <v>30000</v>
@@ -8950,7 +9027,7 @@
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="17"/>
       <c r="B282" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C282">
         <v>67000</v>
@@ -8969,7 +9046,7 @@
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="17"/>
       <c r="B283" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C283">
         <v>95000</v>
@@ -8988,7 +9065,7 @@
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="17"/>
       <c r="B284" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C284">
         <v>45000</v>
@@ -9007,7 +9084,7 @@
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="17"/>
       <c r="B285" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C285">
         <v>85000</v>
@@ -9026,7 +9103,7 @@
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="17"/>
       <c r="B286" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C286">
         <v>119000</v>
@@ -9045,7 +9122,7 @@
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="17"/>
       <c r="B287" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C287">
         <v>45000</v>
@@ -9064,7 +9141,7 @@
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="17"/>
       <c r="B288" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C288">
         <v>85000</v>
@@ -9083,7 +9160,7 @@
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="17"/>
       <c r="B289" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C289">
         <v>119000</v>
@@ -9102,7 +9179,7 @@
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="17"/>
       <c r="B290" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C290">
         <v>47000</v>
@@ -9121,7 +9198,7 @@
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="17"/>
       <c r="B291" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C291">
         <v>90000</v>
@@ -9140,7 +9217,7 @@
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="17"/>
       <c r="B292" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C292">
         <v>128000</v>
@@ -9159,7 +9236,7 @@
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="17"/>
       <c r="B293" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C293">
         <v>29000</v>
@@ -9169,7 +9246,7 @@
         <v>1</v>
       </c>
       <c r="F293" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G293" t="s">
         <v>18</v>
@@ -9178,7 +9255,7 @@
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="17"/>
       <c r="B294" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C294">
         <v>21000</v>
@@ -9188,7 +9265,7 @@
         <v>1</v>
       </c>
       <c r="F294" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G294" t="s">
         <v>18</v>
@@ -9197,7 +9274,7 @@
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="17"/>
       <c r="B295" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C295">
         <v>28000</v>
@@ -9207,7 +9284,7 @@
         <v>1</v>
       </c>
       <c r="F295" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G295" t="s">
         <v>18</v>
@@ -9216,7 +9293,7 @@
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="17"/>
       <c r="B296" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C296">
         <v>24000</v>
@@ -9226,7 +9303,7 @@
         <v>1</v>
       </c>
       <c r="F296" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G296" t="s">
         <v>18</v>
@@ -9235,7 +9312,7 @@
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="17"/>
       <c r="B297" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C297">
         <v>44000</v>
@@ -9254,7 +9331,7 @@
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="17"/>
       <c r="B298" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C298">
         <v>44000</v>
@@ -9273,7 +9350,7 @@
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="17"/>
       <c r="B299" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C299">
         <v>44000</v>
@@ -9292,7 +9369,7 @@
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="17"/>
       <c r="B300" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C300">
         <v>50000</v>
@@ -9311,7 +9388,7 @@
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="17"/>
       <c r="B301" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C301">
         <v>12000</v>
@@ -9330,7 +9407,7 @@
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="17"/>
       <c r="B302" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C302">
         <v>27000</v>
@@ -9349,7 +9426,7 @@
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="17"/>
       <c r="B303" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C303">
         <v>36000</v>
@@ -9368,7 +9445,7 @@
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="17"/>
       <c r="B304" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C304">
         <v>33000</v>
@@ -9387,7 +9464,7 @@
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="17"/>
       <c r="B305" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C305">
         <v>14000</v>
@@ -9406,7 +9483,7 @@
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="17"/>
       <c r="B306" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C306">
         <v>40000</v>
@@ -9425,7 +9502,7 @@
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="17"/>
       <c r="B307" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C307">
         <v>36000</v>
@@ -9435,7 +9512,7 @@
         <v>1</v>
       </c>
       <c r="F307" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G307" t="s">
         <v>18</v>
@@ -9444,7 +9521,7 @@
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="17"/>
       <c r="B308" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C308">
         <v>36000</v>
@@ -9454,7 +9531,7 @@
         <v>1</v>
       </c>
       <c r="F308" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G308" t="s">
         <v>18</v>
@@ -9463,7 +9540,7 @@
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="17"/>
       <c r="B309" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C309">
         <v>28000</v>
@@ -9473,7 +9550,7 @@
         <v>1</v>
       </c>
       <c r="F309" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G309" t="s">
         <v>18</v>
@@ -9482,7 +9559,7 @@
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="17"/>
       <c r="B310" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C310">
         <v>28000</v>
@@ -9492,7 +9569,7 @@
         <v>1</v>
       </c>
       <c r="F310" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G310" t="s">
         <v>18</v>
@@ -9501,7 +9578,7 @@
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="17"/>
       <c r="B311" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C311">
         <v>24000</v>
@@ -9511,7 +9588,7 @@
         <v>1</v>
       </c>
       <c r="F311" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G311" t="s">
         <v>18</v>
@@ -9520,7 +9597,7 @@
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="17"/>
       <c r="B312" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C312">
         <v>20000</v>
@@ -9530,7 +9607,7 @@
         <v>1</v>
       </c>
       <c r="F312" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G312" t="s">
         <v>18</v>
@@ -9539,7 +9616,7 @@
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="17"/>
       <c r="B313" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C313">
         <v>31000</v>
@@ -9549,7 +9626,7 @@
         <v>1</v>
       </c>
       <c r="F313" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G313" t="s">
         <v>18</v>
@@ -9558,7 +9635,7 @@
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="17"/>
       <c r="B314" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C314">
         <v>22000</v>
@@ -9568,7 +9645,7 @@
         <v>1</v>
       </c>
       <c r="F314" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G314" t="s">
         <v>18</v>
@@ -9577,7 +9654,7 @@
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="17"/>
       <c r="B315" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C315">
         <v>21000</v>
@@ -9587,7 +9664,7 @@
         <v>1</v>
       </c>
       <c r="F315" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G315" t="s">
         <v>18</v>
@@ -9596,7 +9673,7 @@
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="17"/>
       <c r="B316" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C316">
         <v>23000</v>
@@ -9606,7 +9683,7 @@
         <v>1</v>
       </c>
       <c r="F316" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G316" t="s">
         <v>18</v>
@@ -9615,7 +9692,7 @@
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="17"/>
       <c r="B317" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C317">
         <v>17000</v>
@@ -9625,7 +9702,7 @@
         <v>1</v>
       </c>
       <c r="F317" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G317" t="s">
         <v>18</v>
@@ -9634,7 +9711,7 @@
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="17"/>
       <c r="B318" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C318">
         <v>46000</v>
@@ -9653,7 +9730,7 @@
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="17"/>
       <c r="B319" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C319">
         <v>89000</v>
@@ -9672,7 +9749,7 @@
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="17"/>
       <c r="B320" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C320">
         <v>125000</v>
@@ -9691,7 +9768,7 @@
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="17"/>
       <c r="B321" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C321">
         <v>31000</v>
@@ -9710,7 +9787,7 @@
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="17"/>
       <c r="B322" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C322">
         <v>71000</v>
@@ -9729,7 +9806,7 @@
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="17"/>
       <c r="B323" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C323">
         <v>101000</v>
@@ -9748,7 +9825,7 @@
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="17"/>
       <c r="B324" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C324">
         <v>46000</v>
@@ -9767,7 +9844,7 @@
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="17"/>
       <c r="B325" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C325">
         <v>89000</v>
@@ -9786,7 +9863,7 @@
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="17"/>
       <c r="B326" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C326">
         <v>125000</v>
@@ -9805,7 +9882,7 @@
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="17"/>
       <c r="B327" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C327">
         <v>46000</v>
@@ -9824,7 +9901,7 @@
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="17"/>
       <c r="B328" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C328">
         <v>89000</v>
@@ -9843,7 +9920,7 @@
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="17"/>
       <c r="B329" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C329">
         <v>125000</v>
@@ -9862,7 +9939,7 @@
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="17"/>
       <c r="B330" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C330">
         <v>48000</v>
@@ -9881,7 +9958,7 @@
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="17"/>
       <c r="B331" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C331">
         <v>94000</v>
@@ -9900,7 +9977,7 @@
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="17"/>
       <c r="B332" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C332">
         <v>134000</v>
@@ -9919,7 +9996,7 @@
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="17"/>
       <c r="B333" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C333">
         <v>47000</v>
@@ -9938,7 +10015,7 @@
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="17"/>
       <c r="B334" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C334">
         <v>90000</v>
@@ -9957,7 +10034,7 @@
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="17"/>
       <c r="B335" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C335">
         <v>128000</v>
@@ -9976,7 +10053,7 @@
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="17"/>
       <c r="B336" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C336">
         <v>30000</v>
@@ -9995,7 +10072,7 @@
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="17"/>
       <c r="B337" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C337">
         <v>67000</v>
@@ -10014,7 +10091,7 @@
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="17"/>
       <c r="B338" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C338">
         <v>95000</v>
@@ -10033,7 +10110,7 @@
     <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="17"/>
       <c r="B339" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C339">
         <v>45000</v>
@@ -10052,7 +10129,7 @@
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="17"/>
       <c r="B340" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C340">
         <v>85000</v>
@@ -10071,7 +10148,7 @@
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="17"/>
       <c r="B341" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C341">
         <v>119000</v>
@@ -10090,7 +10167,7 @@
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="17"/>
       <c r="B342" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C342">
         <v>45000</v>
@@ -10109,7 +10186,7 @@
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="17"/>
       <c r="B343" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C343">
         <v>85000</v>
@@ -10128,7 +10205,7 @@
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="17"/>
       <c r="B344" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C344">
         <v>119000</v>
@@ -10147,7 +10224,7 @@
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="17"/>
       <c r="B345" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C345">
         <v>45000</v>
@@ -10166,7 +10243,7 @@
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="17"/>
       <c r="B346" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C346">
         <v>85000</v>
@@ -10185,7 +10262,7 @@
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="17"/>
       <c r="B347" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C347">
         <v>119000</v>
@@ -10204,7 +10281,7 @@
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="17"/>
       <c r="B348" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C348">
         <v>30000</v>
@@ -10223,7 +10300,7 @@
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="17"/>
       <c r="B349" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C349">
         <v>67000</v>
@@ -10242,7 +10319,7 @@
     <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="17"/>
       <c r="B350" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C350">
         <v>95000</v>
@@ -10261,7 +10338,7 @@
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="17"/>
       <c r="B351" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C351">
         <v>45000</v>
@@ -10280,7 +10357,7 @@
     <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="17"/>
       <c r="B352" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C352">
         <v>85000</v>
@@ -10299,7 +10376,7 @@
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="17"/>
       <c r="B353" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C353">
         <v>119000</v>
@@ -10318,7 +10395,7 @@
     <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="17"/>
       <c r="B354" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C354">
         <v>45000</v>
@@ -10337,7 +10414,7 @@
     <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="17"/>
       <c r="B355" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C355">
         <v>85000</v>
@@ -10356,7 +10433,7 @@
     <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="17"/>
       <c r="B356" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C356">
         <v>119000</v>
@@ -10375,7 +10452,7 @@
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="17"/>
       <c r="B357" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C357">
         <v>45000</v>
@@ -10394,7 +10471,7 @@
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="17"/>
       <c r="B358" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C358">
         <v>85000</v>
@@ -10413,7 +10490,7 @@
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="17"/>
       <c r="B359" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C359">
         <v>119000</v>
@@ -10432,7 +10509,7 @@
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="17"/>
       <c r="B360" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C360">
         <v>47000</v>
@@ -10451,7 +10528,7 @@
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" s="17"/>
       <c r="B361" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C361">
         <v>90000</v>
@@ -10470,7 +10547,7 @@
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="17"/>
       <c r="B362" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C362">
         <v>128000</v>
@@ -10489,7 +10566,7 @@
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="17"/>
       <c r="B363" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C363">
         <v>30000</v>
@@ -10508,7 +10585,7 @@
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="17"/>
       <c r="B364" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C364">
         <v>67000</v>
@@ -10527,7 +10604,7 @@
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="17"/>
       <c r="B365" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C365">
         <v>95000</v>
@@ -10546,7 +10623,7 @@
     <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="17"/>
       <c r="B366" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C366">
         <v>45000</v>
@@ -10565,7 +10642,7 @@
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="17"/>
       <c r="B367" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C367">
         <v>85000</v>
@@ -10584,7 +10661,7 @@
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="17"/>
       <c r="B368" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C368">
         <v>119000</v>
@@ -10603,7 +10680,7 @@
     <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="17"/>
       <c r="B369" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C369">
         <v>45000</v>
@@ -10622,7 +10699,7 @@
     <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" s="17"/>
       <c r="B370" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C370">
         <v>85000</v>
@@ -10641,7 +10718,7 @@
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="17"/>
       <c r="B371" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C371">
         <v>119000</v>
@@ -10660,7 +10737,7 @@
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="17"/>
       <c r="B372" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C372">
         <v>47000</v>
@@ -10679,7 +10756,7 @@
     <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" s="17"/>
       <c r="B373" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C373">
         <v>90000</v>
@@ -10698,7 +10775,7 @@
     <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" s="17"/>
       <c r="B374" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C374">
         <v>128000</v>
@@ -10717,7 +10794,7 @@
     <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" s="17"/>
       <c r="B375" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C375">
         <v>45000</v>
@@ -10736,7 +10813,7 @@
     <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" s="17"/>
       <c r="B376" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C376">
         <v>85000</v>
@@ -10755,7 +10832,7 @@
     <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" s="17"/>
       <c r="B377" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C377">
         <v>119000</v>
@@ -10774,7 +10851,7 @@
     <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" s="17"/>
       <c r="B378" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C378">
         <v>45000</v>
@@ -10793,7 +10870,7 @@
     <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="17"/>
       <c r="B379" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C379">
         <v>85000</v>
@@ -10812,7 +10889,7 @@
     <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" s="17"/>
       <c r="B380" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C380">
         <v>119000</v>
@@ -10831,7 +10908,7 @@
     <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="17"/>
       <c r="B381" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C381">
         <v>30000</v>
@@ -10850,7 +10927,7 @@
     <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" s="17"/>
       <c r="B382" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C382">
         <v>67000</v>
@@ -10869,7 +10946,7 @@
     <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" s="17"/>
       <c r="B383" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C383">
         <v>119000</v>
@@ -10888,7 +10965,7 @@
     <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" s="17"/>
       <c r="B384" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C384">
         <v>45000</v>
@@ -10907,7 +10984,7 @@
     <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" s="17"/>
       <c r="B385" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C385">
         <v>85000</v>
@@ -10926,7 +11003,7 @@
     <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" s="17"/>
       <c r="B386" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C386">
         <v>119000</v>
@@ -10945,7 +11022,7 @@
     <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" s="17"/>
       <c r="B387" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C387">
         <v>45000</v>
@@ -10964,7 +11041,7 @@
     <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" s="17"/>
       <c r="B388" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C388">
         <v>85000</v>
@@ -10983,7 +11060,7 @@
     <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" s="17"/>
       <c r="B389" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C389">
         <v>119000</v>
@@ -11002,7 +11079,7 @@
     <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" s="17"/>
       <c r="B390" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C390">
         <v>47000</v>
@@ -11021,7 +11098,7 @@
     <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" s="17"/>
       <c r="B391" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C391">
         <v>90000</v>
@@ -11040,7 +11117,7 @@
     <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" s="17"/>
       <c r="B392" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C392">
         <v>128000</v>
@@ -11059,7 +11136,7 @@
     <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" s="17"/>
       <c r="B393" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C393">
         <v>45000</v>
@@ -11078,7 +11155,7 @@
     <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" s="17"/>
       <c r="B394" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C394">
         <v>85000</v>
@@ -11097,7 +11174,7 @@
     <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" s="17"/>
       <c r="B395" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C395">
         <v>119000</v>
@@ -11116,7 +11193,7 @@
     <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" s="17"/>
       <c r="B396" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C396">
         <v>30000</v>
@@ -11135,7 +11212,7 @@
     <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" s="17"/>
       <c r="B397" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C397">
         <v>67000</v>
@@ -11154,7 +11231,7 @@
     <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" s="17"/>
       <c r="B398" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C398">
         <v>95000</v>
@@ -11173,7 +11250,7 @@
     <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" s="17"/>
       <c r="B399" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C399">
         <v>45000</v>
@@ -11192,7 +11269,7 @@
     <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" s="17"/>
       <c r="B400" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C400">
         <v>85000</v>
@@ -11211,7 +11288,7 @@
     <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" s="17"/>
       <c r="B401" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C401">
         <v>119000</v>
@@ -11230,7 +11307,7 @@
     <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" s="17"/>
       <c r="B402" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C402">
         <v>45000</v>
@@ -11249,7 +11326,7 @@
     <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" s="17"/>
       <c r="B403" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C403">
         <v>85000</v>
@@ -11268,7 +11345,7 @@
     <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" s="17"/>
       <c r="B404" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C404">
         <v>119000</v>
@@ -11287,7 +11364,7 @@
     <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" s="17"/>
       <c r="B405" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C405">
         <v>47000</v>
@@ -11306,7 +11383,7 @@
     <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" s="17"/>
       <c r="B406" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C406">
         <v>90000</v>
@@ -11325,7 +11402,7 @@
     <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" s="17"/>
       <c r="B407" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C407">
         <v>128000</v>
@@ -11344,7 +11421,7 @@
     <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" s="17"/>
       <c r="B408" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C408">
         <v>85000</v>
@@ -11363,7 +11440,7 @@
     <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" s="17"/>
       <c r="B409" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C409">
         <v>67000</v>
@@ -11382,7 +11459,7 @@
     <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" s="17"/>
       <c r="B410" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C410">
         <v>85000</v>
@@ -11401,7 +11478,7 @@
     <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" s="17"/>
       <c r="B411" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C411">
         <v>85000</v>
@@ -11420,7 +11497,7 @@
     <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" s="17"/>
       <c r="B412" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C412">
         <v>90000</v>
@@ -11439,7 +11516,7 @@
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" s="17"/>
       <c r="B413" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C413">
         <v>29000</v>
@@ -11458,7 +11535,7 @@
     <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" s="17"/>
       <c r="B414" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C414">
         <v>64000</v>
@@ -11477,7 +11554,7 @@
     <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" s="17"/>
       <c r="B415" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C415">
         <v>91000</v>
@@ -11496,7 +11573,7 @@
     <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" s="17"/>
       <c r="B416" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C416">
         <v>44000</v>
@@ -11515,7 +11592,7 @@
     <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" s="17"/>
       <c r="B417" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C417">
         <v>82000</v>
@@ -11534,7 +11611,7 @@
     <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" s="17"/>
       <c r="B418" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C418">
         <v>115000</v>
@@ -11553,7 +11630,7 @@
     <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" s="17"/>
       <c r="B419" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C419">
         <v>44000</v>
@@ -11572,7 +11649,7 @@
     <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" s="17"/>
       <c r="B420" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C420">
         <v>82000</v>
@@ -11591,7 +11668,7 @@
     <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" s="17"/>
       <c r="B421" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C421">
         <v>115000</v>
@@ -11610,7 +11687,7 @@
     <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" s="17"/>
       <c r="B422" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C422">
         <v>44000</v>
@@ -11629,7 +11706,7 @@
     <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" s="17"/>
       <c r="B423" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C423">
         <v>82000</v>
@@ -11648,7 +11725,7 @@
     <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" s="17"/>
       <c r="B424" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C424">
         <v>115000</v>
@@ -11667,7 +11744,7 @@
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" s="17"/>
       <c r="B425" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C425">
         <v>46000</v>
@@ -11686,7 +11763,7 @@
     <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" s="17"/>
       <c r="B426" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C426">
         <v>87000</v>
@@ -11705,7 +11782,7 @@
     <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" s="17"/>
       <c r="B427" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C427">
         <v>124000</v>
@@ -11724,7 +11801,7 @@
     <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" s="17"/>
       <c r="B428" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C428">
         <v>7000</v>
@@ -11734,7 +11811,7 @@
         <v>1</v>
       </c>
       <c r="F428" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G428" t="s">
         <v>18</v>
@@ -11743,7 +11820,7 @@
     <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" s="17"/>
       <c r="B429" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C429">
         <v>7000</v>
@@ -11753,7 +11830,7 @@
         <v>1</v>
       </c>
       <c r="F429" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G429" t="s">
         <v>18</v>
@@ -11762,7 +11839,7 @@
     <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" s="17"/>
       <c r="B430" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C430">
         <v>7000</v>
@@ -11772,7 +11849,7 @@
         <v>1</v>
       </c>
       <c r="F430" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G430" t="s">
         <v>18</v>
@@ -11781,7 +11858,7 @@
     <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" s="17"/>
       <c r="B431" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C431">
         <v>7000</v>
@@ -11791,7 +11868,7 @@
         <v>1</v>
       </c>
       <c r="F431" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G431" t="s">
         <v>18</v>
@@ -11800,7 +11877,7 @@
     <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" s="17"/>
       <c r="B432" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C432">
         <v>7000</v>
@@ -11810,7 +11887,7 @@
         <v>1</v>
       </c>
       <c r="F432" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G432" t="s">
         <v>18</v>
@@ -11819,7 +11896,7 @@
     <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" s="17"/>
       <c r="B433" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C433">
         <v>7000</v>
@@ -11829,7 +11906,7 @@
         <v>1</v>
       </c>
       <c r="F433" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G433" t="s">
         <v>18</v>
@@ -11838,7 +11915,7 @@
     <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" s="17"/>
       <c r="B434" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C434">
         <v>7000</v>
@@ -11848,7 +11925,7 @@
         <v>1</v>
       </c>
       <c r="F434" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G434" t="s">
         <v>18</v>
@@ -11857,7 +11934,7 @@
     <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" s="17"/>
       <c r="B435" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C435">
         <v>7000</v>
@@ -11867,7 +11944,7 @@
         <v>1</v>
       </c>
       <c r="F435" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G435" t="s">
         <v>18</v>
@@ -11876,7 +11953,7 @@
     <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" s="17"/>
       <c r="B436" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C436">
         <v>7000</v>
@@ -11886,7 +11963,7 @@
         <v>1</v>
       </c>
       <c r="F436" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G436" t="s">
         <v>18</v>
@@ -11895,7 +11972,7 @@
     <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" s="17"/>
       <c r="B437" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C437">
         <v>7000</v>
@@ -11905,7 +11982,7 @@
         <v>1</v>
       </c>
       <c r="F437" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G437" t="s">
         <v>18</v>
@@ -11914,7 +11991,7 @@
     <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" s="17"/>
       <c r="B438" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C438">
         <v>9000</v>
@@ -11924,7 +12001,7 @@
         <v>1</v>
       </c>
       <c r="F438" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G438" t="s">
         <v>18</v>
@@ -11933,7 +12010,7 @@
     <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" s="17"/>
       <c r="B439" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C439">
         <v>9000</v>
@@ -11943,7 +12020,7 @@
         <v>1</v>
       </c>
       <c r="F439" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G439" t="s">
         <v>18</v>
@@ -11952,7 +12029,7 @@
     <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" s="17"/>
       <c r="B440" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C440">
         <v>9000</v>
@@ -11962,7 +12039,7 @@
         <v>1</v>
       </c>
       <c r="F440" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G440" t="s">
         <v>18</v>
@@ -11971,7 +12048,7 @@
     <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" s="17"/>
       <c r="B441" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C441">
         <v>9000</v>
@@ -11981,7 +12058,7 @@
         <v>1</v>
       </c>
       <c r="F441" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G441" t="s">
         <v>18</v>
@@ -11990,7 +12067,7 @@
     <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" s="17"/>
       <c r="B442" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C442">
         <v>9000</v>
@@ -12000,7 +12077,7 @@
         <v>1</v>
       </c>
       <c r="F442" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G442" t="s">
         <v>18</v>
@@ -12009,7 +12086,7 @@
     <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" s="17"/>
       <c r="B443" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C443">
         <v>9000</v>
@@ -12019,7 +12096,7 @@
         <v>1</v>
       </c>
       <c r="F443" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G443" t="s">
         <v>18</v>
@@ -12028,7 +12105,7 @@
     <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" s="17"/>
       <c r="B444" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C444">
         <v>9000</v>
@@ -12038,7 +12115,7 @@
         <v>1</v>
       </c>
       <c r="F444" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G444" t="s">
         <v>18</v>
@@ -12047,7 +12124,7 @@
     <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" s="17"/>
       <c r="B445" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C445">
         <v>9000</v>
@@ -12057,7 +12134,7 @@
         <v>1</v>
       </c>
       <c r="F445" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G445" t="s">
         <v>18</v>
@@ -12066,7 +12143,7 @@
     <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" s="17"/>
       <c r="B446" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C446">
         <v>9000</v>
@@ -12076,7 +12153,7 @@
         <v>1</v>
       </c>
       <c r="F446" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G446" t="s">
         <v>18</v>
@@ -12085,7 +12162,7 @@
     <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" s="17"/>
       <c r="B447" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C447">
         <v>9000</v>
@@ -12095,7 +12172,7 @@
         <v>1</v>
       </c>
       <c r="F447" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G447" t="s">
         <v>18</v>
@@ -12104,7 +12181,7 @@
     <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" s="17"/>
       <c r="B448" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C448">
         <v>11000</v>
@@ -12114,7 +12191,7 @@
         <v>1</v>
       </c>
       <c r="F448" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G448" t="s">
         <v>18</v>
@@ -12123,7 +12200,7 @@
     <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" s="17"/>
       <c r="B449" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C449">
         <v>11000</v>
@@ -12133,7 +12210,7 @@
         <v>1</v>
       </c>
       <c r="F449" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G449" t="s">
         <v>18</v>
@@ -12142,7 +12219,7 @@
     <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" s="17"/>
       <c r="B450" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C450">
         <v>11000</v>
@@ -12152,7 +12229,7 @@
         <v>1</v>
       </c>
       <c r="F450" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G450" t="s">
         <v>18</v>
@@ -12161,7 +12238,7 @@
     <row r="451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A451" s="17"/>
       <c r="B451" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C451">
         <v>11000</v>
@@ -12171,7 +12248,7 @@
         <v>1</v>
       </c>
       <c r="F451" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G451" t="s">
         <v>18</v>
@@ -12180,7 +12257,7 @@
     <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" s="17"/>
       <c r="B452" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C452">
         <v>11000</v>
@@ -12190,7 +12267,7 @@
         <v>1</v>
       </c>
       <c r="F452" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G452" t="s">
         <v>18</v>
@@ -12199,7 +12276,7 @@
     <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453" s="17"/>
       <c r="B453" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C453">
         <v>11000</v>
@@ -12209,7 +12286,7 @@
         <v>1</v>
       </c>
       <c r="F453" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G453" t="s">
         <v>18</v>
@@ -12218,7 +12295,7 @@
     <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" s="17"/>
       <c r="B454" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C454">
         <v>11000</v>
@@ -12228,7 +12305,7 @@
         <v>1</v>
       </c>
       <c r="F454" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G454" t="s">
         <v>18</v>
@@ -12237,7 +12314,7 @@
     <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" s="17"/>
       <c r="B455" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C455">
         <v>11000</v>
@@ -12247,7 +12324,7 @@
         <v>1</v>
       </c>
       <c r="F455" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G455" t="s">
         <v>18</v>
@@ -12256,7 +12333,7 @@
     <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" s="17"/>
       <c r="B456" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C456">
         <v>11000</v>
@@ -12266,7 +12343,7 @@
         <v>1</v>
       </c>
       <c r="F456" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G456" t="s">
         <v>18</v>
@@ -12275,7 +12352,7 @@
     <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" s="17"/>
       <c r="B457" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C457">
         <v>11000</v>
@@ -12285,7 +12362,7 @@
         <v>1</v>
       </c>
       <c r="F457" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G457" t="s">
         <v>18</v>
@@ -12294,7 +12371,7 @@
     <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458" s="17"/>
       <c r="B458" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C458">
         <v>8000</v>
@@ -12304,7 +12381,7 @@
         <v>1</v>
       </c>
       <c r="F458" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G458" t="s">
         <v>18</v>
@@ -12313,7 +12390,7 @@
     <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" s="17"/>
       <c r="B459" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C459">
         <v>8000</v>
@@ -12323,7 +12400,7 @@
         <v>1</v>
       </c>
       <c r="F459" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G459" t="s">
         <v>18</v>
@@ -12332,7 +12409,7 @@
     <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460" s="17"/>
       <c r="B460" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C460">
         <v>8000</v>
@@ -12342,7 +12419,7 @@
         <v>1</v>
       </c>
       <c r="F460" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G460" t="s">
         <v>18</v>
@@ -12351,7 +12428,7 @@
     <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461" s="17"/>
       <c r="B461" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C461">
         <v>10000</v>
@@ -12361,7 +12438,7 @@
         <v>1</v>
       </c>
       <c r="F461" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G461" t="s">
         <v>18</v>
@@ -12370,7 +12447,7 @@
     <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462" s="17"/>
       <c r="B462" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C462">
         <v>10000</v>
@@ -12380,7 +12457,7 @@
         <v>1</v>
       </c>
       <c r="F462" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G462" t="s">
         <v>18</v>
@@ -12389,7 +12466,7 @@
     <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463" s="17"/>
       <c r="B463" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C463">
         <v>10000</v>
@@ -12399,7 +12476,7 @@
         <v>1</v>
       </c>
       <c r="F463" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G463" t="s">
         <v>18</v>
@@ -12408,7 +12485,7 @@
     <row r="464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A464" s="17"/>
       <c r="B464" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C464">
         <v>12000</v>
@@ -12418,7 +12495,7 @@
         <v>1</v>
       </c>
       <c r="F464" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G464" t="s">
         <v>18</v>
@@ -12427,7 +12504,7 @@
     <row r="465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465" s="17"/>
       <c r="B465" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C465">
         <v>12000</v>
@@ -12437,7 +12514,7 @@
         <v>1</v>
       </c>
       <c r="F465" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G465" t="s">
         <v>18</v>
@@ -12446,7 +12523,7 @@
     <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" s="17"/>
       <c r="B466" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C466">
         <v>12000</v>
@@ -12456,7 +12533,7 @@
         <v>1</v>
       </c>
       <c r="F466" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G466" t="s">
         <v>18</v>
@@ -12465,7 +12542,7 @@
     <row r="467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467" s="17"/>
       <c r="B467" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C467">
         <v>12000</v>
@@ -12475,7 +12552,7 @@
         <v>1</v>
       </c>
       <c r="F467" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G467" t="s">
         <v>18</v>
@@ -12484,7 +12561,7 @@
     <row r="468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A468" s="17"/>
       <c r="B468" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C468">
         <v>12000</v>
@@ -12494,7 +12571,7 @@
         <v>1</v>
       </c>
       <c r="F468" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G468" t="s">
         <v>18</v>
@@ -12503,7 +12580,7 @@
     <row r="469" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A469" s="17"/>
       <c r="B469" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C469">
         <v>12000</v>
@@ -12513,7 +12590,7 @@
         <v>1</v>
       </c>
       <c r="F469" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G469" t="s">
         <v>18</v>
@@ -12522,7 +12599,7 @@
     <row r="470" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A470" s="17"/>
       <c r="B470" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C470">
         <v>12000</v>
@@ -12532,7 +12609,7 @@
         <v>1</v>
       </c>
       <c r="F470" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G470" t="s">
         <v>18</v>
@@ -12541,7 +12618,7 @@
     <row r="471" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A471" s="17"/>
       <c r="B471" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C471">
         <v>12000</v>
@@ -12551,7 +12628,7 @@
         <v>1</v>
       </c>
       <c r="F471" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G471" t="s">
         <v>18</v>
@@ -12560,7 +12637,7 @@
     <row r="472" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A472" s="17"/>
       <c r="B472" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C472">
         <v>12000</v>
@@ -12570,7 +12647,7 @@
         <v>1</v>
       </c>
       <c r="F472" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G472" t="s">
         <v>18</v>
@@ -12579,7 +12656,7 @@
     <row r="473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A473" s="17"/>
       <c r="B473" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C473">
         <v>15000</v>
@@ -12589,7 +12666,7 @@
         <v>1</v>
       </c>
       <c r="F473" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G473" t="s">
         <v>18</v>
@@ -12598,7 +12675,7 @@
     <row r="474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A474" s="17"/>
       <c r="B474" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C474">
         <v>15000</v>
@@ -12608,7 +12685,7 @@
         <v>1</v>
       </c>
       <c r="F474" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G474" t="s">
         <v>18</v>
@@ -12617,7 +12694,7 @@
     <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475" s="17"/>
       <c r="B475" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C475">
         <v>15000</v>
@@ -12627,7 +12704,7 @@
         <v>1</v>
       </c>
       <c r="F475" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G475" t="s">
         <v>18</v>
@@ -12636,7 +12713,7 @@
     <row r="476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A476" s="17"/>
       <c r="B476" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C476">
         <v>15000</v>
@@ -12646,7 +12723,7 @@
         <v>1</v>
       </c>
       <c r="F476" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G476" t="s">
         <v>18</v>
@@ -12655,7 +12732,7 @@
     <row r="477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A477" s="17"/>
       <c r="B477" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C477">
         <v>15000</v>
@@ -12665,7 +12742,7 @@
         <v>1</v>
       </c>
       <c r="F477" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G477" t="s">
         <v>18</v>
@@ -12674,7 +12751,7 @@
     <row r="478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A478" s="17"/>
       <c r="B478" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C478">
         <v>15000</v>
@@ -12684,7 +12761,7 @@
         <v>1</v>
       </c>
       <c r="F478" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G478" t="s">
         <v>18</v>
@@ -12693,7 +12770,7 @@
     <row r="479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A479" s="17"/>
       <c r="B479" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C479">
         <v>18000</v>
@@ -12703,7 +12780,7 @@
         <v>1</v>
       </c>
       <c r="F479" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G479" t="s">
         <v>18</v>
@@ -12712,7 +12789,7 @@
     <row r="480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A480" s="17"/>
       <c r="B480" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C480">
         <v>18000</v>
@@ -12722,7 +12799,7 @@
         <v>1</v>
       </c>
       <c r="F480" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G480" t="s">
         <v>18</v>
@@ -12731,7 +12808,7 @@
     <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" s="17"/>
       <c r="B481" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C481">
         <v>18000</v>
@@ -12741,7 +12818,7 @@
         <v>1</v>
       </c>
       <c r="F481" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G481" t="s">
         <v>18</v>
@@ -12750,7 +12827,7 @@
     <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482" s="17"/>
       <c r="B482" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C482">
         <v>18000</v>
@@ -12760,7 +12837,7 @@
         <v>1</v>
       </c>
       <c r="F482" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G482" t="s">
         <v>18</v>
@@ -12769,7 +12846,7 @@
     <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" s="17"/>
       <c r="B483" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C483">
         <v>18000</v>
@@ -12779,7 +12856,7 @@
         <v>1</v>
       </c>
       <c r="F483" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G483" t="s">
         <v>18</v>
@@ -12788,7 +12865,7 @@
     <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484" s="17"/>
       <c r="B484" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C484">
         <v>18000</v>
@@ -12798,7 +12875,7 @@
         <v>1</v>
       </c>
       <c r="F484" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G484" t="s">
         <v>18</v>
@@ -12807,7 +12884,7 @@
     <row r="485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A485" s="17"/>
       <c r="B485" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C485">
         <v>36000</v>
@@ -12826,7 +12903,7 @@
     <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486" s="17"/>
       <c r="B486" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C486">
         <v>36000</v>
@@ -12845,7 +12922,7 @@
     <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487" s="17"/>
       <c r="B487" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C487">
         <v>36000</v>
@@ -12864,7 +12941,7 @@
     <row r="488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488" s="17"/>
       <c r="B488" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C488">
         <v>44000</v>
@@ -12883,7 +12960,7 @@
     <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489" s="17"/>
       <c r="B489" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C489">
         <v>44000</v>
@@ -12902,7 +12979,7 @@
     <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490" s="17"/>
       <c r="B490" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C490">
         <v>44000</v>
@@ -12921,7 +12998,7 @@
     <row r="491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A491" s="17"/>
       <c r="B491" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C491">
         <v>41000</v>
@@ -12940,7 +13017,7 @@
     <row r="492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A492" s="17"/>
       <c r="B492" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C492">
         <v>44000</v>
@@ -12959,7 +13036,7 @@
     <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493" s="17"/>
       <c r="B493" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C493">
         <v>44000</v>
@@ -12978,7 +13055,7 @@
     <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494" s="17"/>
       <c r="B494" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C494">
         <v>44000</v>
@@ -12997,7 +13074,7 @@
     <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495" s="17"/>
       <c r="B495" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C495">
         <v>48000</v>
@@ -13016,7 +13093,7 @@
     <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" s="17"/>
       <c r="B496" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C496">
         <v>32000</v>
@@ -13035,7 +13112,7 @@
     <row r="497" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A497" s="17"/>
       <c r="B497" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C497">
         <v>32000</v>
@@ -13054,7 +13131,7 @@
     <row r="498" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A498" s="17"/>
       <c r="B498" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C498">
         <v>19000</v>
@@ -13073,7 +13150,7 @@
     <row r="499" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A499" s="17"/>
       <c r="B499" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C499">
         <v>18000</v>
@@ -13092,7 +13169,7 @@
     <row r="500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A500" s="17"/>
       <c r="B500" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C500">
         <v>32000</v>
@@ -13111,7 +13188,7 @@
     <row r="501" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A501" s="17"/>
       <c r="B501" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C501">
         <v>32000</v>
@@ -13130,7 +13207,7 @@
     <row r="502" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A502" s="17"/>
       <c r="B502" s="29" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C502"/>
       <c r="D502"/>
@@ -13141,7 +13218,7 @@
     <row r="503" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A503" s="17"/>
       <c r="B503" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C503">
         <v>25000</v>
@@ -13151,7 +13228,7 @@
         <v>1</v>
       </c>
       <c r="F503" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G503" t="s">
         <v>18</v>
@@ -13160,7 +13237,7 @@
     <row r="504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A504" s="17"/>
       <c r="B504" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C504">
         <v>25000</v>
@@ -13170,7 +13247,7 @@
         <v>1</v>
       </c>
       <c r="F504" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G504" t="s">
         <v>18</v>
@@ -13179,7 +13256,7 @@
     <row r="505" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A505" s="17"/>
       <c r="B505" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C505">
         <v>25000</v>
@@ -13189,7 +13266,7 @@
         <v>1</v>
       </c>
       <c r="F505" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G505" t="s">
         <v>18</v>
@@ -13198,7 +13275,7 @@
     <row r="506" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A506" s="17"/>
       <c r="B506" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C506">
         <v>25000</v>
@@ -13208,7 +13285,7 @@
         <v>1</v>
       </c>
       <c r="F506" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G506" t="s">
         <v>18</v>
@@ -13217,7 +13294,7 @@
     <row r="507" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A507" s="17"/>
       <c r="B507" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C507">
         <v>25000</v>
@@ -13227,7 +13304,7 @@
         <v>1</v>
       </c>
       <c r="F507" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G507" t="s">
         <v>18</v>
@@ -13236,7 +13313,7 @@
     <row r="508" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A508" s="17"/>
       <c r="B508" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C508">
         <v>25000</v>
@@ -13246,7 +13323,7 @@
         <v>1</v>
       </c>
       <c r="F508" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G508" t="s">
         <v>18</v>
@@ -13255,7 +13332,7 @@
     <row r="509" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A509" s="17"/>
       <c r="B509" s="29" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C509"/>
       <c r="D509"/>
@@ -13266,7 +13343,7 @@
     <row r="510" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A510" s="17"/>
       <c r="B510" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C510">
         <v>26000</v>
@@ -13276,7 +13353,7 @@
         <v>1</v>
       </c>
       <c r="F510" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G510" t="s">
         <v>18</v>
@@ -13285,7 +13362,7 @@
     <row r="511" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A511" s="17"/>
       <c r="B511" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C511">
         <v>26000</v>
@@ -13295,7 +13372,7 @@
         <v>1</v>
       </c>
       <c r="F511" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G511" t="s">
         <v>18</v>
@@ -13304,7 +13381,7 @@
     <row r="512" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A512" s="17"/>
       <c r="B512" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C512">
         <v>26000</v>
@@ -13314,7 +13391,7 @@
         <v>1</v>
       </c>
       <c r="F512" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G512" t="s">
         <v>18</v>
@@ -13323,7 +13400,7 @@
     <row r="513" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A513" s="17"/>
       <c r="B513" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C513">
         <v>26000</v>
@@ -13333,7 +13410,7 @@
         <v>1</v>
       </c>
       <c r="F513" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G513" t="s">
         <v>18</v>
@@ -13342,7 +13419,7 @@
     <row r="514" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A514" s="17"/>
       <c r="B514" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C514">
         <v>26000</v>
@@ -13352,7 +13429,7 @@
         <v>1</v>
       </c>
       <c r="F514" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G514" t="s">
         <v>18</v>
@@ -13361,7 +13438,7 @@
     <row r="515" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A515" s="17"/>
       <c r="B515" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C515"/>
       <c r="D515"/>
@@ -13372,7 +13449,7 @@
     <row r="516" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A516" s="17"/>
       <c r="B516" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C516">
         <v>25000</v>
@@ -13382,7 +13459,7 @@
         <v>1</v>
       </c>
       <c r="F516" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G516" t="s">
         <v>18</v>
@@ -13391,7 +13468,7 @@
     <row r="517" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A517" s="17"/>
       <c r="B517" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C517">
         <v>25000</v>
@@ -13401,7 +13478,7 @@
         <v>1</v>
       </c>
       <c r="F517" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G517" t="s">
         <v>18</v>
@@ -13410,7 +13487,7 @@
     <row r="518" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A518" s="17"/>
       <c r="B518" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C518">
         <v>20000</v>
@@ -13420,7 +13497,7 @@
         <v>1</v>
       </c>
       <c r="F518" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G518" t="s">
         <v>18</v>
@@ -13429,7 +13506,7 @@
     <row r="519" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A519" s="17"/>
       <c r="B519" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C519">
         <v>20000</v>
@@ -13439,7 +13516,7 @@
         <v>1</v>
       </c>
       <c r="F519" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G519" t="s">
         <v>18</v>
@@ -13448,7 +13525,7 @@
     <row r="520" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A520" s="17"/>
       <c r="B520" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C520">
         <v>20000</v>
@@ -13458,7 +13535,7 @@
         <v>1</v>
       </c>
       <c r="F520" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G520" t="s">
         <v>18</v>
@@ -13467,7 +13544,7 @@
     <row r="521" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A521" s="17"/>
       <c r="B521" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C521">
         <v>23000</v>
@@ -13477,7 +13554,7 @@
         <v>1</v>
       </c>
       <c r="F521" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G521" t="s">
         <v>18</v>
@@ -13486,7 +13563,7 @@
     <row r="522" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A522" s="17"/>
       <c r="B522" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C522">
         <v>18000</v>
@@ -13496,7 +13573,7 @@
         <v>1</v>
       </c>
       <c r="F522" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G522" t="s">
         <v>18</v>
@@ -13505,7 +13582,7 @@
     <row r="523" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A523" s="17"/>
       <c r="B523" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C523">
         <v>18000</v>
@@ -13515,7 +13592,7 @@
         <v>1</v>
       </c>
       <c r="F523" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G523" t="s">
         <v>18</v>
@@ -13524,7 +13601,7 @@
     <row r="524" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A524" s="17"/>
       <c r="B524" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C524">
         <v>18000</v>
@@ -13534,7 +13611,7 @@
         <v>1</v>
       </c>
       <c r="F524" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G524" t="s">
         <v>18</v>
@@ -13543,7 +13620,7 @@
     <row r="525" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A525" s="17"/>
       <c r="B525" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C525">
         <v>57000</v>
@@ -13553,7 +13630,7 @@
         <v>1</v>
       </c>
       <c r="F525" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G525" t="s">
         <v>18</v>
@@ -13562,7 +13639,7 @@
     <row r="526" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A526" s="17"/>
       <c r="B526" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C526">
         <v>57000</v>
@@ -13572,7 +13649,7 @@
         <v>1</v>
       </c>
       <c r="F526" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G526" t="s">
         <v>18</v>
@@ -13581,7 +13658,7 @@
     <row r="527" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A527" s="17"/>
       <c r="B527" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C527">
         <v>57000</v>
@@ -13591,7 +13668,7 @@
         <v>1</v>
       </c>
       <c r="F527" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G527" t="s">
         <v>18</v>
@@ -13600,7 +13677,7 @@
     <row r="528" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A528" s="17"/>
       <c r="B528" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C528">
         <v>16000</v>
@@ -13610,7 +13687,7 @@
         <v>1</v>
       </c>
       <c r="F528" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G528" t="s">
         <v>18</v>
@@ -13619,7 +13696,7 @@
     <row r="529" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A529" s="17"/>
       <c r="B529" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C529">
         <v>53000</v>
@@ -13629,7 +13706,7 @@
         <v>1</v>
       </c>
       <c r="F529" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G529" t="s">
         <v>18</v>
@@ -13638,7 +13715,7 @@
     <row r="530" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A530" s="17"/>
       <c r="B530" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C530">
         <v>16000</v>
@@ -13648,7 +13725,7 @@
         <v>1</v>
       </c>
       <c r="F530" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G530" t="s">
         <v>18</v>
@@ -13657,7 +13734,7 @@
     <row r="531" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A531" s="17"/>
       <c r="B531" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C531">
         <v>53000</v>
@@ -13667,7 +13744,7 @@
         <v>1</v>
       </c>
       <c r="F531" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G531" t="s">
         <v>18</v>
@@ -13676,7 +13753,7 @@
     <row r="532" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A532" s="17"/>
       <c r="B532" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C532">
         <v>16000</v>
@@ -13686,7 +13763,7 @@
         <v>1</v>
       </c>
       <c r="F532" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G532" t="s">
         <v>18</v>
@@ -13695,7 +13772,7 @@
     <row r="533" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A533" s="17"/>
       <c r="B533" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C533">
         <v>53000</v>
@@ -13705,7 +13782,7 @@
         <v>1</v>
       </c>
       <c r="F533" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G533" t="s">
         <v>18</v>
@@ -13714,7 +13791,7 @@
     <row r="534" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A534" s="17"/>
       <c r="B534" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C534">
         <v>10000</v>
@@ -13724,7 +13801,7 @@
         <v>1</v>
       </c>
       <c r="F534" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G534" t="s">
         <v>18</v>
@@ -13733,7 +13810,7 @@
     <row r="535" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A535" s="17"/>
       <c r="B535" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C535">
         <v>18000</v>
@@ -13743,7 +13820,7 @@
         <v>1</v>
       </c>
       <c r="F535" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G535" t="s">
         <v>18</v>
@@ -13752,7 +13829,7 @@
     <row r="536" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A536" s="17"/>
       <c r="B536" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C536">
         <v>18000</v>
@@ -13762,7 +13839,7 @@
         <v>1</v>
       </c>
       <c r="F536" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G536" t="s">
         <v>18</v>
@@ -13771,7 +13848,7 @@
     <row r="537" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A537" s="17"/>
       <c r="B537" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C537">
         <v>18000</v>
@@ -13781,7 +13858,7 @@
         <v>1</v>
       </c>
       <c r="F537" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G537" t="s">
         <v>18</v>
@@ -13790,7 +13867,7 @@
     <row r="538" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A538" s="17"/>
       <c r="B538" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C538">
         <v>18000</v>
@@ -13800,7 +13877,7 @@
         <v>1</v>
       </c>
       <c r="F538" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G538" t="s">
         <v>18</v>
@@ -13809,7 +13886,7 @@
     <row r="539" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A539" s="17"/>
       <c r="B539" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C539">
         <v>21000</v>
@@ -13819,7 +13896,7 @@
         <v>1</v>
       </c>
       <c r="F539" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G539" t="s">
         <v>18</v>
@@ -13828,7 +13905,7 @@
     <row r="540" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A540" s="17"/>
       <c r="B540" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C540">
         <v>18000</v>
@@ -13838,7 +13915,7 @@
         <v>1</v>
       </c>
       <c r="F540" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G540" t="s">
         <v>18</v>
@@ -13847,7 +13924,7 @@
     <row r="541" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A541" s="17"/>
       <c r="B541" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C541">
         <v>18000</v>
@@ -13857,7 +13934,7 @@
         <v>1</v>
       </c>
       <c r="F541" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G541" t="s">
         <v>18</v>
@@ -13866,7 +13943,7 @@
     <row r="542" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A542" s="17"/>
       <c r="B542" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C542">
         <v>18000</v>
@@ -13876,7 +13953,7 @@
         <v>1</v>
       </c>
       <c r="F542" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G542" t="s">
         <v>18</v>
@@ -13885,7 +13962,7 @@
     <row r="543" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A543" s="17"/>
       <c r="B543" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C543">
         <v>18000</v>
@@ -13895,7 +13972,7 @@
         <v>1</v>
       </c>
       <c r="F543" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G543" t="s">
         <v>18</v>
@@ -13904,7 +13981,7 @@
     <row r="544" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A544" s="17"/>
       <c r="B544" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C544">
         <v>24000</v>
@@ -13914,7 +13991,7 @@
         <v>1</v>
       </c>
       <c r="F544" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G544" t="s">
         <v>18</v>
@@ -13923,7 +14000,7 @@
     <row r="545" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A545" s="17"/>
       <c r="B545" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C545">
         <v>24000</v>
@@ -13933,7 +14010,7 @@
         <v>1</v>
       </c>
       <c r="F545" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G545" t="s">
         <v>18</v>
@@ -13942,7 +14019,7 @@
     <row r="546" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A546" s="17"/>
       <c r="B546" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C546">
         <v>24000</v>
@@ -13952,7 +14029,7 @@
         <v>1</v>
       </c>
       <c r="F546" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G546" t="s">
         <v>18</v>
@@ -13961,7 +14038,7 @@
     <row r="547" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A547" s="17"/>
       <c r="B547" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C547">
         <v>24000</v>
@@ -13971,7 +14048,7 @@
         <v>1</v>
       </c>
       <c r="F547" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G547" t="s">
         <v>18</v>
@@ -13980,7 +14057,7 @@
     <row r="548" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A548" s="17"/>
       <c r="B548" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C548">
         <v>24000</v>
@@ -13990,7 +14067,7 @@
         <v>1</v>
       </c>
       <c r="F548" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G548" t="s">
         <v>18</v>
@@ -13999,7 +14076,7 @@
     <row r="549" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A549" s="17"/>
       <c r="B549" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C549">
         <v>24000</v>
@@ -14009,7 +14086,7 @@
         <v>1</v>
       </c>
       <c r="F549" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G549" t="s">
         <v>18</v>
@@ -14018,7 +14095,7 @@
     <row r="550" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A550" s="17"/>
       <c r="B550" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C550">
         <v>21000</v>
@@ -14028,7 +14105,7 @@
         <v>1</v>
       </c>
       <c r="F550" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G550" t="s">
         <v>18</v>
@@ -14037,7 +14114,7 @@
     <row r="551" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A551" s="17"/>
       <c r="B551" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C551">
         <v>24000</v>
@@ -14047,7 +14124,7 @@
         <v>1</v>
       </c>
       <c r="F551" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G551" t="s">
         <v>18</v>
@@ -14056,7 +14133,7 @@
     <row r="552" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A552" s="17"/>
       <c r="B552" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C552">
         <v>22000</v>
@@ -14066,7 +14143,7 @@
         <v>1</v>
       </c>
       <c r="F552" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G552" t="s">
         <v>18</v>
@@ -14074,10 +14151,10 @@
     </row>
     <row r="553" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A553" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B553" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C553">
         <v>22000</v>
@@ -14096,7 +14173,7 @@
     <row r="554" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A554" s="17"/>
       <c r="B554" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C554">
         <v>22000</v>
@@ -14115,7 +14192,7 @@
     <row r="555" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A555" s="17"/>
       <c r="B555" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C555">
         <v>22000</v>
@@ -14134,7 +14211,7 @@
     <row r="556" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A556" s="17"/>
       <c r="B556" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C556">
         <v>25000</v>
@@ -14153,7 +14230,7 @@
     <row r="557" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A557" s="17"/>
       <c r="B557" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C557">
         <v>25000</v>
@@ -14172,7 +14249,7 @@
     <row r="558" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A558" s="17"/>
       <c r="B558" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C558">
         <v>12000</v>
@@ -14182,7 +14259,7 @@
         <v>1</v>
       </c>
       <c r="F558" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G558" t="s">
         <v>17</v>
@@ -14191,7 +14268,7 @@
     <row r="559" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A559" s="17"/>
       <c r="B559" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C559">
         <v>12000</v>
@@ -14201,7 +14278,7 @@
         <v>1</v>
       </c>
       <c r="F559" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G559" t="s">
         <v>17</v>
@@ -14210,7 +14287,7 @@
     <row r="560" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A560" s="17"/>
       <c r="B560" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C560">
         <v>12000</v>
@@ -14220,7 +14297,7 @@
         <v>1</v>
       </c>
       <c r="F560" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G560" t="s">
         <v>17</v>
@@ -14229,7 +14306,7 @@
     <row r="561" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A561" s="17"/>
       <c r="B561" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C561">
         <v>12000</v>
@@ -14239,7 +14316,7 @@
         <v>1</v>
       </c>
       <c r="F561" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G561" t="s">
         <v>17</v>
@@ -14248,7 +14325,7 @@
     <row r="562" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A562" s="17"/>
       <c r="B562" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C562">
         <v>15000</v>
@@ -14258,7 +14335,7 @@
         <v>1</v>
       </c>
       <c r="F562" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G562" t="s">
         <v>17</v>
@@ -14267,7 +14344,7 @@
     <row r="563" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A563" s="17"/>
       <c r="B563" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C563">
         <v>12000</v>
@@ -14277,7 +14354,7 @@
         <v>1</v>
       </c>
       <c r="F563" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G563" t="s">
         <v>17</v>
@@ -14285,10 +14362,10 @@
     </row>
     <row r="564" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A564" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B564" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C564">
         <v>27800</v>
@@ -14307,7 +14384,7 @@
     <row r="565" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A565" s="17"/>
       <c r="B565" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C565">
         <v>22800</v>
@@ -14326,7 +14403,7 @@
     <row r="566" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A566" s="17"/>
       <c r="B566" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C566">
         <v>22800</v>
@@ -14345,7 +14422,7 @@
     <row r="567" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A567" s="17"/>
       <c r="B567" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C567">
         <v>26800</v>
@@ -14364,7 +14441,7 @@
     <row r="568" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A568" s="17"/>
       <c r="B568" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C568">
         <v>28800</v>
@@ -14383,7 +14460,7 @@
     <row r="569" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A569" s="17"/>
       <c r="B569" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C569">
         <v>39800</v>
@@ -14402,7 +14479,7 @@
     <row r="570" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A570" s="17"/>
       <c r="B570" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C570">
         <v>29800</v>
@@ -14421,7 +14498,7 @@
     <row r="571" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A571" s="17"/>
       <c r="B571" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C571">
         <v>32800</v>
@@ -14440,7 +14517,7 @@
     <row r="572" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A572" s="17"/>
       <c r="B572" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C572">
         <v>8800</v>
@@ -14459,7 +14536,7 @@
     <row r="573" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A573" s="17"/>
       <c r="B573" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C573">
         <v>39800</v>
@@ -14478,7 +14555,7 @@
     <row r="574" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A574" s="17"/>
       <c r="B574" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C574">
         <v>25800</v>
@@ -14497,7 +14574,7 @@
     <row r="575" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A575" s="17"/>
       <c r="B575" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C575">
         <v>25800</v>
@@ -14516,7 +14593,7 @@
     <row r="576" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A576" s="17"/>
       <c r="B576" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C576">
         <v>19800</v>
@@ -14535,7 +14612,7 @@
     <row r="577" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A577" s="17"/>
       <c r="B577" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C577">
         <v>25800</v>
@@ -14554,7 +14631,7 @@
     <row r="578" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A578" s="17"/>
       <c r="B578" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C578">
         <v>39800</v>
@@ -14573,7 +14650,7 @@
     <row r="579" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A579" s="17"/>
       <c r="B579" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C579">
         <v>25800</v>
@@ -14592,7 +14669,7 @@
     <row r="580" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A580" s="17"/>
       <c r="B580" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C580">
         <v>25800</v>
@@ -14611,7 +14688,7 @@
     <row r="581" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A581" s="17"/>
       <c r="B581" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C581">
         <v>33800</v>
@@ -14630,7 +14707,7 @@
     <row r="582" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A582" s="17"/>
       <c r="B582" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C582">
         <v>28800</v>
@@ -14649,7 +14726,7 @@
     <row r="583" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A583" s="17"/>
       <c r="B583" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C583">
         <v>29800</v>
@@ -14668,7 +14745,7 @@
     <row r="584" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A584" s="17"/>
       <c r="B584" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C584">
         <v>29800</v>
@@ -14687,7 +14764,7 @@
     <row r="585" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A585" s="17"/>
       <c r="B585" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C585">
         <v>43800</v>
@@ -14706,7 +14783,7 @@
     <row r="586" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A586" s="17"/>
       <c r="B586" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C586">
         <v>29800</v>
@@ -14725,7 +14802,7 @@
     <row r="587" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A587" s="17"/>
       <c r="B587" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C587">
         <v>32800</v>
@@ -14744,7 +14821,7 @@
     <row r="588" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A588" s="17"/>
       <c r="B588" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C588">
         <v>42800</v>
@@ -14763,7 +14840,7 @@
     <row r="589" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A589" s="17"/>
       <c r="B589" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C589">
         <v>43800</v>
@@ -14782,7 +14859,7 @@
     <row r="590" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A590" s="17"/>
       <c r="B590" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C590">
         <v>39800</v>
@@ -14801,7 +14878,7 @@
     <row r="591" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A591" s="17"/>
       <c r="B591" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C591">
         <v>29800</v>
@@ -14820,7 +14897,7 @@
     <row r="592" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A592" s="17"/>
       <c r="B592" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C592">
         <v>26800</v>
@@ -14839,7 +14916,7 @@
     <row r="593" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A593" s="17"/>
       <c r="B593" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C593">
         <v>44800</v>
@@ -14858,7 +14935,7 @@
     <row r="594" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A594" s="17"/>
       <c r="B594" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C594">
         <v>23800</v>
@@ -14877,7 +14954,7 @@
     <row r="595" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A595" s="17"/>
       <c r="B595" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C595">
         <v>27800</v>
@@ -14896,7 +14973,7 @@
     <row r="596" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A596" s="17"/>
       <c r="B596" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C596">
         <v>27800</v>
@@ -14915,7 +14992,7 @@
     <row r="597" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A597" s="17"/>
       <c r="B597" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C597">
         <v>33800</v>
@@ -14934,7 +15011,7 @@
     <row r="598" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A598" s="17"/>
       <c r="B598" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C598">
         <v>34800</v>
@@ -14953,7 +15030,7 @@
     <row r="599" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A599" s="17"/>
       <c r="B599" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C599">
         <v>29800</v>
@@ -14972,7 +15049,7 @@
     <row r="600" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A600" s="17"/>
       <c r="B600" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C600">
         <v>41800</v>
@@ -14991,7 +15068,7 @@
     <row r="601" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A601" s="17"/>
       <c r="B601" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C601">
         <v>36800</v>
@@ -15010,7 +15087,7 @@
     <row r="602" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A602" s="17"/>
       <c r="B602" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C602">
         <v>30800</v>
@@ -15029,7 +15106,7 @@
     <row r="603" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A603" s="17"/>
       <c r="B603" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C603">
         <v>27800</v>
@@ -15048,7 +15125,7 @@
     <row r="604" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A604" s="17"/>
       <c r="B604" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C604">
         <v>30800</v>
@@ -15067,7 +15144,7 @@
     <row r="605" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A605" s="17"/>
       <c r="B605" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C605">
         <v>35800</v>
@@ -15086,7 +15163,7 @@
     <row r="606" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A606" s="17"/>
       <c r="B606" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C606">
         <v>33800</v>
@@ -15105,7 +15182,7 @@
     <row r="607" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A607" s="17"/>
       <c r="B607" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C607">
         <v>33800</v>
@@ -15124,7 +15201,7 @@
     <row r="608" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A608" s="17"/>
       <c r="B608" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C608">
         <v>21800</v>
@@ -15143,7 +15220,7 @@
     <row r="609" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A609" s="17"/>
       <c r="B609" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C609">
         <v>18800</v>
@@ -15162,7 +15239,7 @@
     <row r="610" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A610" s="17"/>
       <c r="B610" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C610">
         <v>28800</v>
@@ -15181,7 +15258,7 @@
     <row r="611" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A611" s="17"/>
       <c r="B611" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C611">
         <v>23800</v>
@@ -15200,7 +15277,7 @@
     <row r="612" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A612" s="17"/>
       <c r="B612" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C612">
         <v>23800</v>
@@ -15219,7 +15296,7 @@
     <row r="613" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A613" s="17"/>
       <c r="B613" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C613">
         <v>26800</v>
@@ -15238,7 +15315,7 @@
     <row r="614" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A614" s="17"/>
       <c r="B614" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C614">
         <v>25800</v>
@@ -15257,7 +15334,7 @@
     <row r="615" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A615" s="17"/>
       <c r="B615" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C615">
         <v>16800</v>
@@ -15276,7 +15353,7 @@
     <row r="616" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A616" s="17"/>
       <c r="B616" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C616">
         <v>25800</v>
@@ -15295,7 +15372,7 @@
     <row r="617" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A617" s="17"/>
       <c r="B617" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C617">
         <v>16800</v>
@@ -15314,7 +15391,7 @@
     <row r="618" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A618" s="17"/>
       <c r="B618" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C618">
         <v>53800</v>
@@ -15333,7 +15410,7 @@
     <row r="619" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A619" s="17"/>
       <c r="B619" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C619">
         <v>53800</v>
@@ -15352,7 +15429,7 @@
     <row r="620" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A620" s="17"/>
       <c r="B620" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C620">
         <v>21800</v>
@@ -15371,7 +15448,7 @@
     <row r="621" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A621" s="17"/>
       <c r="B621" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C621">
         <v>22800</v>
@@ -15390,7 +15467,7 @@
     <row r="622" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A622" s="17"/>
       <c r="B622" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C622">
         <v>27800</v>
@@ -15409,7 +15486,7 @@
     <row r="623" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A623" s="17"/>
       <c r="B623" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C623">
         <v>29800</v>
@@ -15428,7 +15505,7 @@
     <row r="624" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A624" s="17"/>
       <c r="B624" s="29" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C624">
         <v>25800</v>
@@ -15447,7 +15524,7 @@
     <row r="625" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A625" s="17"/>
       <c r="B625" s="29" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C625">
         <v>25800</v>
@@ -15466,7 +15543,7 @@
     <row r="626" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A626" s="17"/>
       <c r="B626" s="29" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C626">
         <v>25800</v>
@@ -15485,7 +15562,7 @@
     <row r="627" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A627" s="17"/>
       <c r="B627" s="29" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C627">
         <v>25800</v>
@@ -15504,7 +15581,7 @@
     <row r="628" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A628" s="17"/>
       <c r="B628" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C628">
         <v>26800</v>
@@ -15514,7 +15591,7 @@
         <v>1</v>
       </c>
       <c r="F628" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G628" t="s">
         <v>17</v>
@@ -15523,7 +15600,7 @@
     <row r="629" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A629" s="17"/>
       <c r="B629" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C629">
         <v>26800</v>
@@ -15533,7 +15610,7 @@
         <v>1</v>
       </c>
       <c r="F629" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G629" t="s">
         <v>17</v>
@@ -15542,7 +15619,7 @@
     <row r="630" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A630" s="17"/>
       <c r="B630" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C630">
         <v>26800</v>
@@ -15552,7 +15629,7 @@
         <v>1</v>
       </c>
       <c r="F630" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G630" t="s">
         <v>17</v>
@@ -15561,7 +15638,7 @@
     <row r="631" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A631" s="17"/>
       <c r="B631" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C631">
         <v>31800</v>
@@ -15571,7 +15648,7 @@
         <v>2</v>
       </c>
       <c r="F631" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G631" t="s">
         <v>17</v>
@@ -15580,7 +15657,7 @@
     <row r="632" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A632" s="17"/>
       <c r="B632" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C632">
         <v>26800</v>
@@ -15590,7 +15667,7 @@
         <v>1</v>
       </c>
       <c r="F632" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G632" t="s">
         <v>17</v>
@@ -15599,7 +15676,7 @@
     <row r="633" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A633" s="17"/>
       <c r="B633" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C633">
         <v>8800</v>
@@ -15609,7 +15686,7 @@
         <v>1</v>
       </c>
       <c r="F633" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G633" t="s">
         <v>17</v>
@@ -15618,7 +15695,7 @@
     <row r="634" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A634" s="17"/>
       <c r="B634" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C634">
         <v>13800</v>
@@ -15628,7 +15705,7 @@
         <v>1</v>
       </c>
       <c r="F634" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G634" t="s">
         <v>17</v>
@@ -15637,7 +15714,7 @@
     <row r="635" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A635" s="17"/>
       <c r="B635" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C635">
         <v>13800</v>
@@ -15647,7 +15724,7 @@
         <v>1</v>
       </c>
       <c r="F635" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G635" t="s">
         <v>17</v>
@@ -15656,7 +15733,7 @@
     <row r="636" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A636" s="17"/>
       <c r="B636" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C636">
         <v>13800</v>
@@ -15666,7 +15743,7 @@
         <v>1</v>
       </c>
       <c r="F636" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G636" t="s">
         <v>17</v>
@@ -15675,7 +15752,7 @@
     <row r="637" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A637" s="17"/>
       <c r="B637" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C637">
         <v>14800</v>
@@ -15685,7 +15762,7 @@
         <v>1</v>
       </c>
       <c r="F637" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G637" t="s">
         <v>17</v>
@@ -15694,7 +15771,7 @@
     <row r="638" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A638" s="17"/>
       <c r="B638" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C638">
         <v>11800</v>
@@ -15704,7 +15781,7 @@
         <v>1</v>
       </c>
       <c r="F638" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G638" t="s">
         <v>17</v>
@@ -15713,7 +15790,7 @@
     <row r="639" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A639" s="17"/>
       <c r="B639" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C639">
         <v>11800</v>
@@ -15723,7 +15800,7 @@
         <v>1</v>
       </c>
       <c r="F639" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G639" t="s">
         <v>17</v>
@@ -15732,7 +15809,7 @@
     <row r="640" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A640" s="17"/>
       <c r="B640" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C640">
         <v>7800</v>
@@ -15742,7 +15819,7 @@
         <v>1</v>
       </c>
       <c r="F640" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G640" t="s">
         <v>17</v>
@@ -15751,7 +15828,7 @@
     <row r="641" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A641" s="17"/>
       <c r="B641" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C641">
         <v>8800</v>
@@ -15761,7 +15838,7 @@
         <v>1</v>
       </c>
       <c r="F641" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G641" t="s">
         <v>17</v>
@@ -15769,10 +15846,10 @@
     </row>
     <row r="642" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A642" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B642" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C642">
         <v>9500</v>
@@ -15791,7 +15868,7 @@
     <row r="643" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A643" s="17"/>
       <c r="B643" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C643">
         <v>9500</v>
@@ -15810,7 +15887,7 @@
     <row r="644" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A644" s="17"/>
       <c r="B644" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C644">
         <v>6000</v>
@@ -15820,7 +15897,7 @@
         <v>1</v>
       </c>
       <c r="F644" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G644" s="2" t="s">
         <v>20</v>
@@ -15829,7 +15906,7 @@
     <row r="645" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A645" s="17"/>
       <c r="B645" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C645">
         <v>5000</v>
@@ -15839,7 +15916,7 @@
         <v>1</v>
       </c>
       <c r="F645" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G645" s="2" t="s">
         <v>20</v>
@@ -15848,7 +15925,7 @@
     <row r="646" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A646" s="17"/>
       <c r="B646" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C646">
         <v>8000</v>
@@ -15858,7 +15935,7 @@
         <v>1</v>
       </c>
       <c r="F646" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G646" s="2" t="s">
         <v>20</v>
@@ -15867,7 +15944,7 @@
     <row r="647" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A647" s="17"/>
       <c r="B647" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C647">
         <v>8000</v>
@@ -15877,7 +15954,7 @@
         <v>1</v>
       </c>
       <c r="F647" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G647" s="2" t="s">
         <v>20</v>
@@ -15886,7 +15963,7 @@
     <row r="648" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A648" s="17"/>
       <c r="B648" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C648">
         <v>9000</v>
@@ -15896,7 +15973,7 @@
         <v>1</v>
       </c>
       <c r="F648" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G648" s="2" t="s">
         <v>20</v>
@@ -15904,10 +15981,10 @@
     </row>
     <row r="649" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A649" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B649" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C649">
         <v>31818</v>
@@ -15926,7 +16003,7 @@
     <row r="650" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A650" s="17"/>
       <c r="B650" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C650">
         <v>39090</v>
@@ -15945,7 +16022,7 @@
     <row r="651" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A651" s="17"/>
       <c r="B651" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C651">
         <v>31818</v>
@@ -15964,7 +16041,7 @@
     <row r="652" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A652" s="17"/>
       <c r="B652" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C652">
         <v>39090</v>
@@ -15983,7 +16060,7 @@
     <row r="653" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A653" s="17"/>
       <c r="B653" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C653">
         <v>35454</v>
@@ -16002,7 +16079,7 @@
     <row r="654" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A654" s="17"/>
       <c r="B654" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C654">
         <v>42727</v>
@@ -16021,7 +16098,7 @@
     <row r="655" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A655" s="17"/>
       <c r="B655" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C655">
         <v>35454</v>
@@ -16040,7 +16117,7 @@
     <row r="656" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A656" s="17"/>
       <c r="B656" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C656">
         <v>42727</v>
@@ -16059,7 +16136,7 @@
     <row r="657" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A657" s="17"/>
       <c r="B657" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C657">
         <v>35454</v>
@@ -16078,7 +16155,7 @@
     <row r="658" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A658" s="17"/>
       <c r="B658" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C658">
         <v>42727</v>
@@ -16097,7 +16174,7 @@
     <row r="659" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A659" s="17"/>
       <c r="B659" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C659">
         <v>35454</v>
@@ -16116,7 +16193,7 @@
     <row r="660" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A660" s="17"/>
       <c r="B660" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C660">
         <v>42727</v>
@@ -16135,7 +16212,7 @@
     <row r="661" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A661" s="17"/>
       <c r="B661" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C661">
         <v>35454</v>
@@ -16154,7 +16231,7 @@
     <row r="662" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A662" s="17"/>
       <c r="B662" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C662">
         <v>42727</v>
@@ -16173,7 +16250,7 @@
     <row r="663" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A663" s="17"/>
       <c r="B663" s="33" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C663" s="31"/>
       <c r="D663"/>
@@ -16183,7 +16260,7 @@
     <row r="664" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A664" s="17"/>
       <c r="B664" s="31" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C664" s="31">
         <v>5454</v>
@@ -16202,7 +16279,7 @@
     <row r="665" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A665" s="17"/>
       <c r="B665" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C665" s="31">
         <v>5454</v>
@@ -16221,7 +16298,7 @@
     <row r="666" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A666" s="17"/>
       <c r="B666" s="31" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C666" s="31">
         <v>5454</v>
@@ -16240,7 +16317,7 @@
     <row r="667" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A667" s="17"/>
       <c r="B667" s="31" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C667" s="31">
         <v>5454</v>
@@ -16259,7 +16336,7 @@
     <row r="668" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A668" s="17"/>
       <c r="B668" s="33" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C668" s="32">
         <v>44545</v>
@@ -16278,7 +16355,7 @@
     <row r="669" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A669" s="17"/>
       <c r="B669" s="33" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C669" s="32">
         <v>44545</v>
@@ -16297,7 +16374,7 @@
     <row r="670" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A670" s="17"/>
       <c r="B670" s="33" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C670" s="32">
         <v>44545</v>
@@ -16316,7 +16393,7 @@
     <row r="671" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A671" s="17"/>
       <c r="B671" s="33" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C671" s="32">
         <v>44545</v>
@@ -16335,7 +16412,7 @@
     <row r="672" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A672" s="17"/>
       <c r="B672" s="34" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C672" s="31">
         <v>20909</v>
@@ -16354,7 +16431,7 @@
     <row r="673" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A673" s="17"/>
       <c r="B673" s="32" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C673" s="31">
         <v>31818</v>
@@ -16373,7 +16450,7 @@
     <row r="674" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A674" s="17"/>
       <c r="B674" s="32" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C674" s="31">
         <v>39090</v>
@@ -16392,7 +16469,7 @@
     <row r="675" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A675" s="17"/>
       <c r="B675" s="32" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C675" s="31">
         <v>27272</v>
@@ -16411,7 +16488,7 @@
     <row r="676" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A676" s="17"/>
       <c r="B676" s="32" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C676" s="31">
         <v>32727</v>
@@ -16430,7 +16507,7 @@
     <row r="677" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A677" s="17"/>
       <c r="B677" s="34" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C677" s="31">
         <v>49090</v>
@@ -16449,7 +16526,7 @@
     <row r="678" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A678" s="17"/>
       <c r="B678" s="32" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C678" s="32">
         <v>26363</v>
@@ -16468,7 +16545,7 @@
     <row r="679" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A679" s="17"/>
       <c r="B679" s="32" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C679" s="32">
         <v>16363</v>
@@ -16487,7 +16564,7 @@
     <row r="680" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A680" s="17"/>
       <c r="B680" s="32" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C680" s="32">
         <v>26363</v>
@@ -16506,7 +16583,7 @@
     <row r="681" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A681" s="17"/>
       <c r="B681" s="32" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C681" s="32">
         <v>15454</v>
@@ -16525,7 +16602,7 @@
     <row r="682" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A682" s="17"/>
       <c r="B682" s="32" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C682" s="32">
         <v>15454</v>
@@ -16544,7 +16621,7 @@
     <row r="683" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A683" s="17"/>
       <c r="B683" s="32" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C683" s="32">
         <v>26363</v>
@@ -16563,7 +16640,7 @@
     <row r="684" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A684" s="17"/>
       <c r="B684" s="32" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C684" s="32">
         <v>16363</v>
@@ -16582,7 +16659,7 @@
     <row r="685" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A685" s="17"/>
       <c r="B685" s="32" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C685" s="32">
         <v>26363</v>
@@ -16601,7 +16678,7 @@
     <row r="686" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A686" s="17"/>
       <c r="B686" s="32" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C686" s="32">
         <v>22727</v>
@@ -16620,7 +16697,7 @@
     <row r="687" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A687" s="17"/>
       <c r="B687" s="32" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C687" s="32">
         <v>16363</v>
@@ -16639,7 +16716,7 @@
     <row r="688" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A688" s="17"/>
       <c r="B688" s="32" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C688" s="32">
         <v>9090</v>
@@ -16945,8 +17022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B90"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16969,71 +17046,71 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>30</v>
+        <v>755</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>30</v>
+        <v>755</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>30</v>
+        <v>755</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>31</v>
+        <v>756</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>31</v>
+        <v>756</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>31</v>
+        <v>756</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>32</v>
+        <v>757</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>32</v>
+        <v>757</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>32</v>
+        <v>758</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>51</v>
@@ -17041,7 +17118,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>32</v>
+        <v>758</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>25</v>
@@ -17049,31 +17126,31 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>33</v>
+        <v>759</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>33</v>
+        <v>759</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>33</v>
+        <v>759</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>34</v>
+        <v>760</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>50</v>
@@ -17081,7 +17158,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>34</v>
+        <v>760</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>51</v>
@@ -17089,7 +17166,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
-        <v>34</v>
+        <v>760</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>25</v>
@@ -17097,47 +17174,47 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
-        <v>35</v>
+        <v>761</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
-        <v>35</v>
+        <v>761</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
-        <v>35</v>
+        <v>762</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
-        <v>36</v>
+        <v>762</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
-        <v>36</v>
+        <v>763</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
-        <v>36</v>
+        <v>763</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>51</v>
@@ -17145,7 +17222,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
-        <v>36</v>
+        <v>763</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>25</v>
@@ -17153,99 +17230,55 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
-        <v>37</v>
+        <v>764</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="A27" s="17"/>
+      <c r="B27" s="1"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="A28" s="17"/>
+      <c r="B28" s="1"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="A29" s="17"/>
+      <c r="B29" s="1"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="A30" s="17"/>
+      <c r="B30" s="1"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="A31" s="17"/>
+      <c r="B31" s="1"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="A32" s="17"/>
+      <c r="B32" s="1"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="A33" s="17"/>
+      <c r="B33" s="1"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="A34" s="17"/>
+      <c r="B34" s="1"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="A35" s="17"/>
+      <c r="B35" s="1"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="A36" s="17"/>
+      <c r="B36" s="1"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
@@ -17465,6 +17498,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A2:B4 B8:B25 B5:B7 A5:A25" numberStoredAsText="1"/>
+  </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -17476,7 +17512,7 @@
   <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17502,7 +17538,7 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>30</v>
+        <v>755</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>41</v>
@@ -17511,32 +17547,32 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D2" s="23">
-        <v>0.91666666666666663</v>
+        <v>0.875</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>30</v>
+        <v>755</v>
       </c>
       <c r="B3" s="20" t="s">
         <v>42</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="D3" s="23">
+        <v>0.875</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>30</v>
+        <v>755</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>43</v>
@@ -17545,15 +17581,15 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D4" s="23">
-        <v>0.91666666666666663</v>
+        <v>0.875</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>30</v>
+        <v>755</v>
       </c>
       <c r="B5" s="20" t="s">
         <v>44</v>
@@ -17562,15 +17598,15 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D5" s="23">
-        <v>0.91666666666666663</v>
+        <v>0.875</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>30</v>
+        <v>755</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>45</v>
@@ -17579,12 +17615,12 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D6" s="23">
-        <v>0.91666666666666663</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>30</v>
+        <v>755</v>
       </c>
       <c r="B7" s="20" t="s">
         <v>46</v>
@@ -17593,12 +17629,12 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D7" s="23">
-        <v>0.91666666666666663</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>30</v>
+        <v>755</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>47</v>
@@ -17607,12 +17643,12 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D8" s="23">
-        <v>0.91666666666666663</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
-        <v>31</v>
+        <v>756</v>
       </c>
       <c r="B9" s="19" t="s">
         <v>41</v>
@@ -17621,12 +17657,12 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D9" s="23">
-        <v>0.875</v>
+        <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
-        <v>31</v>
+        <v>756</v>
       </c>
       <c r="B10" s="20" t="s">
         <v>42</v>
@@ -17635,12 +17671,12 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D10" s="23">
-        <v>0.875</v>
+        <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
-        <v>31</v>
+        <v>756</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>43</v>
@@ -17649,12 +17685,12 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D11" s="23">
-        <v>0.875</v>
+        <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
-        <v>31</v>
+        <v>756</v>
       </c>
       <c r="B12" s="20" t="s">
         <v>44</v>
@@ -17663,12 +17699,12 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D12" s="23">
-        <v>0.875</v>
+        <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
-        <v>31</v>
+        <v>756</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>45</v>
@@ -17677,12 +17713,12 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D13" s="23">
-        <v>0.875</v>
+        <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
-        <v>31</v>
+        <v>756</v>
       </c>
       <c r="B14" s="20" t="s">
         <v>46</v>
@@ -17691,12 +17727,12 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D14" s="23">
-        <v>0.875</v>
+        <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>31</v>
+        <v>756</v>
       </c>
       <c r="B15" s="19" t="s">
         <v>47</v>
@@ -17705,12 +17741,12 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D15" s="23">
-        <v>0.875</v>
+        <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
-        <v>32</v>
+        <v>757</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>41</v>
@@ -17724,7 +17760,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
-        <v>32</v>
+        <v>757</v>
       </c>
       <c r="B17" s="20" t="s">
         <v>42</v>
@@ -17738,7 +17774,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
-        <v>32</v>
+        <v>757</v>
       </c>
       <c r="B18" s="19" t="s">
         <v>43</v>
@@ -17752,7 +17788,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
-        <v>32</v>
+        <v>757</v>
       </c>
       <c r="B19" s="20" t="s">
         <v>44</v>
@@ -17766,7 +17802,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
-        <v>32</v>
+        <v>757</v>
       </c>
       <c r="B20" s="19" t="s">
         <v>45</v>
@@ -17780,7 +17816,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
-        <v>32</v>
+        <v>757</v>
       </c>
       <c r="B21" s="20" t="s">
         <v>46</v>
@@ -17794,7 +17830,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
-        <v>32</v>
+        <v>757</v>
       </c>
       <c r="B22" s="19" t="s">
         <v>47</v>
@@ -17808,7 +17844,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
-        <v>33</v>
+        <v>758</v>
       </c>
       <c r="B23" s="19" t="s">
         <v>41</v>
@@ -17822,7 +17858,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
-        <v>33</v>
+        <v>758</v>
       </c>
       <c r="B24" s="20" t="s">
         <v>42</v>
@@ -17836,7 +17872,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
-        <v>33</v>
+        <v>758</v>
       </c>
       <c r="B25" s="19" t="s">
         <v>43</v>
@@ -17850,7 +17886,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
-        <v>33</v>
+        <v>758</v>
       </c>
       <c r="B26" s="20" t="s">
         <v>44</v>
@@ -17864,7 +17900,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
-        <v>33</v>
+        <v>758</v>
       </c>
       <c r="B27" s="19" t="s">
         <v>45</v>
@@ -17878,7 +17914,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
-        <v>33</v>
+        <v>758</v>
       </c>
       <c r="B28" s="20" t="s">
         <v>46</v>
@@ -17892,7 +17928,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="21" t="s">
-        <v>33</v>
+        <v>758</v>
       </c>
       <c r="B29" s="19" t="s">
         <v>47</v>
@@ -17906,7 +17942,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="21" t="s">
-        <v>34</v>
+        <v>759</v>
       </c>
       <c r="B30" s="19" t="s">
         <v>41</v>
@@ -17920,7 +17956,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="21" t="s">
-        <v>34</v>
+        <v>759</v>
       </c>
       <c r="B31" s="20" t="s">
         <v>42</v>
@@ -17934,7 +17970,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="21" t="s">
-        <v>34</v>
+        <v>759</v>
       </c>
       <c r="B32" s="19" t="s">
         <v>43</v>
@@ -17948,7 +17984,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="21" t="s">
-        <v>34</v>
+        <v>759</v>
       </c>
       <c r="B33" s="20" t="s">
         <v>44</v>
@@ -17962,7 +17998,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="21" t="s">
-        <v>34</v>
+        <v>759</v>
       </c>
       <c r="B34" s="19" t="s">
         <v>45</v>
@@ -17976,7 +18012,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="21" t="s">
-        <v>34</v>
+        <v>759</v>
       </c>
       <c r="B35" s="20" t="s">
         <v>46</v>
@@ -17990,7 +18026,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="21" t="s">
-        <v>34</v>
+        <v>759</v>
       </c>
       <c r="B36" s="19" t="s">
         <v>47</v>
@@ -18004,7 +18040,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="21" t="s">
-        <v>35</v>
+        <v>760</v>
       </c>
       <c r="B37" s="19" t="s">
         <v>41</v>
@@ -18018,7 +18054,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="21" t="s">
-        <v>35</v>
+        <v>760</v>
       </c>
       <c r="B38" s="20" t="s">
         <v>42</v>
@@ -18032,7 +18068,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="21" t="s">
-        <v>35</v>
+        <v>760</v>
       </c>
       <c r="B39" s="19" t="s">
         <v>43</v>
@@ -18046,7 +18082,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="21" t="s">
-        <v>35</v>
+        <v>760</v>
       </c>
       <c r="B40" s="20" t="s">
         <v>44</v>
@@ -18060,7 +18096,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="21" t="s">
-        <v>35</v>
+        <v>760</v>
       </c>
       <c r="B41" s="19" t="s">
         <v>45</v>
@@ -18074,7 +18110,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="21" t="s">
-        <v>35</v>
+        <v>760</v>
       </c>
       <c r="B42" s="20" t="s">
         <v>46</v>
@@ -18088,7 +18124,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="21" t="s">
-        <v>35</v>
+        <v>760</v>
       </c>
       <c r="B43" s="19" t="s">
         <v>47</v>
@@ -18102,7 +18138,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="21" t="s">
-        <v>36</v>
+        <v>761</v>
       </c>
       <c r="B44" s="19" t="s">
         <v>41</v>
@@ -18111,12 +18147,12 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D44" s="23">
-        <v>0.875</v>
+        <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="21" t="s">
-        <v>36</v>
+        <v>761</v>
       </c>
       <c r="B45" s="20" t="s">
         <v>42</v>
@@ -18125,12 +18161,12 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D45" s="23">
-        <v>0.875</v>
+        <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="21" t="s">
-        <v>36</v>
+        <v>761</v>
       </c>
       <c r="B46" s="19" t="s">
         <v>43</v>
@@ -18139,12 +18175,12 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D46" s="23">
-        <v>0.875</v>
+        <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="21" t="s">
-        <v>36</v>
+        <v>761</v>
       </c>
       <c r="B47" s="20" t="s">
         <v>44</v>
@@ -18153,12 +18189,12 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D47" s="23">
-        <v>0.875</v>
+        <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="21" t="s">
-        <v>36</v>
+        <v>761</v>
       </c>
       <c r="B48" s="19" t="s">
         <v>45</v>
@@ -18167,12 +18203,12 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D48" s="23">
-        <v>0.875</v>
+        <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="21" t="s">
-        <v>36</v>
+        <v>761</v>
       </c>
       <c r="B49" s="20" t="s">
         <v>46</v>
@@ -18181,12 +18217,12 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D49" s="23">
-        <v>0.875</v>
+        <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="21" t="s">
-        <v>36</v>
+        <v>761</v>
       </c>
       <c r="B50" s="19" t="s">
         <v>47</v>
@@ -18195,12 +18231,12 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D50" s="23">
-        <v>0.875</v>
+        <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="21" t="s">
-        <v>37</v>
+        <v>762</v>
       </c>
       <c r="B51" s="19" t="s">
         <v>41</v>
@@ -18214,7 +18250,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="21" t="s">
-        <v>37</v>
+        <v>762</v>
       </c>
       <c r="B52" s="20" t="s">
         <v>42</v>
@@ -18228,7 +18264,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="21" t="s">
-        <v>37</v>
+        <v>762</v>
       </c>
       <c r="B53" s="19" t="s">
         <v>43</v>
@@ -18242,7 +18278,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="21" t="s">
-        <v>37</v>
+        <v>762</v>
       </c>
       <c r="B54" s="20" t="s">
         <v>44</v>
@@ -18256,7 +18292,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="21" t="s">
-        <v>37</v>
+        <v>762</v>
       </c>
       <c r="B55" s="19" t="s">
         <v>45</v>
@@ -18270,7 +18306,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="21" t="s">
-        <v>37</v>
+        <v>762</v>
       </c>
       <c r="B56" s="20" t="s">
         <v>46</v>
@@ -18284,7 +18320,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="21" t="s">
-        <v>37</v>
+        <v>762</v>
       </c>
       <c r="B57" s="19" t="s">
         <v>47</v>
@@ -18298,7 +18334,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="21" t="s">
-        <v>38</v>
+        <v>763</v>
       </c>
       <c r="B58" s="19" t="s">
         <v>41</v>
@@ -18312,7 +18348,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="21" t="s">
-        <v>38</v>
+        <v>763</v>
       </c>
       <c r="B59" s="20" t="s">
         <v>42</v>
@@ -18326,7 +18362,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="21" t="s">
-        <v>38</v>
+        <v>763</v>
       </c>
       <c r="B60" s="19" t="s">
         <v>43</v>
@@ -18340,7 +18376,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="21" t="s">
-        <v>38</v>
+        <v>763</v>
       </c>
       <c r="B61" s="20" t="s">
         <v>44</v>
@@ -18354,7 +18390,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="21" t="s">
-        <v>38</v>
+        <v>763</v>
       </c>
       <c r="B62" s="19" t="s">
         <v>45</v>
@@ -18368,7 +18404,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="21" t="s">
-        <v>38</v>
+        <v>763</v>
       </c>
       <c r="B63" s="20" t="s">
         <v>46</v>
@@ -18382,7 +18418,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="21" t="s">
-        <v>38</v>
+        <v>763</v>
       </c>
       <c r="B64" s="19" t="s">
         <v>47</v>
@@ -18396,17 +18432,21 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="21" t="s">
-        <v>39</v>
+        <v>764</v>
       </c>
       <c r="B65" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C65" s="22"/>
-      <c r="D65" s="23"/>
+      <c r="C65" s="22">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="D65" s="23">
+        <v>0.91666666666666663</v>
+      </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="21" t="s">
-        <v>39</v>
+        <v>764</v>
       </c>
       <c r="B66" s="20" t="s">
         <v>42</v>
@@ -18415,12 +18455,12 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D66" s="23">
-        <v>0.875</v>
+        <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="21" t="s">
-        <v>39</v>
+        <v>764</v>
       </c>
       <c r="B67" s="19" t="s">
         <v>43</v>
@@ -18429,12 +18469,12 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D67" s="23">
-        <v>0.875</v>
+        <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="21" t="s">
-        <v>39</v>
+        <v>764</v>
       </c>
       <c r="B68" s="20" t="s">
         <v>44</v>
@@ -18443,12 +18483,12 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D68" s="23">
-        <v>0.875</v>
+        <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="21" t="s">
-        <v>39</v>
+        <v>764</v>
       </c>
       <c r="B69" s="19" t="s">
         <v>45</v>
@@ -18457,12 +18497,12 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D69" s="23">
-        <v>0.875</v>
+        <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="21" t="s">
-        <v>39</v>
+        <v>764</v>
       </c>
       <c r="B70" s="20" t="s">
         <v>46</v>
@@ -18471,12 +18511,12 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D70" s="23">
-        <v>0.875</v>
+        <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="21" t="s">
-        <v>39</v>
+        <v>764</v>
       </c>
       <c r="B71" s="19" t="s">
         <v>47</v>
@@ -18485,106 +18525,50 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D71" s="23">
-        <v>0.875</v>
+        <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B72" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C72" s="22">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D72" s="23">
-        <v>0.91666666666666663</v>
-      </c>
+      <c r="A72" s="21"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="23"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B73" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C73" s="22">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D73" s="23">
-        <v>0.91666666666666663</v>
-      </c>
+      <c r="A73" s="21"/>
+      <c r="B73" s="20"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="23"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B74" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C74" s="22">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D74" s="23">
-        <v>0.91666666666666663</v>
-      </c>
+      <c r="A74" s="21"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="23"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B75" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C75" s="22">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D75" s="23">
-        <v>0.91666666666666663</v>
-      </c>
+      <c r="A75" s="21"/>
+      <c r="B75" s="20"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="23"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B76" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C76" s="22">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D76" s="23">
-        <v>0.91666666666666663</v>
-      </c>
+      <c r="A76" s="21"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="23"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B77" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C77" s="22">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D77" s="23">
-        <v>0.91666666666666663</v>
-      </c>
+      <c r="A77" s="21"/>
+      <c r="B77" s="20"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="23"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B78" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C78" s="22">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D78" s="23">
-        <v>0.91666666666666663</v>
-      </c>
+      <c r="A78" s="21"/>
+      <c r="B78" s="19"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18595,7 +18579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
